--- a/data/xls/noto.xlsx
+++ b/data/xls/noto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\flsv\全庁共有\令和6年能登半島地震\02_西垣副知事災害対応チーム\04広域避難者支援Ｇ\16 仮設住宅\20240128_被災者の住宅選定支援\20240510更新\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AC0A3C-F5EE-46DB-BEFC-A555997DFA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2A61F6-5968-45C7-8F4C-FE687BCBE938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3315" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -17747,8 +17747,8 @@
   <dimension ref="A1:AA822"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A766" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E792" sqref="E792"/>
+      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J274" sqref="J274:K274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -38515,11 +38515,11 @@
       <c r="I274" s="23" t="s">
         <v>896</v>
       </c>
-      <c r="J274" s="23">
-        <v>35.730081200000001</v>
-      </c>
-      <c r="K274" s="23">
-        <v>140.0459615</v>
+      <c r="J274" s="60">
+        <v>36.322942423821097</v>
+      </c>
+      <c r="K274" s="60">
+        <v>136.34217665468799</v>
       </c>
       <c r="L274" s="24">
         <v>40000</v>

--- a/data/xls/noto.xlsx
+++ b/data/xls/noto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\flsv\全庁共有\令和6年能登半島地震\02_西垣副知事災害対応チーム\04広域避難者支援Ｇ\16 仮設住宅\20240128_被災者の住宅選定支援\20240531更新\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\flsv\全庁共有\令和6年能登半島地震\02_西垣副知事災害対応チーム\04広域避難者支援Ｇ\16 仮設住宅\20240128_被災者の住宅選定支援\20240607更新（実際は0611）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBDFBC5-2966-4E28-A62E-89AE62753283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33FB83B-18BD-41AD-A87F-B630DC2EE0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$AA$782</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$AA$832</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$AA$833</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10506" uniqueCount="2614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10522" uniqueCount="2621">
   <si>
     <t>団体名</t>
     <rPh sb="0" eb="3">
@@ -17124,6 +17124,61 @@
   <si>
     <t>2-1928</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>西荒屋貸家</t>
+    <rPh sb="0" eb="3">
+      <t>ニシアラヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カシヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1929</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>河北郡内灘町字西荒屋ハ74番地2</t>
+    <rPh sb="0" eb="3">
+      <t>カホクグン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウチナダ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アザ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アラヤ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリープラス（同）</t>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000.6</t>
+  </si>
+  <si>
+    <t>076-255-3240</t>
+  </si>
+  <si>
+    <t>920-0262</t>
   </si>
 </sst>
 </file>
@@ -17388,7 +17443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -17589,6 +17644,15 @@
     </xf>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -17932,11 +17996,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA832"/>
+  <dimension ref="A1:AA833"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="O1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A799" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X817" sqref="X817"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A815" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I829" sqref="I829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -79672,1004 +79736,1058 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="817" spans="1:27" s="59" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A817" s="19" t="s">
+    <row r="817" spans="1:27" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+      <c r="A817" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B817" s="19">
+      <c r="B817" s="31">
         <v>20240524</v>
       </c>
-      <c r="C817" s="20" t="s">
+      <c r="C817" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D817" s="20" t="s">
+      <c r="D817" s="15" t="s">
         <v>2579</v>
       </c>
-      <c r="E817" s="20" t="s">
+      <c r="E817" s="15" t="s">
         <v>2564</v>
       </c>
-      <c r="F817" s="20">
+      <c r="F817" s="15">
         <v>203</v>
       </c>
-      <c r="G817" s="20">
+      <c r="G817" s="15">
         <v>2</v>
       </c>
-      <c r="H817" s="20" t="s">
+      <c r="H817" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="I817" s="20" t="s">
+      <c r="I817" s="15" t="s">
         <v>2565</v>
       </c>
-      <c r="J817" s="20">
+      <c r="J817" s="15">
         <v>36.551341317864697</v>
       </c>
-      <c r="K817" s="20">
+      <c r="K817" s="15">
         <v>136.682032156617</v>
       </c>
-      <c r="L817" s="25">
+      <c r="L817" s="12">
         <v>28000</v>
       </c>
-      <c r="M817" s="25">
+      <c r="M817" s="12">
         <v>2000</v>
       </c>
-      <c r="N817" s="25">
-        <v>0</v>
-      </c>
-      <c r="O817" s="25">
+      <c r="N817" s="12">
+        <v>0</v>
+      </c>
+      <c r="O817" s="12">
         <v>56000</v>
       </c>
-      <c r="P817" s="61">
+      <c r="P817" s="67">
         <v>20000</v>
       </c>
-      <c r="Q817" s="24">
-        <v>0</v>
-      </c>
-      <c r="R817" s="20" t="s">
+      <c r="Q817" s="16">
+        <v>0</v>
+      </c>
+      <c r="R817" s="15" t="s">
         <v>2360</v>
       </c>
-      <c r="S817" s="20" t="s">
+      <c r="S817" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T817" s="20" t="s">
+      <c r="T817" s="15" t="s">
         <v>2571</v>
       </c>
-      <c r="U817" s="20" t="s">
+      <c r="U817" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="V817" s="20" t="s">
+      <c r="V817" s="15" t="s">
         <v>2566</v>
       </c>
-      <c r="W817" s="20" t="s">
+      <c r="W817" s="15" t="s">
         <v>2572</v>
       </c>
-      <c r="X817" s="20"/>
-      <c r="Y817" s="20" t="s">
+      <c r="X817" s="15"/>
+      <c r="Y817" s="15" t="s">
         <v>1612</v>
       </c>
-      <c r="Z817" s="20">
+      <c r="Z817" s="15">
         <v>4000</v>
       </c>
-      <c r="AA817" s="60"/>
-    </row>
-    <row r="818" spans="1:27" s="59" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A818" s="19" t="s">
+      <c r="AA817" s="68"/>
+    </row>
+    <row r="818" spans="1:27" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+      <c r="A818" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B818" s="19">
+      <c r="B818" s="31">
         <v>20240524</v>
       </c>
-      <c r="C818" s="20" t="s">
+      <c r="C818" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D818" s="20" t="s">
+      <c r="D818" s="15" t="s">
         <v>2580</v>
       </c>
-      <c r="E818" s="20" t="s">
+      <c r="E818" s="15" t="s">
         <v>2573</v>
       </c>
-      <c r="F818" s="20">
+      <c r="F818" s="15">
         <v>210</v>
       </c>
-      <c r="G818" s="20">
+      <c r="G818" s="15">
         <v>2</v>
       </c>
-      <c r="H818" s="20" t="s">
+      <c r="H818" s="15" t="s">
         <v>1119</v>
       </c>
-      <c r="I818" s="20" t="s">
+      <c r="I818" s="15" t="s">
         <v>2567</v>
       </c>
-      <c r="J818" s="20">
+      <c r="J818" s="15">
         <v>36.5509288223192</v>
       </c>
-      <c r="K818" s="20">
+      <c r="K818" s="15">
         <v>136.65156069215101</v>
       </c>
-      <c r="L818" s="25">
+      <c r="L818" s="12">
         <v>25000</v>
       </c>
-      <c r="M818" s="25">
-        <v>0</v>
-      </c>
-      <c r="N818" s="25">
-        <v>0</v>
-      </c>
-      <c r="O818" s="25">
+      <c r="M818" s="12">
+        <v>0</v>
+      </c>
+      <c r="N818" s="12">
+        <v>0</v>
+      </c>
+      <c r="O818" s="12">
         <v>50000</v>
       </c>
-      <c r="P818" s="61">
+      <c r="P818" s="67">
         <v>20000</v>
       </c>
-      <c r="Q818" s="24">
-        <v>0</v>
-      </c>
-      <c r="R818" s="20" t="s">
+      <c r="Q818" s="16">
+        <v>0</v>
+      </c>
+      <c r="R818" s="15" t="s">
         <v>2360</v>
       </c>
-      <c r="S818" s="20" t="s">
+      <c r="S818" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T818" s="20" t="s">
+      <c r="T818" s="15" t="s">
         <v>2574</v>
       </c>
-      <c r="U818" s="20" t="s">
+      <c r="U818" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="V818" s="20" t="s">
+      <c r="V818" s="15" t="s">
         <v>2566</v>
       </c>
-      <c r="W818" s="20" t="s">
+      <c r="W818" s="15" t="s">
         <v>2572</v>
       </c>
-      <c r="X818" s="20"/>
-      <c r="Y818" s="20" t="s">
+      <c r="X818" s="15"/>
+      <c r="Y818" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="Z818" s="20" t="s">
+      <c r="Z818" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AA818" s="60"/>
-    </row>
-    <row r="819" spans="1:27" s="59" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A819" s="19" t="s">
+      <c r="AA818" s="68"/>
+    </row>
+    <row r="819" spans="1:27" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+      <c r="A819" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B819" s="19">
+      <c r="B819" s="31">
         <v>20240524</v>
       </c>
-      <c r="C819" s="20" t="s">
+      <c r="C819" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D819" s="20" t="s">
+      <c r="D819" s="15" t="s">
         <v>2581</v>
       </c>
-      <c r="E819" s="20" t="s">
+      <c r="E819" s="15" t="s">
         <v>2573</v>
       </c>
-      <c r="F819" s="20">
+      <c r="F819" s="15">
         <v>202</v>
       </c>
-      <c r="G819" s="20">
+      <c r="G819" s="15">
         <v>2</v>
       </c>
-      <c r="H819" s="20" t="s">
+      <c r="H819" s="15" t="s">
         <v>1119</v>
       </c>
-      <c r="I819" s="20" t="s">
+      <c r="I819" s="15" t="s">
         <v>2567</v>
       </c>
-      <c r="J819" s="20">
+      <c r="J819" s="15">
         <v>36.5509288223192</v>
       </c>
-      <c r="K819" s="20">
+      <c r="K819" s="15">
         <v>136.65156069215101</v>
       </c>
-      <c r="L819" s="25">
+      <c r="L819" s="12">
         <v>28000</v>
       </c>
-      <c r="M819" s="25">
-        <v>0</v>
-      </c>
-      <c r="N819" s="25">
-        <v>0</v>
-      </c>
-      <c r="O819" s="25">
+      <c r="M819" s="12">
+        <v>0</v>
+      </c>
+      <c r="N819" s="12">
+        <v>0</v>
+      </c>
+      <c r="O819" s="12">
         <v>56000</v>
       </c>
-      <c r="P819" s="61">
+      <c r="P819" s="67">
         <v>20000</v>
       </c>
-      <c r="Q819" s="24">
-        <v>0</v>
-      </c>
-      <c r="R819" s="20" t="s">
+      <c r="Q819" s="16">
+        <v>0</v>
+      </c>
+      <c r="R819" s="15" t="s">
         <v>2360</v>
       </c>
-      <c r="S819" s="20" t="s">
+      <c r="S819" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="T819" s="20" t="s">
+      <c r="T819" s="15" t="s">
         <v>2574</v>
       </c>
-      <c r="U819" s="20" t="s">
+      <c r="U819" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="V819" s="20" t="s">
+      <c r="V819" s="15" t="s">
         <v>2566</v>
       </c>
-      <c r="W819" s="20" t="s">
+      <c r="W819" s="15" t="s">
         <v>2572</v>
       </c>
-      <c r="X819" s="20"/>
-      <c r="Y819" s="20" t="s">
+      <c r="X819" s="15"/>
+      <c r="Y819" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="Z819" s="20" t="s">
+      <c r="Z819" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AA819" s="60"/>
-    </row>
-    <row r="820" spans="1:27" s="59" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A820" s="19" t="s">
+      <c r="AA819" s="68"/>
+    </row>
+    <row r="820" spans="1:27" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+      <c r="A820" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B820" s="19">
+      <c r="B820" s="31">
         <v>20240524</v>
       </c>
-      <c r="C820" s="20" t="s">
+      <c r="C820" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D820" s="20" t="s">
+      <c r="D820" s="15" t="s">
         <v>2582</v>
       </c>
-      <c r="E820" s="20" t="s">
+      <c r="E820" s="15" t="s">
         <v>2568</v>
       </c>
-      <c r="F820" s="20">
+      <c r="F820" s="15">
         <v>103</v>
       </c>
-      <c r="G820" s="20">
+      <c r="G820" s="15">
         <v>1</v>
       </c>
-      <c r="H820" s="20" t="s">
+      <c r="H820" s="15" t="s">
         <v>2575</v>
       </c>
-      <c r="I820" s="20" t="s">
+      <c r="I820" s="15" t="s">
         <v>2569</v>
       </c>
-      <c r="J820" s="20">
+      <c r="J820" s="15">
         <v>36.564848481170401</v>
       </c>
-      <c r="K820" s="20">
+      <c r="K820" s="15">
         <v>136.64111896611101</v>
       </c>
-      <c r="L820" s="25">
+      <c r="L820" s="12">
         <v>32000</v>
       </c>
-      <c r="M820" s="25">
-        <v>0</v>
-      </c>
-      <c r="N820" s="25">
-        <v>0</v>
-      </c>
-      <c r="O820" s="25">
+      <c r="M820" s="12">
+        <v>0</v>
+      </c>
+      <c r="N820" s="12">
+        <v>0</v>
+      </c>
+      <c r="O820" s="12">
         <v>64000</v>
       </c>
-      <c r="P820" s="61">
+      <c r="P820" s="67">
         <v>20000</v>
       </c>
-      <c r="Q820" s="24">
-        <v>0</v>
-      </c>
-      <c r="R820" s="20" t="s">
+      <c r="Q820" s="16">
+        <v>0</v>
+      </c>
+      <c r="R820" s="15" t="s">
         <v>2360</v>
       </c>
-      <c r="S820" s="20" t="s">
+      <c r="S820" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T820" s="20" t="s">
+      <c r="T820" s="15" t="s">
         <v>2576</v>
       </c>
-      <c r="U820" s="20" t="s">
+      <c r="U820" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="V820" s="20" t="s">
+      <c r="V820" s="15" t="s">
         <v>2566</v>
       </c>
-      <c r="W820" s="20" t="s">
+      <c r="W820" s="15" t="s">
         <v>2572</v>
       </c>
-      <c r="X820" s="20"/>
-      <c r="Y820" s="20" t="s">
+      <c r="X820" s="15"/>
+      <c r="Y820" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="Z820" s="20" t="s">
+      <c r="Z820" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AA820" s="60"/>
-    </row>
-    <row r="821" spans="1:27" s="59" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A821" s="19" t="s">
+      <c r="AA820" s="68"/>
+    </row>
+    <row r="821" spans="1:27" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+      <c r="A821" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B821" s="19">
+      <c r="B821" s="31">
         <v>20240524</v>
       </c>
-      <c r="C821" s="20" t="s">
+      <c r="C821" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D821" s="20" t="s">
+      <c r="D821" s="15" t="s">
         <v>2583</v>
       </c>
-      <c r="E821" s="20" t="s">
+      <c r="E821" s="15" t="s">
         <v>2568</v>
       </c>
-      <c r="F821" s="20">
+      <c r="F821" s="15">
         <v>206</v>
       </c>
-      <c r="G821" s="20">
+      <c r="G821" s="15">
         <v>2</v>
       </c>
-      <c r="H821" s="20" t="s">
+      <c r="H821" s="15" t="s">
         <v>2575</v>
       </c>
-      <c r="I821" s="20" t="s">
+      <c r="I821" s="15" t="s">
         <v>2569</v>
       </c>
-      <c r="J821" s="20">
+      <c r="J821" s="15">
         <v>36.564848481170401</v>
       </c>
-      <c r="K821" s="20">
+      <c r="K821" s="15">
         <v>136.64111896611101</v>
       </c>
-      <c r="L821" s="25">
+      <c r="L821" s="12">
         <v>33000</v>
       </c>
-      <c r="M821" s="25">
-        <v>0</v>
-      </c>
-      <c r="N821" s="25">
-        <v>0</v>
-      </c>
-      <c r="O821" s="25">
+      <c r="M821" s="12">
+        <v>0</v>
+      </c>
+      <c r="N821" s="12">
+        <v>0</v>
+      </c>
+      <c r="O821" s="12">
         <v>66000</v>
       </c>
-      <c r="P821" s="61">
+      <c r="P821" s="67">
         <v>20000</v>
       </c>
-      <c r="Q821" s="24">
-        <v>0</v>
-      </c>
-      <c r="R821" s="20" t="s">
+      <c r="Q821" s="16">
+        <v>0</v>
+      </c>
+      <c r="R821" s="15" t="s">
         <v>2360</v>
       </c>
-      <c r="S821" s="20" t="s">
+      <c r="S821" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T821" s="20" t="s">
+      <c r="T821" s="15" t="s">
         <v>2576</v>
       </c>
-      <c r="U821" s="20" t="s">
+      <c r="U821" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="V821" s="20" t="s">
+      <c r="V821" s="15" t="s">
         <v>2566</v>
       </c>
-      <c r="W821" s="20" t="s">
+      <c r="W821" s="15" t="s">
         <v>2572</v>
       </c>
-      <c r="X821" s="20"/>
-      <c r="Y821" s="20" t="s">
+      <c r="X821" s="15"/>
+      <c r="Y821" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="Z821" s="20" t="s">
+      <c r="Z821" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AA821" s="60"/>
-    </row>
-    <row r="822" spans="1:27" s="59" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A822" s="19" t="s">
+      <c r="AA821" s="68"/>
+    </row>
+    <row r="822" spans="1:27" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+      <c r="A822" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B822" s="19">
+      <c r="B822" s="31">
         <v>20240524</v>
       </c>
-      <c r="C822" s="20" t="s">
+      <c r="C822" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D822" s="20" t="s">
+      <c r="D822" s="15" t="s">
         <v>2584</v>
       </c>
-      <c r="E822" s="20" t="s">
+      <c r="E822" s="15" t="s">
         <v>2577</v>
       </c>
-      <c r="F822" s="20">
+      <c r="F822" s="15">
         <v>201</v>
       </c>
-      <c r="G822" s="20">
+      <c r="G822" s="15">
         <v>2</v>
       </c>
-      <c r="H822" s="20" t="s">
+      <c r="H822" s="15" t="s">
         <v>2578</v>
       </c>
-      <c r="I822" s="20" t="s">
+      <c r="I822" s="15" t="s">
         <v>2570</v>
       </c>
-      <c r="J822" s="20">
+      <c r="J822" s="15">
         <v>36.509949405837503</v>
       </c>
-      <c r="K822" s="20">
+      <c r="K822" s="15">
         <v>136.53641838192999</v>
       </c>
-      <c r="L822" s="25">
+      <c r="L822" s="12">
         <v>28000</v>
       </c>
-      <c r="M822" s="25">
-        <v>0</v>
-      </c>
-      <c r="N822" s="25">
-        <v>0</v>
-      </c>
-      <c r="O822" s="25">
+      <c r="M822" s="12">
+        <v>0</v>
+      </c>
+      <c r="N822" s="12">
+        <v>0</v>
+      </c>
+      <c r="O822" s="12">
         <v>56000</v>
       </c>
-      <c r="P822" s="61">
+      <c r="P822" s="67">
         <v>20000</v>
       </c>
-      <c r="Q822" s="24">
-        <v>0</v>
-      </c>
-      <c r="R822" s="20" t="s">
+      <c r="Q822" s="16">
+        <v>0</v>
+      </c>
+      <c r="R822" s="15" t="s">
         <v>2360</v>
       </c>
-      <c r="S822" s="20" t="s">
+      <c r="S822" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T822" s="20" t="s">
+      <c r="T822" s="15" t="s">
         <v>2488</v>
       </c>
-      <c r="U822" s="20" t="s">
+      <c r="U822" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="V822" s="20" t="s">
+      <c r="V822" s="15" t="s">
         <v>2566</v>
       </c>
-      <c r="W822" s="20" t="s">
+      <c r="W822" s="15" t="s">
         <v>2572</v>
       </c>
-      <c r="X822" s="20"/>
-      <c r="Y822" s="20" t="s">
+      <c r="X822" s="15"/>
+      <c r="Y822" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="Z822" s="20" t="s">
+      <c r="Z822" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AA822" s="60"/>
-    </row>
-    <row r="823" spans="1:27" s="59" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A823" s="19" t="s">
+      <c r="AA822" s="68"/>
+    </row>
+    <row r="823" spans="1:27" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+      <c r="A823" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B823" s="19">
+      <c r="B823" s="31">
         <v>20240531</v>
       </c>
-      <c r="C823" s="20" t="s">
+      <c r="C823" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D823" s="20" t="s">
+      <c r="D823" s="15" t="s">
         <v>2608</v>
       </c>
-      <c r="E823" s="20" t="s">
+      <c r="E823" s="15" t="s">
         <v>2585</v>
       </c>
-      <c r="F823" s="20" t="s">
+      <c r="F823" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G823" s="20" t="s">
+      <c r="G823" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H823" s="20" t="s">
+      <c r="H823" s="15" t="s">
         <v>2595</v>
       </c>
-      <c r="I823" s="20" t="s">
+      <c r="I823" s="15" t="s">
         <v>2586</v>
       </c>
-      <c r="J823" s="20">
+      <c r="J823" s="15">
         <v>36.580965542704398</v>
       </c>
-      <c r="K823" s="20">
+      <c r="K823" s="15">
         <v>136.67246423845901</v>
       </c>
-      <c r="L823" s="25">
+      <c r="L823" s="12">
         <v>85000</v>
       </c>
-      <c r="M823" s="25">
-        <v>0</v>
-      </c>
-      <c r="N823" s="25">
-        <v>0</v>
-      </c>
-      <c r="O823" s="25">
+      <c r="M823" s="12">
+        <v>0</v>
+      </c>
+      <c r="N823" s="12">
+        <v>0</v>
+      </c>
+      <c r="O823" s="12">
         <v>170000</v>
       </c>
-      <c r="P823" s="61">
+      <c r="P823" s="67">
         <v>85000</v>
       </c>
-      <c r="Q823" s="24">
+      <c r="Q823" s="16">
         <v>46750.000000000007</v>
       </c>
-      <c r="R823" s="20" t="s">
+      <c r="R823" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="S823" s="20" t="s">
+      <c r="S823" s="15" t="s">
         <v>1363</v>
       </c>
-      <c r="T823" s="20" t="s">
+      <c r="T823" s="15" t="s">
         <v>2600</v>
       </c>
-      <c r="U823" s="20" t="s">
+      <c r="U823" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="V823" s="20" t="s">
+      <c r="V823" s="15" t="s">
         <v>2598</v>
       </c>
-      <c r="W823" s="20" t="s">
+      <c r="W823" s="15" t="s">
         <v>2601</v>
       </c>
-      <c r="X823" s="20"/>
-      <c r="Y823" s="20" t="s">
+      <c r="X823" s="15"/>
+      <c r="Y823" s="15" t="s">
         <v>1612</v>
       </c>
-      <c r="Z823" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA823" s="60" t="s">
+      <c r="Z823" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA823" s="68" t="s">
         <v>2605</v>
       </c>
     </row>
-    <row r="824" spans="1:27" s="59" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A824" s="19" t="s">
+    <row r="824" spans="1:27" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+      <c r="A824" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B824" s="19">
+      <c r="B824" s="31">
         <v>20240531</v>
       </c>
-      <c r="C824" s="20" t="s">
+      <c r="C824" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D824" s="20" t="s">
+      <c r="D824" s="15" t="s">
         <v>2609</v>
       </c>
-      <c r="E824" s="20" t="s">
+      <c r="E824" s="15" t="s">
         <v>2587</v>
       </c>
-      <c r="F824" s="20">
+      <c r="F824" s="15">
         <v>103</v>
       </c>
-      <c r="G824" s="20">
+      <c r="G824" s="15">
         <v>1</v>
       </c>
-      <c r="H824" s="20" t="s">
+      <c r="H824" s="15" t="s">
         <v>1311</v>
       </c>
-      <c r="I824" s="20" t="s">
+      <c r="I824" s="15" t="s">
         <v>2588</v>
       </c>
-      <c r="J824" s="20">
+      <c r="J824" s="15">
         <v>36.5028431422664</v>
       </c>
-      <c r="K824" s="20">
+      <c r="K824" s="15">
         <v>136.619063824731</v>
       </c>
-      <c r="L824" s="25">
+      <c r="L824" s="12">
         <v>40000</v>
       </c>
-      <c r="M824" s="25">
+      <c r="M824" s="12">
         <v>2000</v>
       </c>
-      <c r="N824" s="25">
-        <v>0</v>
-      </c>
-      <c r="O824" s="25">
+      <c r="N824" s="12">
+        <v>0</v>
+      </c>
+      <c r="O824" s="12">
         <v>80000</v>
       </c>
-      <c r="P824" s="61">
+      <c r="P824" s="67">
         <v>40000</v>
       </c>
-      <c r="Q824" s="24">
+      <c r="Q824" s="16">
         <v>22000</v>
       </c>
-      <c r="R824" s="20" t="s">
+      <c r="R824" s="15" t="s">
         <v>2360</v>
       </c>
-      <c r="S824" s="20" t="s">
+      <c r="S824" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="T824" s="20" t="s">
+      <c r="T824" s="15" t="s">
         <v>2576</v>
       </c>
-      <c r="U824" s="20" t="s">
+      <c r="U824" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="V824" s="20" t="s">
+      <c r="V824" s="15" t="s">
         <v>1497</v>
       </c>
-      <c r="W824" s="20" t="s">
+      <c r="W824" s="15" t="s">
         <v>1498</v>
       </c>
-      <c r="X824" s="20"/>
-      <c r="Y824" s="20" t="s">
+      <c r="X824" s="15"/>
+      <c r="Y824" s="15" t="s">
         <v>1612</v>
       </c>
-      <c r="Z824" s="20">
+      <c r="Z824" s="15">
         <v>3300</v>
       </c>
-      <c r="AA824" s="60" t="s">
+      <c r="AA824" s="68" t="s">
         <v>2606</v>
       </c>
     </row>
-    <row r="825" spans="1:27" s="59" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A825" s="19" t="s">
+    <row r="825" spans="1:27" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+      <c r="A825" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B825" s="19">
+      <c r="B825" s="31">
         <v>20240531</v>
       </c>
-      <c r="C825" s="20" t="s">
+      <c r="C825" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D825" s="20" t="s">
+      <c r="D825" s="15" t="s">
         <v>2610</v>
       </c>
-      <c r="E825" s="20" t="s">
+      <c r="E825" s="15" t="s">
         <v>2589</v>
       </c>
-      <c r="F825" s="20">
+      <c r="F825" s="15">
         <v>102</v>
       </c>
-      <c r="G825" s="20">
+      <c r="G825" s="15">
         <v>1</v>
       </c>
-      <c r="H825" s="20" t="s">
+      <c r="H825" s="15" t="s">
         <v>1537</v>
       </c>
-      <c r="I825" s="20" t="s">
+      <c r="I825" s="15" t="s">
         <v>2590</v>
       </c>
-      <c r="J825" s="20">
+      <c r="J825" s="15">
         <v>36.5330338423828</v>
       </c>
-      <c r="K825" s="20">
+      <c r="K825" s="15">
         <v>136.631171207774</v>
       </c>
-      <c r="L825" s="25">
+      <c r="L825" s="12">
         <v>47000</v>
       </c>
-      <c r="M825" s="25">
-        <v>0</v>
-      </c>
-      <c r="N825" s="25">
-        <v>0</v>
-      </c>
-      <c r="O825" s="25">
+      <c r="M825" s="12">
+        <v>0</v>
+      </c>
+      <c r="N825" s="12">
+        <v>0</v>
+      </c>
+      <c r="O825" s="12">
         <v>94000</v>
       </c>
-      <c r="P825" s="61">
+      <c r="P825" s="67">
         <v>47000</v>
       </c>
-      <c r="Q825" s="24">
+      <c r="Q825" s="16">
         <v>25850.000000000004</v>
       </c>
-      <c r="R825" s="20" t="s">
+      <c r="R825" s="15" t="s">
         <v>2360</v>
       </c>
-      <c r="S825" s="20" t="s">
+      <c r="S825" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="T825" s="20" t="s">
+      <c r="T825" s="15" t="s">
         <v>2602</v>
       </c>
-      <c r="U825" s="20" t="s">
+      <c r="U825" s="15" t="s">
         <v>2599</v>
       </c>
-      <c r="V825" s="20" t="s">
+      <c r="V825" s="15" t="s">
         <v>1497</v>
       </c>
-      <c r="W825" s="20" t="s">
+      <c r="W825" s="15" t="s">
         <v>1498</v>
       </c>
-      <c r="X825" s="20"/>
-      <c r="Y825" s="20" t="s">
+      <c r="X825" s="15"/>
+      <c r="Y825" s="15" t="s">
         <v>1612</v>
       </c>
-      <c r="Z825" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA825" s="20" t="s">
+      <c r="Z825" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA825" s="15" t="s">
         <v>2607</v>
       </c>
     </row>
-    <row r="826" spans="1:27" s="59" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A826" s="19" t="s">
+    <row r="826" spans="1:27" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+      <c r="A826" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B826" s="19">
+      <c r="B826" s="31">
         <v>20240531</v>
       </c>
-      <c r="C826" s="20" t="s">
+      <c r="C826" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D826" s="20" t="s">
+      <c r="D826" s="15" t="s">
         <v>2611</v>
       </c>
-      <c r="E826" s="20" t="s">
+      <c r="E826" s="15" t="s">
         <v>2591</v>
       </c>
-      <c r="F826" s="20">
+      <c r="F826" s="15">
         <v>203</v>
       </c>
-      <c r="G826" s="20">
+      <c r="G826" s="15">
         <v>2</v>
       </c>
-      <c r="H826" s="20" t="s">
+      <c r="H826" s="15" t="s">
         <v>1311</v>
       </c>
-      <c r="I826" s="20" t="s">
+      <c r="I826" s="15" t="s">
         <v>2592</v>
       </c>
-      <c r="J826" s="20">
+      <c r="J826" s="15">
         <v>36.502135966047398</v>
       </c>
-      <c r="K826" s="20">
+      <c r="K826" s="15">
         <v>136.61826896728999</v>
       </c>
-      <c r="L826" s="25">
+      <c r="L826" s="12">
         <v>45000</v>
       </c>
-      <c r="M826" s="25">
+      <c r="M826" s="12">
         <v>2000</v>
       </c>
-      <c r="N826" s="25">
-        <v>0</v>
-      </c>
-      <c r="O826" s="25">
+      <c r="N826" s="12">
+        <v>0</v>
+      </c>
+      <c r="O826" s="12">
         <v>90000</v>
       </c>
-      <c r="P826" s="61">
+      <c r="P826" s="67">
         <v>45000</v>
       </c>
-      <c r="Q826" s="24">
+      <c r="Q826" s="16">
         <v>24750.000000000004</v>
       </c>
-      <c r="R826" s="20" t="s">
+      <c r="R826" s="15" t="s">
         <v>2360</v>
       </c>
-      <c r="S826" s="20" t="s">
+      <c r="S826" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="T826" s="20" t="s">
+      <c r="T826" s="15" t="s">
         <v>2403</v>
       </c>
-      <c r="U826" s="20" t="s">
+      <c r="U826" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="V826" s="20" t="s">
+      <c r="V826" s="15" t="s">
         <v>1497</v>
       </c>
-      <c r="W826" s="20" t="s">
+      <c r="W826" s="15" t="s">
         <v>1498</v>
       </c>
-      <c r="X826" s="20"/>
-      <c r="Y826" s="20" t="s">
+      <c r="X826" s="15"/>
+      <c r="Y826" s="15" t="s">
         <v>1612</v>
       </c>
-      <c r="Z826" s="20">
+      <c r="Z826" s="15">
         <v>3300</v>
       </c>
-      <c r="AA826" s="60" t="s">
+      <c r="AA826" s="68" t="s">
         <v>2606</v>
       </c>
     </row>
-    <row r="827" spans="1:27" s="59" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A827" s="19" t="s">
+    <row r="827" spans="1:27" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+      <c r="A827" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B827" s="19">
+      <c r="B827" s="31">
         <v>20240531</v>
       </c>
-      <c r="C827" s="20" t="s">
+      <c r="C827" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D827" s="20" t="s">
+      <c r="D827" s="15" t="s">
         <v>2612</v>
       </c>
-      <c r="E827" s="20" t="s">
+      <c r="E827" s="15" t="s">
         <v>2596</v>
       </c>
-      <c r="F827" s="20">
+      <c r="F827" s="15">
         <v>205</v>
       </c>
-      <c r="G827" s="20">
+      <c r="G827" s="15">
         <v>2</v>
       </c>
-      <c r="H827" s="20" t="s">
+      <c r="H827" s="15" t="s">
         <v>1311</v>
       </c>
-      <c r="I827" s="20" t="s">
+      <c r="I827" s="15" t="s">
         <v>2592</v>
       </c>
-      <c r="J827" s="20">
+      <c r="J827" s="15">
         <v>36.502135966047398</v>
       </c>
-      <c r="K827" s="20">
+      <c r="K827" s="15">
         <v>136.61826896728999</v>
       </c>
-      <c r="L827" s="25">
+      <c r="L827" s="12">
         <v>45000</v>
       </c>
-      <c r="M827" s="25">
+      <c r="M827" s="12">
         <v>2000</v>
       </c>
-      <c r="N827" s="25">
-        <v>0</v>
-      </c>
-      <c r="O827" s="25">
+      <c r="N827" s="12">
+        <v>0</v>
+      </c>
+      <c r="O827" s="12">
         <v>90000</v>
       </c>
-      <c r="P827" s="61">
+      <c r="P827" s="67">
         <v>45000</v>
       </c>
-      <c r="Q827" s="24">
+      <c r="Q827" s="16">
         <v>24750.000000000004</v>
       </c>
-      <c r="R827" s="20" t="s">
+      <c r="R827" s="15" t="s">
         <v>2360</v>
       </c>
-      <c r="S827" s="20" t="s">
+      <c r="S827" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="T827" s="20" t="s">
+      <c r="T827" s="15" t="s">
         <v>2403</v>
       </c>
-      <c r="U827" s="20" t="s">
+      <c r="U827" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="V827" s="20" t="s">
+      <c r="V827" s="15" t="s">
         <v>1497</v>
       </c>
-      <c r="W827" s="20" t="s">
+      <c r="W827" s="15" t="s">
         <v>1498</v>
       </c>
-      <c r="X827" s="20"/>
-      <c r="Y827" s="20" t="s">
+      <c r="X827" s="15"/>
+      <c r="Y827" s="15" t="s">
         <v>1612</v>
       </c>
-      <c r="Z827" s="20">
+      <c r="Z827" s="15">
         <v>3300</v>
       </c>
-      <c r="AA827" s="60" t="s">
+      <c r="AA827" s="68" t="s">
         <v>2606</v>
       </c>
     </row>
-    <row r="828" spans="1:27" s="59" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A828" s="19" t="s">
+    <row r="828" spans="1:27" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+      <c r="A828" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="B828" s="19">
+      <c r="B828" s="31">
         <v>20240531</v>
       </c>
-      <c r="C828" s="20" t="s">
+      <c r="C828" s="15" t="s">
         <v>1042</v>
       </c>
-      <c r="D828" s="20" t="s">
+      <c r="D828" s="15" t="s">
         <v>2613</v>
       </c>
-      <c r="E828" s="20" t="s">
+      <c r="E828" s="15" t="s">
         <v>2593</v>
       </c>
-      <c r="F828" s="20" t="s">
+      <c r="F828" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G828" s="20" t="s">
+      <c r="G828" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H828" s="20" t="s">
+      <c r="H828" s="15" t="s">
         <v>2597</v>
       </c>
-      <c r="I828" s="20" t="s">
+      <c r="I828" s="15" t="s">
         <v>2594</v>
       </c>
-      <c r="J828" s="20">
+      <c r="J828" s="15">
         <v>36.655645085697202</v>
       </c>
-      <c r="K828" s="20">
+      <c r="K828" s="15">
         <v>136.64928033661599</v>
       </c>
-      <c r="L828" s="25">
+      <c r="L828" s="12">
         <v>85000</v>
       </c>
-      <c r="M828" s="25">
-        <v>0</v>
-      </c>
-      <c r="N828" s="25">
-        <v>0</v>
-      </c>
-      <c r="O828" s="25">
+      <c r="M828" s="12">
+        <v>0</v>
+      </c>
+      <c r="N828" s="12">
+        <v>0</v>
+      </c>
+      <c r="O828" s="12">
         <v>170000</v>
       </c>
-      <c r="P828" s="61">
+      <c r="P828" s="67">
         <v>85000</v>
       </c>
-      <c r="Q828" s="24">
+      <c r="Q828" s="16">
         <v>46750.000000000007</v>
       </c>
-      <c r="R828" s="20" t="s">
+      <c r="R828" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="S828" s="20" t="s">
+      <c r="S828" s="15" t="s">
         <v>1129</v>
       </c>
-      <c r="T828" s="20" t="s">
+      <c r="T828" s="15" t="s">
         <v>2603</v>
       </c>
-      <c r="U828" s="20" t="s">
+      <c r="U828" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="V828" s="20" t="s">
+      <c r="V828" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="W828" s="20" t="s">
+      <c r="W828" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="X828" s="20"/>
-      <c r="Y828" s="20" t="s">
+      <c r="X828" s="15"/>
+      <c r="Y828" s="15" t="s">
         <v>1612</v>
       </c>
-      <c r="Z828" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA828" s="20" t="s">
+      <c r="Z828" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA828" s="15" t="s">
         <v>2604</v>
       </c>
     </row>
-    <row r="829" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="L829" s="9"/>
-      <c r="R829" s="17"/>
-      <c r="X829" s="7"/>
-      <c r="Y829" s="7"/>
-    </row>
-    <row r="830" spans="1:27" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A830" s="6" t="s">
+    <row r="829" spans="1:27" s="69" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+      <c r="A829" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B829" s="19">
+        <v>20240607</v>
+      </c>
+      <c r="C829" s="20" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D829" s="20" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E829" s="20" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F829" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G829" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H829" s="20" t="s">
+        <v>2620</v>
+      </c>
+      <c r="I829" s="20" t="s">
+        <v>2616</v>
+      </c>
+      <c r="J829" s="20">
+        <v>36.686325717184999</v>
+      </c>
+      <c r="K829" s="20">
+        <v>136.67426656830199</v>
+      </c>
+      <c r="L829" s="25">
+        <v>80000</v>
+      </c>
+      <c r="M829" s="25">
+        <v>0</v>
+      </c>
+      <c r="N829" s="25">
+        <v>0</v>
+      </c>
+      <c r="O829" s="61">
+        <v>160000</v>
+      </c>
+      <c r="P829" s="24">
+        <v>80000</v>
+      </c>
+      <c r="Q829" s="20">
+        <v>44000</v>
+      </c>
+      <c r="R829" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="S829" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="T829" s="20" t="s">
+        <v>2618</v>
+      </c>
+      <c r="U829" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="V829" s="20" t="s">
+        <v>2617</v>
+      </c>
+      <c r="W829" s="20" t="s">
+        <v>2619</v>
+      </c>
+      <c r="X829" s="20"/>
+      <c r="Y829" s="20" t="s">
+        <v>1612</v>
+      </c>
+      <c r="Z829" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA829" s="60" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="830" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L830" s="9"/>
+      <c r="R830" s="17"/>
+      <c r="X830" s="7"/>
+      <c r="Y830" s="7"/>
+    </row>
+    <row r="831" spans="1:27" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A831" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B830" s="23"/>
-      <c r="C830" s="3"/>
-      <c r="D830" s="3"/>
-      <c r="E830" s="3"/>
-      <c r="F830" s="3"/>
-      <c r="G830" s="3"/>
-      <c r="H830" s="3"/>
-      <c r="I830" s="3"/>
-      <c r="J830" s="3"/>
-      <c r="K830" s="3"/>
-      <c r="L830" s="10"/>
-      <c r="M830" s="4"/>
-      <c r="R830" s="17"/>
-      <c r="S830" s="3"/>
-      <c r="T830" s="3"/>
-      <c r="U830" s="3"/>
-      <c r="V830" s="3"/>
-      <c r="W830" s="3"/>
-      <c r="X830" s="3"/>
-      <c r="Y830" s="3"/>
-      <c r="Z830" s="3"/>
-      <c r="AA830" s="3"/>
-    </row>
-    <row r="831" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A831" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B831" s="1"/>
+      <c r="B831" s="23"/>
       <c r="C831" s="3"/>
       <c r="D831" s="3"/>
       <c r="E831" s="3"/>
@@ -80680,37 +80798,64 @@
       <c r="J831" s="3"/>
       <c r="K831" s="3"/>
       <c r="L831" s="10"/>
-      <c r="M831" s="3"/>
-      <c r="N831" s="3"/>
-      <c r="O831" s="3"/>
-      <c r="P831" s="3"/>
-      <c r="Q831" s="3"/>
+      <c r="M831" s="4"/>
       <c r="R831" s="17"/>
       <c r="S831" s="3"/>
       <c r="T831" s="3"/>
       <c r="U831" s="3"/>
-      <c r="V831" s="5"/>
-      <c r="W831" s="5"/>
-      <c r="X831" s="5"/>
-      <c r="Y831" s="5"/>
-      <c r="Z831" s="5"/>
-      <c r="AA831" s="5"/>
-    </row>
-    <row r="832" spans="1:27" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
+      <c r="V831" s="3"/>
+      <c r="W831" s="3"/>
+      <c r="X831" s="3"/>
+      <c r="Y831" s="3"/>
+      <c r="Z831" s="3"/>
+      <c r="AA831" s="3"/>
+    </row>
+    <row r="832" spans="1:27" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B832" s="1"/>
+      <c r="C832" s="3"/>
+      <c r="D832" s="3"/>
+      <c r="E832" s="3"/>
+      <c r="F832" s="3"/>
+      <c r="G832" s="3"/>
+      <c r="H832" s="3"/>
+      <c r="I832" s="3"/>
+      <c r="J832" s="3"/>
+      <c r="K832" s="3"/>
+      <c r="L832" s="10"/>
+      <c r="M832" s="3"/>
+      <c r="N832" s="3"/>
+      <c r="O832" s="3"/>
+      <c r="P832" s="3"/>
+      <c r="Q832" s="3"/>
+      <c r="R832" s="17"/>
+      <c r="S832" s="3"/>
+      <c r="T832" s="3"/>
+      <c r="U832" s="3"/>
+      <c r="V832" s="5"/>
+      <c r="W832" s="5"/>
+      <c r="X832" s="5"/>
+      <c r="Y832" s="5"/>
+      <c r="Z832" s="5"/>
+      <c r="AA832" s="5"/>
+    </row>
+    <row r="833" spans="1:18" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
+      <c r="A833" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L832" s="11"/>
-      <c r="R832" s="17"/>
+      <c r="L833" s="11"/>
+      <c r="R833" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA782" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="8"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R465 Q322:R322 Q464:Q468 P812:P815 Q783:Q810 R469:R816 R829:R832 P817:P828 Q812:Q828 R2:R321 R323:R463" xr:uid="{93404C4F-32FA-4DDB-B2CE-6F66EBABE3D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R465 Q322:R322 Q464:Q468 P812:P815 Q783:Q810 R469:R816 R830:R833 R323:R463 R2:R321 O829 P817:P829 Q812:Q828" xr:uid="{93404C4F-32FA-4DDB-B2CE-6F66EBABE3D3}">
       <formula1>"一戸建て,共同住宅,長屋"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A828" xr:uid="{C2737039-00AB-4E52-80C3-D8BDB07BCFF5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A829" xr:uid="{C2737039-00AB-4E52-80C3-D8BDB07BCFF5}">
       <formula1>"(公社)石川県宅地建物取引業協会,(公社)全日本不動産協会石川県本部"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/xls/noto.xlsx
+++ b/data/xls/noto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\flsv\全庁共有\令和6年能登半島地震\02_西垣副知事災害対応チーム\04広域避難者支援Ｇ\16 仮設住宅\20240128_被災者の住宅選定支援\20240801更新\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hal/Documents/workspace/noto-house-map/static/data/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8032E1B-0202-4822-829F-1B22B63D2E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33388820-2C94-EE40-862D-9DD9269C2169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37300" yWindow="12780" windowWidth="25400" windowHeight="29880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9473" uniqueCount="2472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9474" uniqueCount="2473">
   <si>
     <t>団体名</t>
     <rPh sb="0" eb="3">
@@ -15448,7 +15448,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -16240,16 +16240,19 @@
   <si>
     <t>076-274-8766</t>
   </si>
+  <si>
+    <t>1942</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="###0;###0"/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="164" formatCode="###0;###0"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -16264,7 +16267,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -16288,7 +16291,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -16477,148 +16480,148 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="67">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="38" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="38" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="38" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="38" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16627,10 +16630,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="38" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16645,31 +16648,28 @@
     <xf numFmtId="38" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="38" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -16678,10 +16678,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -16697,9 +16700,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -16737,9 +16740,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16772,26 +16775,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16824,26 +16810,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17023,42 +16992,42 @@
   <dimension ref="A1:AA747"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A719" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C733" sqref="C733"/>
+      <pane ySplit="1" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D744" sqref="D744"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="36.296875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" style="58" customWidth="1"/>
-    <col min="3" max="3" width="10" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.296875" style="58" customWidth="1"/>
-    <col min="5" max="5" width="22.19921875" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="58" customWidth="1"/>
-    <col min="9" max="9" width="31.69921875" style="58" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.296875" style="58" customWidth="1"/>
-    <col min="12" max="12" width="10" style="58" customWidth="1"/>
-    <col min="13" max="14" width="12.19921875" style="58" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="58" customWidth="1"/>
-    <col min="16" max="16" width="10" style="58" customWidth="1"/>
-    <col min="17" max="17" width="10.296875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="36.19921875" style="57" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="10" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.19921875" style="57" customWidth="1"/>
+    <col min="5" max="5" width="22.19921875" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="57" customWidth="1"/>
+    <col min="9" max="9" width="31.59765625" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.19921875" style="57" customWidth="1"/>
+    <col min="12" max="12" width="10" style="57" customWidth="1"/>
+    <col min="13" max="14" width="12.19921875" style="57" customWidth="1"/>
+    <col min="15" max="15" width="12.3984375" style="57" customWidth="1"/>
+    <col min="16" max="16" width="10" style="57" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="57" customWidth="1"/>
     <col min="18" max="18" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.69921875" style="58" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5" style="58" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5" style="58" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.19921875" style="58" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.19921875" style="58" customWidth="1"/>
-    <col min="24" max="24" width="30.296875" style="58" customWidth="1"/>
-    <col min="25" max="25" width="5.69921875" style="58" customWidth="1"/>
-    <col min="26" max="26" width="12.19921875" style="58" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="78.796875" style="58" customWidth="1"/>
-    <col min="28" max="28" width="2.69921875" style="58" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="58"/>
+    <col min="19" max="19" width="8.59765625" style="57" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.3984375" style="57" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.3984375" style="57" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.19921875" style="57" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.19921875" style="57" customWidth="1"/>
+    <col min="24" max="24" width="30.19921875" style="57" customWidth="1"/>
+    <col min="25" max="25" width="5.59765625" style="57" customWidth="1"/>
+    <col min="26" max="26" width="12.19921875" style="57" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="78.796875" style="57" customWidth="1"/>
+    <col min="28" max="28" width="2.59765625" style="57" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="27" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="27" customFormat="1" ht="28" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -17141,7 +17110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -17222,7 +17191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
@@ -17303,7 +17272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
@@ -17384,7 +17353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -17465,7 +17434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
@@ -17546,7 +17515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -17627,7 +17596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
@@ -17708,7 +17677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>4</v>
       </c>
@@ -17789,7 +17758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
@@ -17866,7 +17835,7 @@
       <c r="Z10" s="20"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
@@ -17945,7 +17914,7 @@
       </c>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
@@ -18024,7 +17993,7 @@
       </c>
       <c r="AA12" s="4"/>
     </row>
-    <row r="13" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>4</v>
       </c>
@@ -18103,7 +18072,7 @@
       </c>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>4</v>
       </c>
@@ -18182,7 +18151,7 @@
       </c>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>4</v>
       </c>
@@ -18261,7 +18230,7 @@
       </c>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>4</v>
       </c>
@@ -18342,7 +18311,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
@@ -18423,7 +18392,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
@@ -18504,7 +18473,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>4</v>
       </c>
@@ -18585,7 +18554,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>4</v>
       </c>
@@ -18664,7 +18633,7 @@
       </c>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>4</v>
       </c>
@@ -18743,7 +18712,7 @@
       </c>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>4</v>
       </c>
@@ -18824,7 +18793,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>4</v>
       </c>
@@ -18905,7 +18874,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="13" t="s">
         <v>4</v>
       </c>
@@ -18984,7 +18953,7 @@
       </c>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="13" t="s">
         <v>4</v>
       </c>
@@ -19061,7 +19030,7 @@
       <c r="Z25" s="20"/>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="13" t="s">
         <v>4</v>
       </c>
@@ -19142,7 +19111,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>4</v>
       </c>
@@ -19221,7 +19190,7 @@
       </c>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="13" t="s">
         <v>4</v>
       </c>
@@ -19302,7 +19271,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="13" t="s">
         <v>4</v>
       </c>
@@ -19381,7 +19350,7 @@
       </c>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="13" t="s">
         <v>4</v>
       </c>
@@ -19460,7 +19429,7 @@
       </c>
       <c r="AA30" s="4"/>
     </row>
-    <row r="31" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="13" t="s">
         <v>4</v>
       </c>
@@ -19539,7 +19508,7 @@
       </c>
       <c r="AA31" s="4"/>
     </row>
-    <row r="32" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>4</v>
       </c>
@@ -19620,7 +19589,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="13" t="s">
         <v>4</v>
       </c>
@@ -19701,7 +19670,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="13" t="s">
         <v>4</v>
       </c>
@@ -19782,7 +19751,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>158</v>
       </c>
@@ -19859,7 +19828,7 @@
       <c r="Z35" s="20"/>
       <c r="AA35" s="4"/>
     </row>
-    <row r="36" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="13" t="s">
         <v>4</v>
       </c>
@@ -19940,7 +19909,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="13" t="s">
         <v>4</v>
       </c>
@@ -20021,7 +19990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="13" t="s">
         <v>4</v>
       </c>
@@ -20102,7 +20071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>204</v>
       </c>
@@ -20177,7 +20146,7 @@
       </c>
       <c r="AA39" s="4"/>
     </row>
-    <row r="40" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="13" t="s">
         <v>204</v>
       </c>
@@ -20252,7 +20221,7 @@
       </c>
       <c r="AA40" s="4"/>
     </row>
-    <row r="41" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="13" t="s">
         <v>204</v>
       </c>
@@ -20327,7 +20296,7 @@
       </c>
       <c r="AA41" s="4"/>
     </row>
-    <row r="42" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>204</v>
       </c>
@@ -20402,7 +20371,7 @@
       </c>
       <c r="AA42" s="4"/>
     </row>
-    <row r="43" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="13" t="s">
         <v>204</v>
       </c>
@@ -20477,7 +20446,7 @@
       </c>
       <c r="AA43" s="4"/>
     </row>
-    <row r="44" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="13" t="s">
         <v>204</v>
       </c>
@@ -20552,7 +20521,7 @@
       </c>
       <c r="AA44" s="4"/>
     </row>
-    <row r="45" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="13" t="s">
         <v>204</v>
       </c>
@@ -20627,7 +20596,7 @@
       </c>
       <c r="AA45" s="4"/>
     </row>
-    <row r="46" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="13" t="s">
         <v>204</v>
       </c>
@@ -20702,7 +20671,7 @@
       </c>
       <c r="AA46" s="4"/>
     </row>
-    <row r="47" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="13" t="s">
         <v>204</v>
       </c>
@@ -20777,7 +20746,7 @@
       </c>
       <c r="AA47" s="4"/>
     </row>
-    <row r="48" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="13" t="s">
         <v>204</v>
       </c>
@@ -20852,7 +20821,7 @@
       </c>
       <c r="AA48" s="4"/>
     </row>
-    <row r="49" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="13" t="s">
         <v>204</v>
       </c>
@@ -20927,7 +20896,7 @@
       </c>
       <c r="AA49" s="4"/>
     </row>
-    <row r="50" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="13" t="s">
         <v>204</v>
       </c>
@@ -21002,7 +20971,7 @@
       </c>
       <c r="AA50" s="4"/>
     </row>
-    <row r="51" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="13" t="s">
         <v>204</v>
       </c>
@@ -21077,7 +21046,7 @@
       </c>
       <c r="AA51" s="4"/>
     </row>
-    <row r="52" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="13" t="s">
         <v>204</v>
       </c>
@@ -21152,7 +21121,7 @@
       </c>
       <c r="AA52" s="4"/>
     </row>
-    <row r="53" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="13" t="s">
         <v>204</v>
       </c>
@@ -21227,7 +21196,7 @@
       </c>
       <c r="AA53" s="4"/>
     </row>
-    <row r="54" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="13" t="s">
         <v>204</v>
       </c>
@@ -21302,7 +21271,7 @@
       </c>
       <c r="AA54" s="4"/>
     </row>
-    <row r="55" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="13" t="s">
         <v>204</v>
       </c>
@@ -21377,7 +21346,7 @@
       </c>
       <c r="AA55" s="4"/>
     </row>
-    <row r="56" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="13" t="s">
         <v>204</v>
       </c>
@@ -21452,7 +21421,7 @@
       </c>
       <c r="AA56" s="4"/>
     </row>
-    <row r="57" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="13" t="s">
         <v>204</v>
       </c>
@@ -21527,7 +21496,7 @@
       </c>
       <c r="AA57" s="4"/>
     </row>
-    <row r="58" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="13" t="s">
         <v>204</v>
       </c>
@@ -21602,7 +21571,7 @@
       </c>
       <c r="AA58" s="4"/>
     </row>
-    <row r="59" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="13" t="s">
         <v>204</v>
       </c>
@@ -21677,7 +21646,7 @@
       </c>
       <c r="AA59" s="4"/>
     </row>
-    <row r="60" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="13" t="s">
         <v>204</v>
       </c>
@@ -21752,7 +21721,7 @@
       </c>
       <c r="AA60" s="4"/>
     </row>
-    <row r="61" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="13" t="s">
         <v>204</v>
       </c>
@@ -21827,7 +21796,7 @@
       </c>
       <c r="AA61" s="4"/>
     </row>
-    <row r="62" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="13" t="s">
         <v>204</v>
       </c>
@@ -21902,7 +21871,7 @@
       </c>
       <c r="AA62" s="4"/>
     </row>
-    <row r="63" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="13" t="s">
         <v>204</v>
       </c>
@@ -21977,7 +21946,7 @@
       </c>
       <c r="AA63" s="4"/>
     </row>
-    <row r="64" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="13" t="s">
         <v>204</v>
       </c>
@@ -22052,7 +22021,7 @@
       </c>
       <c r="AA64" s="4"/>
     </row>
-    <row r="65" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="13" t="s">
         <v>204</v>
       </c>
@@ -22127,7 +22096,7 @@
       </c>
       <c r="AA65" s="4"/>
     </row>
-    <row r="66" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="13" t="s">
         <v>204</v>
       </c>
@@ -22202,7 +22171,7 @@
       </c>
       <c r="AA66" s="4"/>
     </row>
-    <row r="67" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="13" t="s">
         <v>204</v>
       </c>
@@ -22277,7 +22246,7 @@
       </c>
       <c r="AA67" s="4"/>
     </row>
-    <row r="68" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="13" t="s">
         <v>204</v>
       </c>
@@ -22352,7 +22321,7 @@
       </c>
       <c r="AA68" s="4"/>
     </row>
-    <row r="69" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="13" t="s">
         <v>204</v>
       </c>
@@ -22427,7 +22396,7 @@
       </c>
       <c r="AA69" s="4"/>
     </row>
-    <row r="70" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="13" t="s">
         <v>204</v>
       </c>
@@ -22502,7 +22471,7 @@
       </c>
       <c r="AA70" s="4"/>
     </row>
-    <row r="71" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="13" t="s">
         <v>204</v>
       </c>
@@ -22577,7 +22546,7 @@
       </c>
       <c r="AA71" s="4"/>
     </row>
-    <row r="72" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="13" t="s">
         <v>204</v>
       </c>
@@ -22652,7 +22621,7 @@
       </c>
       <c r="AA72" s="4"/>
     </row>
-    <row r="73" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="13" t="s">
         <v>204</v>
       </c>
@@ -22727,7 +22696,7 @@
       </c>
       <c r="AA73" s="4"/>
     </row>
-    <row r="74" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="13" t="s">
         <v>204</v>
       </c>
@@ -22800,7 +22769,7 @@
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
     </row>
-    <row r="75" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="13" t="s">
         <v>204</v>
       </c>
@@ -22873,7 +22842,7 @@
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
     </row>
-    <row r="76" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="13" t="s">
         <v>204</v>
       </c>
@@ -22946,7 +22915,7 @@
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
     </row>
-    <row r="77" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="13" t="s">
         <v>204</v>
       </c>
@@ -23019,7 +22988,7 @@
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
     </row>
-    <row r="78" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="13" t="s">
         <v>204</v>
       </c>
@@ -23094,7 +23063,7 @@
       </c>
       <c r="AA78" s="4"/>
     </row>
-    <row r="79" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="13" t="s">
         <v>204</v>
       </c>
@@ -23171,7 +23140,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="80" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="13" t="s">
         <v>204</v>
       </c>
@@ -23248,7 +23217,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="13" t="s">
         <v>204</v>
       </c>
@@ -23323,7 +23292,7 @@
       </c>
       <c r="AA81" s="4"/>
     </row>
-    <row r="82" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="13" t="s">
         <v>204</v>
       </c>
@@ -23398,7 +23367,7 @@
       </c>
       <c r="AA82" s="4"/>
     </row>
-    <row r="83" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="13" t="s">
         <v>204</v>
       </c>
@@ -23473,7 +23442,7 @@
       </c>
       <c r="AA83" s="4"/>
     </row>
-    <row r="84" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="13" t="s">
         <v>204</v>
       </c>
@@ -23548,7 +23517,7 @@
       </c>
       <c r="AA84" s="4"/>
     </row>
-    <row r="85" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="13" t="s">
         <v>204</v>
       </c>
@@ -23623,7 +23592,7 @@
       </c>
       <c r="AA85" s="4"/>
     </row>
-    <row r="86" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="13" t="s">
         <v>204</v>
       </c>
@@ -23698,7 +23667,7 @@
       </c>
       <c r="AA86" s="4"/>
     </row>
-    <row r="87" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="13" t="s">
         <v>204</v>
       </c>
@@ -23773,7 +23742,7 @@
       </c>
       <c r="AA87" s="4"/>
     </row>
-    <row r="88" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="13" t="s">
         <v>204</v>
       </c>
@@ -23848,7 +23817,7 @@
       </c>
       <c r="AA88" s="4"/>
     </row>
-    <row r="89" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="13" t="s">
         <v>204</v>
       </c>
@@ -23923,7 +23892,7 @@
       </c>
       <c r="AA89" s="4"/>
     </row>
-    <row r="90" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="13" t="s">
         <v>204</v>
       </c>
@@ -23998,7 +23967,7 @@
       </c>
       <c r="AA90" s="4"/>
     </row>
-    <row r="91" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="13" t="s">
         <v>204</v>
       </c>
@@ -24073,7 +24042,7 @@
       </c>
       <c r="AA91" s="4"/>
     </row>
-    <row r="92" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="13" t="s">
         <v>204</v>
       </c>
@@ -24148,7 +24117,7 @@
       </c>
       <c r="AA92" s="4"/>
     </row>
-    <row r="93" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="13" t="s">
         <v>204</v>
       </c>
@@ -24227,7 +24196,7 @@
       </c>
       <c r="AA93" s="29"/>
     </row>
-    <row r="94" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="13" t="s">
         <v>204</v>
       </c>
@@ -24302,7 +24271,7 @@
       </c>
       <c r="AA94" s="4"/>
     </row>
-    <row r="95" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="13" t="s">
         <v>204</v>
       </c>
@@ -24377,7 +24346,7 @@
       </c>
       <c r="AA95" s="4"/>
     </row>
-    <row r="96" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="13" t="s">
         <v>204</v>
       </c>
@@ -24452,7 +24421,7 @@
       </c>
       <c r="AA96" s="4"/>
     </row>
-    <row r="97" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="13" t="s">
         <v>204</v>
       </c>
@@ -24527,7 +24496,7 @@
       </c>
       <c r="AA97" s="4"/>
     </row>
-    <row r="98" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="13" t="s">
         <v>204</v>
       </c>
@@ -24602,7 +24571,7 @@
       </c>
       <c r="AA98" s="4"/>
     </row>
-    <row r="99" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="13" t="s">
         <v>204</v>
       </c>
@@ -24677,7 +24646,7 @@
       </c>
       <c r="AA99" s="4"/>
     </row>
-    <row r="100" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="13" t="s">
         <v>204</v>
       </c>
@@ -24754,7 +24723,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="13" t="s">
         <v>204</v>
       </c>
@@ -24829,7 +24798,7 @@
       </c>
       <c r="AA101" s="4"/>
     </row>
-    <row r="102" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="13" t="s">
         <v>204</v>
       </c>
@@ -24904,7 +24873,7 @@
       </c>
       <c r="AA102" s="4"/>
     </row>
-    <row r="103" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="13" t="s">
         <v>204</v>
       </c>
@@ -24979,7 +24948,7 @@
       </c>
       <c r="AA103" s="4"/>
     </row>
-    <row r="104" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="13" t="s">
         <v>204</v>
       </c>
@@ -25054,7 +25023,7 @@
       </c>
       <c r="AA104" s="4"/>
     </row>
-    <row r="105" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="13" t="s">
         <v>204</v>
       </c>
@@ -25129,7 +25098,7 @@
       </c>
       <c r="AA105" s="4"/>
     </row>
-    <row r="106" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="13" t="s">
         <v>204</v>
       </c>
@@ -25204,7 +25173,7 @@
       </c>
       <c r="AA106" s="4"/>
     </row>
-    <row r="107" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="13" t="s">
         <v>204</v>
       </c>
@@ -25279,7 +25248,7 @@
       </c>
       <c r="AA107" s="4"/>
     </row>
-    <row r="108" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="13" t="s">
         <v>204</v>
       </c>
@@ -25354,7 +25323,7 @@
       </c>
       <c r="AA108" s="4"/>
     </row>
-    <row r="109" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A109" s="13" t="s">
         <v>204</v>
       </c>
@@ -25429,7 +25398,7 @@
       </c>
       <c r="AA109" s="4"/>
     </row>
-    <row r="110" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A110" s="13" t="s">
         <v>204</v>
       </c>
@@ -25504,7 +25473,7 @@
       </c>
       <c r="AA110" s="4"/>
     </row>
-    <row r="111" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="13" t="s">
         <v>204</v>
       </c>
@@ -25579,7 +25548,7 @@
       </c>
       <c r="AA111" s="4"/>
     </row>
-    <row r="112" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="13" t="s">
         <v>204</v>
       </c>
@@ -25654,7 +25623,7 @@
       </c>
       <c r="AA112" s="4"/>
     </row>
-    <row r="113" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A113" s="13" t="s">
         <v>204</v>
       </c>
@@ -25729,7 +25698,7 @@
       </c>
       <c r="AA113" s="4"/>
     </row>
-    <row r="114" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="13" t="s">
         <v>204</v>
       </c>
@@ -25804,7 +25773,7 @@
       </c>
       <c r="AA114" s="4"/>
     </row>
-    <row r="115" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="13" t="s">
         <v>204</v>
       </c>
@@ -25879,7 +25848,7 @@
       </c>
       <c r="AA115" s="4"/>
     </row>
-    <row r="116" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A116" s="13" t="s">
         <v>204</v>
       </c>
@@ -25954,7 +25923,7 @@
       </c>
       <c r="AA116" s="4"/>
     </row>
-    <row r="117" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="13" t="s">
         <v>204</v>
       </c>
@@ -26029,7 +25998,7 @@
       </c>
       <c r="AA117" s="4"/>
     </row>
-    <row r="118" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="13" t="s">
         <v>204</v>
       </c>
@@ -26104,7 +26073,7 @@
       </c>
       <c r="AA118" s="4"/>
     </row>
-    <row r="119" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="13" t="s">
         <v>204</v>
       </c>
@@ -26179,7 +26148,7 @@
       </c>
       <c r="AA119" s="4"/>
     </row>
-    <row r="120" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="13" t="s">
         <v>204</v>
       </c>
@@ -26252,7 +26221,7 @@
       <c r="Z120" s="4"/>
       <c r="AA120" s="4"/>
     </row>
-    <row r="121" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="13" t="s">
         <v>204</v>
       </c>
@@ -26327,7 +26296,7 @@
       </c>
       <c r="AA121" s="4"/>
     </row>
-    <row r="122" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="13" t="s">
         <v>204</v>
       </c>
@@ -26402,7 +26371,7 @@
       </c>
       <c r="AA122" s="4"/>
     </row>
-    <row r="123" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="13" t="s">
         <v>204</v>
       </c>
@@ -26477,7 +26446,7 @@
       </c>
       <c r="AA123" s="4"/>
     </row>
-    <row r="124" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A124" s="13" t="s">
         <v>204</v>
       </c>
@@ -26552,7 +26521,7 @@
       </c>
       <c r="AA124" s="4"/>
     </row>
-    <row r="125" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A125" s="13" t="s">
         <v>204</v>
       </c>
@@ -26627,7 +26596,7 @@
       </c>
       <c r="AA125" s="4"/>
     </row>
-    <row r="126" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="13" t="s">
         <v>204</v>
       </c>
@@ -26702,7 +26671,7 @@
       </c>
       <c r="AA126" s="4"/>
     </row>
-    <row r="127" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A127" s="13" t="s">
         <v>204</v>
       </c>
@@ -26777,7 +26746,7 @@
       </c>
       <c r="AA127" s="4"/>
     </row>
-    <row r="128" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A128" s="13" t="s">
         <v>204</v>
       </c>
@@ -26852,7 +26821,7 @@
       </c>
       <c r="AA128" s="4"/>
     </row>
-    <row r="129" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="13" t="s">
         <v>204</v>
       </c>
@@ -26927,7 +26896,7 @@
       </c>
       <c r="AA129" s="4"/>
     </row>
-    <row r="130" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A130" s="13" t="s">
         <v>204</v>
       </c>
@@ -27002,7 +26971,7 @@
       </c>
       <c r="AA130" s="4"/>
     </row>
-    <row r="131" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A131" s="13" t="s">
         <v>204</v>
       </c>
@@ -27077,7 +27046,7 @@
       </c>
       <c r="AA131" s="4"/>
     </row>
-    <row r="132" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A132" s="13" t="s">
         <v>204</v>
       </c>
@@ -27152,7 +27121,7 @@
       </c>
       <c r="AA132" s="4"/>
     </row>
-    <row r="133" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A133" s="13" t="s">
         <v>204</v>
       </c>
@@ -27227,7 +27196,7 @@
       </c>
       <c r="AA133" s="4"/>
     </row>
-    <row r="134" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A134" s="13" t="s">
         <v>204</v>
       </c>
@@ -27302,7 +27271,7 @@
       </c>
       <c r="AA134" s="4"/>
     </row>
-    <row r="135" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A135" s="13" t="s">
         <v>204</v>
       </c>
@@ -27377,7 +27346,7 @@
       </c>
       <c r="AA135" s="4"/>
     </row>
-    <row r="136" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A136" s="13" t="s">
         <v>204</v>
       </c>
@@ -27452,7 +27421,7 @@
       </c>
       <c r="AA136" s="4"/>
     </row>
-    <row r="137" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A137" s="13" t="s">
         <v>204</v>
       </c>
@@ -27527,7 +27496,7 @@
       </c>
       <c r="AA137" s="4"/>
     </row>
-    <row r="138" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A138" s="13" t="s">
         <v>204</v>
       </c>
@@ -27602,7 +27571,7 @@
       </c>
       <c r="AA138" s="4"/>
     </row>
-    <row r="139" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A139" s="13" t="s">
         <v>204</v>
       </c>
@@ -27677,7 +27646,7 @@
       </c>
       <c r="AA139" s="4"/>
     </row>
-    <row r="140" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="13" t="s">
         <v>204</v>
       </c>
@@ -27752,7 +27721,7 @@
       </c>
       <c r="AA140" s="4"/>
     </row>
-    <row r="141" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A141" s="13" t="s">
         <v>204</v>
       </c>
@@ -27827,7 +27796,7 @@
       </c>
       <c r="AA141" s="4"/>
     </row>
-    <row r="142" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A142" s="13" t="s">
         <v>204</v>
       </c>
@@ -27902,7 +27871,7 @@
       </c>
       <c r="AA142" s="4"/>
     </row>
-    <row r="143" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A143" s="13" t="s">
         <v>204</v>
       </c>
@@ -27977,7 +27946,7 @@
       </c>
       <c r="AA143" s="4"/>
     </row>
-    <row r="144" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A144" s="13" t="s">
         <v>204</v>
       </c>
@@ -28052,7 +28021,7 @@
       </c>
       <c r="AA144" s="4"/>
     </row>
-    <row r="145" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A145" s="13" t="s">
         <v>204</v>
       </c>
@@ -28127,7 +28096,7 @@
       </c>
       <c r="AA145" s="4"/>
     </row>
-    <row r="146" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A146" s="13" t="s">
         <v>204</v>
       </c>
@@ -28202,7 +28171,7 @@
       </c>
       <c r="AA146" s="4"/>
     </row>
-    <row r="147" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A147" s="13" t="s">
         <v>204</v>
       </c>
@@ -28279,7 +28248,7 @@
       </c>
       <c r="AA147" s="4"/>
     </row>
-    <row r="148" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A148" s="13" t="s">
         <v>204</v>
       </c>
@@ -28354,7 +28323,7 @@
       </c>
       <c r="AA148" s="4"/>
     </row>
-    <row r="149" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A149" s="13" t="s">
         <v>204</v>
       </c>
@@ -28431,7 +28400,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="150" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A150" s="13" t="s">
         <v>204</v>
       </c>
@@ -28506,7 +28475,7 @@
       </c>
       <c r="AA150" s="4"/>
     </row>
-    <row r="151" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A151" s="13" t="s">
         <v>204</v>
       </c>
@@ -28581,7 +28550,7 @@
       </c>
       <c r="AA151" s="4"/>
     </row>
-    <row r="152" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A152" s="13" t="s">
         <v>204</v>
       </c>
@@ -28658,7 +28627,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="153" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A153" s="13" t="s">
         <v>204</v>
       </c>
@@ -28733,7 +28702,7 @@
       </c>
       <c r="AA153" s="4"/>
     </row>
-    <row r="154" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A154" s="13" t="s">
         <v>204</v>
       </c>
@@ -28808,7 +28777,7 @@
       </c>
       <c r="AA154" s="4"/>
     </row>
-    <row r="155" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A155" s="13" t="s">
         <v>204</v>
       </c>
@@ -28883,7 +28852,7 @@
       </c>
       <c r="AA155" s="4"/>
     </row>
-    <row r="156" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A156" s="13" t="s">
         <v>204</v>
       </c>
@@ -28958,7 +28927,7 @@
       </c>
       <c r="AA156" s="4"/>
     </row>
-    <row r="157" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A157" s="13" t="s">
         <v>204</v>
       </c>
@@ -29033,7 +29002,7 @@
       </c>
       <c r="AA157" s="4"/>
     </row>
-    <row r="158" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A158" s="13" t="s">
         <v>204</v>
       </c>
@@ -29108,7 +29077,7 @@
       </c>
       <c r="AA158" s="4"/>
     </row>
-    <row r="159" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A159" s="13" t="s">
         <v>204</v>
       </c>
@@ -29183,7 +29152,7 @@
       </c>
       <c r="AA159" s="4"/>
     </row>
-    <row r="160" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A160" s="13" t="s">
         <v>204</v>
       </c>
@@ -29258,7 +29227,7 @@
       </c>
       <c r="AA160" s="4"/>
     </row>
-    <row r="161" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A161" s="13" t="s">
         <v>204</v>
       </c>
@@ -29333,7 +29302,7 @@
       </c>
       <c r="AA161" s="4"/>
     </row>
-    <row r="162" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A162" s="13" t="s">
         <v>204</v>
       </c>
@@ -29408,7 +29377,7 @@
       </c>
       <c r="AA162" s="4"/>
     </row>
-    <row r="163" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A163" s="13" t="s">
         <v>204</v>
       </c>
@@ -29483,7 +29452,7 @@
       </c>
       <c r="AA163" s="4"/>
     </row>
-    <row r="164" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A164" s="13" t="s">
         <v>204</v>
       </c>
@@ -29558,7 +29527,7 @@
       </c>
       <c r="AA164" s="4"/>
     </row>
-    <row r="165" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A165" s="13" t="s">
         <v>204</v>
       </c>
@@ -29633,7 +29602,7 @@
       </c>
       <c r="AA165" s="4"/>
     </row>
-    <row r="166" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A166" s="13" t="s">
         <v>204</v>
       </c>
@@ -29708,7 +29677,7 @@
       </c>
       <c r="AA166" s="4"/>
     </row>
-    <row r="167" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A167" s="13" t="s">
         <v>204</v>
       </c>
@@ -29783,7 +29752,7 @@
       </c>
       <c r="AA167" s="4"/>
     </row>
-    <row r="168" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A168" s="13" t="s">
         <v>204</v>
       </c>
@@ -29858,7 +29827,7 @@
       </c>
       <c r="AA168" s="4"/>
     </row>
-    <row r="169" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A169" s="13" t="s">
         <v>204</v>
       </c>
@@ -29933,7 +29902,7 @@
       </c>
       <c r="AA169" s="4"/>
     </row>
-    <row r="170" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A170" s="13" t="s">
         <v>204</v>
       </c>
@@ -30008,7 +29977,7 @@
       </c>
       <c r="AA170" s="4"/>
     </row>
-    <row r="171" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A171" s="13" t="s">
         <v>204</v>
       </c>
@@ -30083,7 +30052,7 @@
       </c>
       <c r="AA171" s="4"/>
     </row>
-    <row r="172" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A172" s="13" t="s">
         <v>204</v>
       </c>
@@ -30158,7 +30127,7 @@
       </c>
       <c r="AA172" s="4"/>
     </row>
-    <row r="173" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A173" s="13" t="s">
         <v>204</v>
       </c>
@@ -30233,7 +30202,7 @@
       </c>
       <c r="AA173" s="4"/>
     </row>
-    <row r="174" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A174" s="13" t="s">
         <v>204</v>
       </c>
@@ -30308,7 +30277,7 @@
       </c>
       <c r="AA174" s="4"/>
     </row>
-    <row r="175" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A175" s="13" t="s">
         <v>204</v>
       </c>
@@ -30383,7 +30352,7 @@
       </c>
       <c r="AA175" s="4"/>
     </row>
-    <row r="176" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A176" s="13" t="s">
         <v>204</v>
       </c>
@@ -30458,7 +30427,7 @@
       </c>
       <c r="AA176" s="4"/>
     </row>
-    <row r="177" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A177" s="13" t="s">
         <v>204</v>
       </c>
@@ -30533,7 +30502,7 @@
       </c>
       <c r="AA177" s="4"/>
     </row>
-    <row r="178" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A178" s="13" t="s">
         <v>204</v>
       </c>
@@ -30608,7 +30577,7 @@
       </c>
       <c r="AA178" s="4"/>
     </row>
-    <row r="179" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A179" s="13" t="s">
         <v>204</v>
       </c>
@@ -30683,7 +30652,7 @@
       </c>
       <c r="AA179" s="4"/>
     </row>
-    <row r="180" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A180" s="13" t="s">
         <v>204</v>
       </c>
@@ -30758,7 +30727,7 @@
       </c>
       <c r="AA180" s="4"/>
     </row>
-    <row r="181" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A181" s="13" t="s">
         <v>204</v>
       </c>
@@ -30833,7 +30802,7 @@
       </c>
       <c r="AA181" s="4"/>
     </row>
-    <row r="182" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A182" s="13" t="s">
         <v>204</v>
       </c>
@@ -30908,7 +30877,7 @@
       </c>
       <c r="AA182" s="4"/>
     </row>
-    <row r="183" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A183" s="13" t="s">
         <v>204</v>
       </c>
@@ -30983,7 +30952,7 @@
       </c>
       <c r="AA183" s="4"/>
     </row>
-    <row r="184" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A184" s="13" t="s">
         <v>204</v>
       </c>
@@ -31058,7 +31027,7 @@
       </c>
       <c r="AA184" s="4"/>
     </row>
-    <row r="185" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A185" s="13" t="s">
         <v>204</v>
       </c>
@@ -31133,7 +31102,7 @@
       </c>
       <c r="AA185" s="4"/>
     </row>
-    <row r="186" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A186" s="13" t="s">
         <v>204</v>
       </c>
@@ -31208,7 +31177,7 @@
       </c>
       <c r="AA186" s="4"/>
     </row>
-    <row r="187" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A187" s="13" t="s">
         <v>204</v>
       </c>
@@ -31283,7 +31252,7 @@
       </c>
       <c r="AA187" s="4"/>
     </row>
-    <row r="188" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A188" s="13" t="s">
         <v>204</v>
       </c>
@@ -31358,7 +31327,7 @@
       </c>
       <c r="AA188" s="4"/>
     </row>
-    <row r="189" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="13" t="s">
         <v>204</v>
       </c>
@@ -31433,7 +31402,7 @@
       </c>
       <c r="AA189" s="4"/>
     </row>
-    <row r="190" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="13" t="s">
         <v>204</v>
       </c>
@@ -31508,7 +31477,7 @@
       </c>
       <c r="AA190" s="4"/>
     </row>
-    <row r="191" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A191" s="13" t="s">
         <v>204</v>
       </c>
@@ -31583,7 +31552,7 @@
       </c>
       <c r="AA191" s="4"/>
     </row>
-    <row r="192" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="13" t="s">
         <v>204</v>
       </c>
@@ -31658,7 +31627,7 @@
       </c>
       <c r="AA192" s="4"/>
     </row>
-    <row r="193" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="13" t="s">
         <v>204</v>
       </c>
@@ -31733,7 +31702,7 @@
       </c>
       <c r="AA193" s="4"/>
     </row>
-    <row r="194" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="13" t="s">
         <v>204</v>
       </c>
@@ -31810,7 +31779,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="195" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A195" s="13" t="s">
         <v>204</v>
       </c>
@@ -31885,7 +31854,7 @@
       </c>
       <c r="AA195" s="4"/>
     </row>
-    <row r="196" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="13" t="s">
         <v>204</v>
       </c>
@@ -31962,7 +31931,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="197" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="13" t="s">
         <v>204</v>
       </c>
@@ -32037,7 +32006,7 @@
       </c>
       <c r="AA197" s="4"/>
     </row>
-    <row r="198" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="13" t="s">
         <v>204</v>
       </c>
@@ -32112,7 +32081,7 @@
       </c>
       <c r="AA198" s="4"/>
     </row>
-    <row r="199" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A199" s="13" t="s">
         <v>204</v>
       </c>
@@ -32187,7 +32156,7 @@
       </c>
       <c r="AA199" s="4"/>
     </row>
-    <row r="200" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A200" s="13" t="s">
         <v>204</v>
       </c>
@@ -32262,7 +32231,7 @@
       </c>
       <c r="AA200" s="4"/>
     </row>
-    <row r="201" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A201" s="13" t="s">
         <v>204</v>
       </c>
@@ -32337,7 +32306,7 @@
       </c>
       <c r="AA201" s="4"/>
     </row>
-    <row r="202" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A202" s="13" t="s">
         <v>204</v>
       </c>
@@ -32412,7 +32381,7 @@
       </c>
       <c r="AA202" s="4"/>
     </row>
-    <row r="203" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A203" s="13" t="s">
         <v>204</v>
       </c>
@@ -32487,7 +32456,7 @@
       </c>
       <c r="AA203" s="4"/>
     </row>
-    <row r="204" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A204" s="13" t="s">
         <v>204</v>
       </c>
@@ -32562,7 +32531,7 @@
       </c>
       <c r="AA204" s="4"/>
     </row>
-    <row r="205" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A205" s="13" t="s">
         <v>204</v>
       </c>
@@ -32637,7 +32606,7 @@
       </c>
       <c r="AA205" s="4"/>
     </row>
-    <row r="206" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A206" s="13" t="s">
         <v>204</v>
       </c>
@@ -32712,7 +32681,7 @@
       </c>
       <c r="AA206" s="4"/>
     </row>
-    <row r="207" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A207" s="13" t="s">
         <v>204</v>
       </c>
@@ -32787,7 +32756,7 @@
       </c>
       <c r="AA207" s="4"/>
     </row>
-    <row r="208" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A208" s="13" t="s">
         <v>204</v>
       </c>
@@ -32862,7 +32831,7 @@
       </c>
       <c r="AA208" s="4"/>
     </row>
-    <row r="209" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A209" s="13" t="s">
         <v>204</v>
       </c>
@@ -32937,7 +32906,7 @@
       </c>
       <c r="AA209" s="4"/>
     </row>
-    <row r="210" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A210" s="13" t="s">
         <v>204</v>
       </c>
@@ -33012,7 +32981,7 @@
       </c>
       <c r="AA210" s="4"/>
     </row>
-    <row r="211" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A211" s="13" t="s">
         <v>204</v>
       </c>
@@ -33087,7 +33056,7 @@
       </c>
       <c r="AA211" s="4"/>
     </row>
-    <row r="212" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A212" s="13" t="s">
         <v>204</v>
       </c>
@@ -33162,7 +33131,7 @@
       </c>
       <c r="AA212" s="4"/>
     </row>
-    <row r="213" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A213" s="13" t="s">
         <v>204</v>
       </c>
@@ -33237,7 +33206,7 @@
       </c>
       <c r="AA213" s="4"/>
     </row>
-    <row r="214" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A214" s="13" t="s">
         <v>204</v>
       </c>
@@ -33312,7 +33281,7 @@
       </c>
       <c r="AA214" s="4"/>
     </row>
-    <row r="215" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A215" s="13" t="s">
         <v>204</v>
       </c>
@@ -33387,7 +33356,7 @@
       </c>
       <c r="AA215" s="4"/>
     </row>
-    <row r="216" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A216" s="13" t="s">
         <v>204</v>
       </c>
@@ -33462,7 +33431,7 @@
       </c>
       <c r="AA216" s="4"/>
     </row>
-    <row r="217" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A217" s="13" t="s">
         <v>204</v>
       </c>
@@ -33537,7 +33506,7 @@
       </c>
       <c r="AA217" s="4"/>
     </row>
-    <row r="218" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A218" s="13" t="s">
         <v>204</v>
       </c>
@@ -33612,7 +33581,7 @@
       </c>
       <c r="AA218" s="4"/>
     </row>
-    <row r="219" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A219" s="13" t="s">
         <v>204</v>
       </c>
@@ -33687,7 +33656,7 @@
       </c>
       <c r="AA219" s="4"/>
     </row>
-    <row r="220" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A220" s="13" t="s">
         <v>204</v>
       </c>
@@ -33762,7 +33731,7 @@
       </c>
       <c r="AA220" s="4"/>
     </row>
-    <row r="221" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A221" s="13" t="s">
         <v>204</v>
       </c>
@@ -33837,7 +33806,7 @@
       </c>
       <c r="AA221" s="4"/>
     </row>
-    <row r="222" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A222" s="13" t="s">
         <v>204</v>
       </c>
@@ -33912,7 +33881,7 @@
       </c>
       <c r="AA222" s="4"/>
     </row>
-    <row r="223" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A223" s="13" t="s">
         <v>204</v>
       </c>
@@ -33989,7 +33958,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="224" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A224" s="13" t="s">
         <v>204</v>
       </c>
@@ -34064,7 +34033,7 @@
       </c>
       <c r="AA224" s="4"/>
     </row>
-    <row r="225" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A225" s="13" t="s">
         <v>204</v>
       </c>
@@ -34143,7 +34112,7 @@
       </c>
       <c r="AA225" s="4"/>
     </row>
-    <row r="226" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A226" s="13" t="s">
         <v>204</v>
       </c>
@@ -34218,7 +34187,7 @@
       </c>
       <c r="AA226" s="4"/>
     </row>
-    <row r="227" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A227" s="13" t="s">
         <v>204</v>
       </c>
@@ -34293,7 +34262,7 @@
       </c>
       <c r="AA227" s="4"/>
     </row>
-    <row r="228" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A228" s="13" t="s">
         <v>204</v>
       </c>
@@ -34368,7 +34337,7 @@
       </c>
       <c r="AA228" s="4"/>
     </row>
-    <row r="229" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A229" s="13" t="s">
         <v>204</v>
       </c>
@@ -34443,7 +34412,7 @@
       </c>
       <c r="AA229" s="4"/>
     </row>
-    <row r="230" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A230" s="13" t="s">
         <v>204</v>
       </c>
@@ -34518,7 +34487,7 @@
       </c>
       <c r="AA230" s="4"/>
     </row>
-    <row r="231" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A231" s="13" t="s">
         <v>204</v>
       </c>
@@ -34593,7 +34562,7 @@
       </c>
       <c r="AA231" s="4"/>
     </row>
-    <row r="232" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A232" s="13" t="s">
         <v>204</v>
       </c>
@@ -34668,7 +34637,7 @@
       </c>
       <c r="AA232" s="4"/>
     </row>
-    <row r="233" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A233" s="13" t="s">
         <v>204</v>
       </c>
@@ -34743,7 +34712,7 @@
       </c>
       <c r="AA233" s="4"/>
     </row>
-    <row r="234" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A234" s="13" t="s">
         <v>204</v>
       </c>
@@ -34818,7 +34787,7 @@
       </c>
       <c r="AA234" s="4"/>
     </row>
-    <row r="235" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A235" s="13" t="s">
         <v>204</v>
       </c>
@@ -34893,7 +34862,7 @@
       </c>
       <c r="AA235" s="4"/>
     </row>
-    <row r="236" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A236" s="13" t="s">
         <v>204</v>
       </c>
@@ -34970,7 +34939,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="237" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A237" s="13" t="s">
         <v>204</v>
       </c>
@@ -35045,7 +35014,7 @@
       </c>
       <c r="AA237" s="4"/>
     </row>
-    <row r="238" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A238" s="13" t="s">
         <v>204</v>
       </c>
@@ -35120,7 +35089,7 @@
       </c>
       <c r="AA238" s="4"/>
     </row>
-    <row r="239" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A239" s="13" t="s">
         <v>204</v>
       </c>
@@ -35195,7 +35164,7 @@
       </c>
       <c r="AA239" s="4"/>
     </row>
-    <row r="240" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A240" s="13" t="s">
         <v>204</v>
       </c>
@@ -35270,7 +35239,7 @@
       </c>
       <c r="AA240" s="4"/>
     </row>
-    <row r="241" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A241" s="13" t="s">
         <v>204</v>
       </c>
@@ -35345,7 +35314,7 @@
       </c>
       <c r="AA241" s="4"/>
     </row>
-    <row r="242" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A242" s="13" t="s">
         <v>204</v>
       </c>
@@ -35420,7 +35389,7 @@
       </c>
       <c r="AA242" s="4"/>
     </row>
-    <row r="243" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A243" s="13" t="s">
         <v>204</v>
       </c>
@@ -35495,7 +35464,7 @@
       </c>
       <c r="AA243" s="4"/>
     </row>
-    <row r="244" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A244" s="13" t="s">
         <v>204</v>
       </c>
@@ -35570,7 +35539,7 @@
       </c>
       <c r="AA244" s="4"/>
     </row>
-    <row r="245" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A245" s="13" t="s">
         <v>204</v>
       </c>
@@ -35645,7 +35614,7 @@
       </c>
       <c r="AA245" s="4"/>
     </row>
-    <row r="246" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A246" s="13" t="s">
         <v>204</v>
       </c>
@@ -35720,7 +35689,7 @@
       </c>
       <c r="AA246" s="4"/>
     </row>
-    <row r="247" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A247" s="13" t="s">
         <v>204</v>
       </c>
@@ -35795,7 +35764,7 @@
       </c>
       <c r="AA247" s="4"/>
     </row>
-    <row r="248" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A248" s="13" t="s">
         <v>204</v>
       </c>
@@ -35870,7 +35839,7 @@
       </c>
       <c r="AA248" s="4"/>
     </row>
-    <row r="249" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A249" s="13" t="s">
         <v>204</v>
       </c>
@@ -35945,7 +35914,7 @@
       </c>
       <c r="AA249" s="4"/>
     </row>
-    <row r="250" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A250" s="13" t="s">
         <v>204</v>
       </c>
@@ -36020,7 +35989,7 @@
       </c>
       <c r="AA250" s="4"/>
     </row>
-    <row r="251" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A251" s="13" t="s">
         <v>204</v>
       </c>
@@ -36095,7 +36064,7 @@
       </c>
       <c r="AA251" s="4"/>
     </row>
-    <row r="252" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A252" s="13" t="s">
         <v>204</v>
       </c>
@@ -36170,7 +36139,7 @@
       </c>
       <c r="AA252" s="4"/>
     </row>
-    <row r="253" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A253" s="13" t="s">
         <v>204</v>
       </c>
@@ -36245,7 +36214,7 @@
       </c>
       <c r="AA253" s="4"/>
     </row>
-    <row r="254" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A254" s="13" t="s">
         <v>204</v>
       </c>
@@ -36320,7 +36289,7 @@
       </c>
       <c r="AA254" s="4"/>
     </row>
-    <row r="255" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A255" s="13" t="s">
         <v>204</v>
       </c>
@@ -36395,7 +36364,7 @@
       </c>
       <c r="AA255" s="4"/>
     </row>
-    <row r="256" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A256" s="13" t="s">
         <v>204</v>
       </c>
@@ -36470,7 +36439,7 @@
       </c>
       <c r="AA256" s="4"/>
     </row>
-    <row r="257" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A257" s="13" t="s">
         <v>204</v>
       </c>
@@ -36545,7 +36514,7 @@
       </c>
       <c r="AA257" s="4"/>
     </row>
-    <row r="258" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A258" s="13" t="s">
         <v>204</v>
       </c>
@@ -36620,7 +36589,7 @@
       </c>
       <c r="AA258" s="4"/>
     </row>
-    <row r="259" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A259" s="13" t="s">
         <v>204</v>
       </c>
@@ -36695,7 +36664,7 @@
       </c>
       <c r="AA259" s="4"/>
     </row>
-    <row r="260" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A260" s="13" t="s">
         <v>204</v>
       </c>
@@ -36770,7 +36739,7 @@
       </c>
       <c r="AA260" s="4"/>
     </row>
-    <row r="261" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A261" s="13" t="s">
         <v>204</v>
       </c>
@@ -36845,7 +36814,7 @@
       </c>
       <c r="AA261" s="4"/>
     </row>
-    <row r="262" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A262" s="13" t="s">
         <v>204</v>
       </c>
@@ -36920,7 +36889,7 @@
       </c>
       <c r="AA262" s="4"/>
     </row>
-    <row r="263" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A263" s="13" t="s">
         <v>204</v>
       </c>
@@ -36995,7 +36964,7 @@
       </c>
       <c r="AA263" s="4"/>
     </row>
-    <row r="264" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A264" s="13" t="s">
         <v>204</v>
       </c>
@@ -37070,7 +37039,7 @@
       </c>
       <c r="AA264" s="4"/>
     </row>
-    <row r="265" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A265" s="13" t="s">
         <v>204</v>
       </c>
@@ -37145,7 +37114,7 @@
       </c>
       <c r="AA265" s="4"/>
     </row>
-    <row r="266" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A266" s="13" t="s">
         <v>204</v>
       </c>
@@ -37220,7 +37189,7 @@
       </c>
       <c r="AA266" s="4"/>
     </row>
-    <row r="267" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A267" s="13" t="s">
         <v>204</v>
       </c>
@@ -37289,7 +37258,7 @@
       <c r="Z267" s="4"/>
       <c r="AA267" s="4"/>
     </row>
-    <row r="268" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A268" s="13" t="s">
         <v>204</v>
       </c>
@@ -37364,7 +37333,7 @@
       </c>
       <c r="AA268" s="4"/>
     </row>
-    <row r="269" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A269" s="13" t="s">
         <v>204</v>
       </c>
@@ -37439,7 +37408,7 @@
       </c>
       <c r="AA269" s="4"/>
     </row>
-    <row r="270" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A270" s="13" t="s">
         <v>204</v>
       </c>
@@ -37514,7 +37483,7 @@
       </c>
       <c r="AA270" s="4"/>
     </row>
-    <row r="271" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A271" s="13" t="s">
         <v>204</v>
       </c>
@@ -37589,7 +37558,7 @@
       </c>
       <c r="AA271" s="4"/>
     </row>
-    <row r="272" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A272" s="13" t="s">
         <v>204</v>
       </c>
@@ -37664,7 +37633,7 @@
       </c>
       <c r="AA272" s="4"/>
     </row>
-    <row r="273" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A273" s="13" t="s">
         <v>204</v>
       </c>
@@ -37739,7 +37708,7 @@
       </c>
       <c r="AA273" s="4"/>
     </row>
-    <row r="274" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A274" s="13" t="s">
         <v>204</v>
       </c>
@@ -37814,7 +37783,7 @@
       </c>
       <c r="AA274" s="4"/>
     </row>
-    <row r="275" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A275" s="13" t="s">
         <v>204</v>
       </c>
@@ -37889,7 +37858,7 @@
       </c>
       <c r="AA275" s="4"/>
     </row>
-    <row r="276" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A276" s="13" t="s">
         <v>204</v>
       </c>
@@ -37964,7 +37933,7 @@
       </c>
       <c r="AA276" s="4"/>
     </row>
-    <row r="277" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A277" s="13" t="s">
         <v>204</v>
       </c>
@@ -38039,7 +38008,7 @@
       </c>
       <c r="AA277" s="4"/>
     </row>
-    <row r="278" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A278" s="13" t="s">
         <v>204</v>
       </c>
@@ -38114,7 +38083,7 @@
       </c>
       <c r="AA278" s="4"/>
     </row>
-    <row r="279" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A279" s="13" t="s">
         <v>204</v>
       </c>
@@ -38189,7 +38158,7 @@
       </c>
       <c r="AA279" s="4"/>
     </row>
-    <row r="280" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A280" s="13" t="s">
         <v>204</v>
       </c>
@@ -38264,7 +38233,7 @@
       </c>
       <c r="AA280" s="4"/>
     </row>
-    <row r="281" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A281" s="13" t="s">
         <v>204</v>
       </c>
@@ -38339,7 +38308,7 @@
       </c>
       <c r="AA281" s="4"/>
     </row>
-    <row r="282" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A282" s="13" t="s">
         <v>204</v>
       </c>
@@ -38414,7 +38383,7 @@
       </c>
       <c r="AA282" s="4"/>
     </row>
-    <row r="283" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A283" s="13" t="s">
         <v>204</v>
       </c>
@@ -38489,7 +38458,7 @@
       </c>
       <c r="AA283" s="4"/>
     </row>
-    <row r="284" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A284" s="13" t="s">
         <v>204</v>
       </c>
@@ -38564,7 +38533,7 @@
       </c>
       <c r="AA284" s="4"/>
     </row>
-    <row r="285" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A285" s="13" t="s">
         <v>204</v>
       </c>
@@ -38639,7 +38608,7 @@
       </c>
       <c r="AA285" s="4"/>
     </row>
-    <row r="286" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A286" s="13" t="s">
         <v>204</v>
       </c>
@@ -38714,7 +38683,7 @@
       </c>
       <c r="AA286" s="4"/>
     </row>
-    <row r="287" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A287" s="13" t="s">
         <v>204</v>
       </c>
@@ -38789,7 +38758,7 @@
       </c>
       <c r="AA287" s="4"/>
     </row>
-    <row r="288" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A288" s="13" t="s">
         <v>204</v>
       </c>
@@ -38864,7 +38833,7 @@
       </c>
       <c r="AA288" s="4"/>
     </row>
-    <row r="289" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A289" s="13" t="s">
         <v>204</v>
       </c>
@@ -38939,7 +38908,7 @@
       </c>
       <c r="AA289" s="4"/>
     </row>
-    <row r="290" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A290" s="13" t="s">
         <v>204</v>
       </c>
@@ -39018,7 +38987,7 @@
       </c>
       <c r="AA290" s="4"/>
     </row>
-    <row r="291" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A291" s="13" t="s">
         <v>204</v>
       </c>
@@ -39093,7 +39062,7 @@
       </c>
       <c r="AA291" s="4"/>
     </row>
-    <row r="292" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A292" s="13" t="s">
         <v>204</v>
       </c>
@@ -39168,7 +39137,7 @@
       </c>
       <c r="AA292" s="4"/>
     </row>
-    <row r="293" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A293" s="13" t="s">
         <v>204</v>
       </c>
@@ -39243,7 +39212,7 @@
       </c>
       <c r="AA293" s="4"/>
     </row>
-    <row r="294" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A294" s="13" t="s">
         <v>204</v>
       </c>
@@ -39318,7 +39287,7 @@
       </c>
       <c r="AA294" s="4"/>
     </row>
-    <row r="295" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A295" s="13" t="s">
         <v>204</v>
       </c>
@@ -39393,7 +39362,7 @@
       </c>
       <c r="AA295" s="4"/>
     </row>
-    <row r="296" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A296" s="13" t="s">
         <v>204</v>
       </c>
@@ -39468,7 +39437,7 @@
       </c>
       <c r="AA296" s="4"/>
     </row>
-    <row r="297" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A297" s="13" t="s">
         <v>204</v>
       </c>
@@ -39543,7 +39512,7 @@
       </c>
       <c r="AA297" s="4"/>
     </row>
-    <row r="298" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A298" s="13" t="s">
         <v>204</v>
       </c>
@@ -39618,7 +39587,7 @@
       </c>
       <c r="AA298" s="4"/>
     </row>
-    <row r="299" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A299" s="13" t="s">
         <v>204</v>
       </c>
@@ -39693,7 +39662,7 @@
       </c>
       <c r="AA299" s="4"/>
     </row>
-    <row r="300" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A300" s="13" t="s">
         <v>204</v>
       </c>
@@ -39768,7 +39737,7 @@
       </c>
       <c r="AA300" s="4"/>
     </row>
-    <row r="301" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A301" s="13" t="s">
         <v>204</v>
       </c>
@@ -39843,7 +39812,7 @@
       </c>
       <c r="AA301" s="4"/>
     </row>
-    <row r="302" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A302" s="13" t="s">
         <v>204</v>
       </c>
@@ -39918,7 +39887,7 @@
       </c>
       <c r="AA302" s="4"/>
     </row>
-    <row r="303" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A303" s="13" t="s">
         <v>204</v>
       </c>
@@ -39993,7 +39962,7 @@
       </c>
       <c r="AA303" s="4"/>
     </row>
-    <row r="304" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A304" s="13" t="s">
         <v>204</v>
       </c>
@@ -40068,7 +40037,7 @@
       </c>
       <c r="AA304" s="4"/>
     </row>
-    <row r="305" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A305" s="13" t="s">
         <v>204</v>
       </c>
@@ -40143,7 +40112,7 @@
       </c>
       <c r="AA305" s="4"/>
     </row>
-    <row r="306" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A306" s="13" t="s">
         <v>204</v>
       </c>
@@ -40218,7 +40187,7 @@
       </c>
       <c r="AA306" s="4"/>
     </row>
-    <row r="307" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A307" s="13" t="s">
         <v>204</v>
       </c>
@@ -40293,7 +40262,7 @@
       </c>
       <c r="AA307" s="4"/>
     </row>
-    <row r="308" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A308" s="13" t="s">
         <v>204</v>
       </c>
@@ -40368,7 +40337,7 @@
       </c>
       <c r="AA308" s="4"/>
     </row>
-    <row r="309" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A309" s="13" t="s">
         <v>204</v>
       </c>
@@ -40443,7 +40412,7 @@
       </c>
       <c r="AA309" s="4"/>
     </row>
-    <row r="310" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A310" s="13" t="s">
         <v>204</v>
       </c>
@@ -40518,7 +40487,7 @@
       </c>
       <c r="AA310" s="4"/>
     </row>
-    <row r="311" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A311" s="13" t="s">
         <v>204</v>
       </c>
@@ -40593,7 +40562,7 @@
       </c>
       <c r="AA311" s="4"/>
     </row>
-    <row r="312" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A312" s="13" t="s">
         <v>204</v>
       </c>
@@ -40668,7 +40637,7 @@
       </c>
       <c r="AA312" s="4"/>
     </row>
-    <row r="313" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A313" s="13" t="s">
         <v>204</v>
       </c>
@@ -40743,7 +40712,7 @@
       </c>
       <c r="AA313" s="4"/>
     </row>
-    <row r="314" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A314" s="13" t="s">
         <v>204</v>
       </c>
@@ -40818,7 +40787,7 @@
       </c>
       <c r="AA314" s="4"/>
     </row>
-    <row r="315" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A315" s="13" t="s">
         <v>204</v>
       </c>
@@ -40893,7 +40862,7 @@
       </c>
       <c r="AA315" s="4"/>
     </row>
-    <row r="316" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A316" s="13" t="s">
         <v>204</v>
       </c>
@@ -40968,7 +40937,7 @@
       </c>
       <c r="AA316" s="4"/>
     </row>
-    <row r="317" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A317" s="13" t="s">
         <v>204</v>
       </c>
@@ -41043,7 +41012,7 @@
       </c>
       <c r="AA317" s="4"/>
     </row>
-    <row r="318" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A318" s="13" t="s">
         <v>204</v>
       </c>
@@ -41118,7 +41087,7 @@
       </c>
       <c r="AA318" s="4"/>
     </row>
-    <row r="319" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A319" s="13" t="s">
         <v>204</v>
       </c>
@@ -41193,7 +41162,7 @@
       </c>
       <c r="AA319" s="4"/>
     </row>
-    <row r="320" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A320" s="13" t="s">
         <v>204</v>
       </c>
@@ -41268,7 +41237,7 @@
       </c>
       <c r="AA320" s="4"/>
     </row>
-    <row r="321" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A321" s="13" t="s">
         <v>204</v>
       </c>
@@ -41343,7 +41312,7 @@
       </c>
       <c r="AA321" s="4"/>
     </row>
-    <row r="322" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A322" s="13" t="s">
         <v>204</v>
       </c>
@@ -41418,7 +41387,7 @@
       </c>
       <c r="AA322" s="4"/>
     </row>
-    <row r="323" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A323" s="13" t="s">
         <v>204</v>
       </c>
@@ -41493,7 +41462,7 @@
       </c>
       <c r="AA323" s="4"/>
     </row>
-    <row r="324" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A324" s="13" t="s">
         <v>204</v>
       </c>
@@ -41568,7 +41537,7 @@
       </c>
       <c r="AA324" s="4"/>
     </row>
-    <row r="325" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A325" s="13" t="s">
         <v>204</v>
       </c>
@@ -41643,7 +41612,7 @@
       </c>
       <c r="AA325" s="4"/>
     </row>
-    <row r="326" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A326" s="13" t="s">
         <v>204</v>
       </c>
@@ -41718,7 +41687,7 @@
       </c>
       <c r="AA326" s="4"/>
     </row>
-    <row r="327" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A327" s="13" t="s">
         <v>204</v>
       </c>
@@ -41793,7 +41762,7 @@
       </c>
       <c r="AA327" s="4"/>
     </row>
-    <row r="328" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A328" s="13" t="s">
         <v>204</v>
       </c>
@@ -41868,7 +41837,7 @@
       </c>
       <c r="AA328" s="4"/>
     </row>
-    <row r="329" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A329" s="13" t="s">
         <v>204</v>
       </c>
@@ -41943,7 +41912,7 @@
       </c>
       <c r="AA329" s="4"/>
     </row>
-    <row r="330" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A330" s="13" t="s">
         <v>204</v>
       </c>
@@ -42018,7 +41987,7 @@
       </c>
       <c r="AA330" s="4"/>
     </row>
-    <row r="331" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A331" s="13" t="s">
         <v>204</v>
       </c>
@@ -42093,7 +42062,7 @@
       </c>
       <c r="AA331" s="4"/>
     </row>
-    <row r="332" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A332" s="13" t="s">
         <v>204</v>
       </c>
@@ -42168,7 +42137,7 @@
       </c>
       <c r="AA332" s="4"/>
     </row>
-    <row r="333" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A333" s="13" t="s">
         <v>204</v>
       </c>
@@ -42243,7 +42212,7 @@
       </c>
       <c r="AA333" s="4"/>
     </row>
-    <row r="334" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A334" s="13" t="s">
         <v>204</v>
       </c>
@@ -42318,7 +42287,7 @@
       </c>
       <c r="AA334" s="4"/>
     </row>
-    <row r="335" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A335" s="13" t="s">
         <v>204</v>
       </c>
@@ -42393,7 +42362,7 @@
       </c>
       <c r="AA335" s="4"/>
     </row>
-    <row r="336" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A336" s="13" t="s">
         <v>204</v>
       </c>
@@ -42468,7 +42437,7 @@
       </c>
       <c r="AA336" s="4"/>
     </row>
-    <row r="337" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A337" s="13" t="s">
         <v>204</v>
       </c>
@@ -42543,7 +42512,7 @@
       </c>
       <c r="AA337" s="4"/>
     </row>
-    <row r="338" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A338" s="13" t="s">
         <v>204</v>
       </c>
@@ -42618,7 +42587,7 @@
       </c>
       <c r="AA338" s="4"/>
     </row>
-    <row r="339" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A339" s="13" t="s">
         <v>204</v>
       </c>
@@ -42693,7 +42662,7 @@
       </c>
       <c r="AA339" s="4"/>
     </row>
-    <row r="340" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A340" s="13" t="s">
         <v>204</v>
       </c>
@@ -42768,7 +42737,7 @@
       </c>
       <c r="AA340" s="4"/>
     </row>
-    <row r="341" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A341" s="13" t="s">
         <v>204</v>
       </c>
@@ -42843,7 +42812,7 @@
       </c>
       <c r="AA341" s="4"/>
     </row>
-    <row r="342" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A342" s="13" t="s">
         <v>204</v>
       </c>
@@ -42918,7 +42887,7 @@
       </c>
       <c r="AA342" s="4"/>
     </row>
-    <row r="343" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A343" s="13" t="s">
         <v>204</v>
       </c>
@@ -42993,7 +42962,7 @@
       </c>
       <c r="AA343" s="4"/>
     </row>
-    <row r="344" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A344" s="13" t="s">
         <v>204</v>
       </c>
@@ -43068,7 +43037,7 @@
       </c>
       <c r="AA344" s="4"/>
     </row>
-    <row r="345" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A345" s="13" t="s">
         <v>204</v>
       </c>
@@ -43145,7 +43114,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="346" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A346" s="13" t="s">
         <v>204</v>
       </c>
@@ -43220,7 +43189,7 @@
       </c>
       <c r="AA346" s="4"/>
     </row>
-    <row r="347" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A347" s="13" t="s">
         <v>204</v>
       </c>
@@ -43295,7 +43264,7 @@
       </c>
       <c r="AA347" s="4"/>
     </row>
-    <row r="348" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A348" s="13" t="s">
         <v>204</v>
       </c>
@@ -43370,7 +43339,7 @@
       </c>
       <c r="AA348" s="4"/>
     </row>
-    <row r="349" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A349" s="13" t="s">
         <v>204</v>
       </c>
@@ -43445,7 +43414,7 @@
       </c>
       <c r="AA349" s="4"/>
     </row>
-    <row r="350" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A350" s="13" t="s">
         <v>204</v>
       </c>
@@ -43520,7 +43489,7 @@
       </c>
       <c r="AA350" s="4"/>
     </row>
-    <row r="351" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A351" s="13" t="s">
         <v>204</v>
       </c>
@@ -43595,7 +43564,7 @@
       </c>
       <c r="AA351" s="4"/>
     </row>
-    <row r="352" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A352" s="13" t="s">
         <v>204</v>
       </c>
@@ -43670,7 +43639,7 @@
       </c>
       <c r="AA352" s="4"/>
     </row>
-    <row r="353" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A353" s="13" t="s">
         <v>204</v>
       </c>
@@ -43745,7 +43714,7 @@
       </c>
       <c r="AA353" s="4"/>
     </row>
-    <row r="354" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A354" s="13" t="s">
         <v>204</v>
       </c>
@@ -43820,7 +43789,7 @@
       </c>
       <c r="AA354" s="4"/>
     </row>
-    <row r="355" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A355" s="13" t="s">
         <v>204</v>
       </c>
@@ -43895,7 +43864,7 @@
       </c>
       <c r="AA355" s="4"/>
     </row>
-    <row r="356" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A356" s="13" t="s">
         <v>204</v>
       </c>
@@ -43970,7 +43939,7 @@
       </c>
       <c r="AA356" s="4"/>
     </row>
-    <row r="357" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A357" s="13" t="s">
         <v>204</v>
       </c>
@@ -44045,7 +44014,7 @@
       </c>
       <c r="AA357" s="4"/>
     </row>
-    <row r="358" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A358" s="13" t="s">
         <v>204</v>
       </c>
@@ -44120,7 +44089,7 @@
       </c>
       <c r="AA358" s="4"/>
     </row>
-    <row r="359" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A359" s="13" t="s">
         <v>204</v>
       </c>
@@ -44195,7 +44164,7 @@
       </c>
       <c r="AA359" s="4"/>
     </row>
-    <row r="360" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A360" s="13" t="s">
         <v>204</v>
       </c>
@@ -44270,7 +44239,7 @@
       </c>
       <c r="AA360" s="4"/>
     </row>
-    <row r="361" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A361" s="13" t="s">
         <v>204</v>
       </c>
@@ -44345,7 +44314,7 @@
       </c>
       <c r="AA361" s="4"/>
     </row>
-    <row r="362" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A362" s="13" t="s">
         <v>204</v>
       </c>
@@ -44420,7 +44389,7 @@
       </c>
       <c r="AA362" s="4"/>
     </row>
-    <row r="363" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A363" s="13" t="s">
         <v>204</v>
       </c>
@@ -44499,7 +44468,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="364" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A364" s="13" t="s">
         <v>204</v>
       </c>
@@ -44574,7 +44543,7 @@
       </c>
       <c r="AA364" s="4"/>
     </row>
-    <row r="365" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A365" s="13" t="s">
         <v>204</v>
       </c>
@@ -44649,7 +44618,7 @@
       </c>
       <c r="AA365" s="4"/>
     </row>
-    <row r="366" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A366" s="13" t="s">
         <v>204</v>
       </c>
@@ -44724,7 +44693,7 @@
       </c>
       <c r="AA366" s="4"/>
     </row>
-    <row r="367" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A367" s="13" t="s">
         <v>204</v>
       </c>
@@ -44799,7 +44768,7 @@
       </c>
       <c r="AA367" s="4"/>
     </row>
-    <row r="368" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A368" s="13" t="s">
         <v>204</v>
       </c>
@@ -44874,7 +44843,7 @@
       </c>
       <c r="AA368" s="4"/>
     </row>
-    <row r="369" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A369" s="13" t="s">
         <v>204</v>
       </c>
@@ -44949,7 +44918,7 @@
       </c>
       <c r="AA369" s="4"/>
     </row>
-    <row r="370" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A370" s="13" t="s">
         <v>204</v>
       </c>
@@ -45024,7 +44993,7 @@
       </c>
       <c r="AA370" s="4"/>
     </row>
-    <row r="371" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A371" s="13" t="s">
         <v>204</v>
       </c>
@@ -45099,7 +45068,7 @@
       </c>
       <c r="AA371" s="4"/>
     </row>
-    <row r="372" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A372" s="13" t="s">
         <v>204</v>
       </c>
@@ -45174,7 +45143,7 @@
       </c>
       <c r="AA372" s="4"/>
     </row>
-    <row r="373" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A373" s="13" t="s">
         <v>204</v>
       </c>
@@ -45249,7 +45218,7 @@
       </c>
       <c r="AA373" s="4"/>
     </row>
-    <row r="374" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A374" s="13" t="s">
         <v>204</v>
       </c>
@@ -45324,7 +45293,7 @@
       </c>
       <c r="AA374" s="4"/>
     </row>
-    <row r="375" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A375" s="13" t="s">
         <v>204</v>
       </c>
@@ -45399,7 +45368,7 @@
       </c>
       <c r="AA375" s="4"/>
     </row>
-    <row r="376" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A376" s="13" t="s">
         <v>204</v>
       </c>
@@ -45474,7 +45443,7 @@
       </c>
       <c r="AA376" s="4"/>
     </row>
-    <row r="377" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A377" s="13" t="s">
         <v>204</v>
       </c>
@@ -45549,7 +45518,7 @@
       </c>
       <c r="AA377" s="4"/>
     </row>
-    <row r="378" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A378" s="13" t="s">
         <v>204</v>
       </c>
@@ -45624,7 +45593,7 @@
       </c>
       <c r="AA378" s="4"/>
     </row>
-    <row r="379" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A379" s="13" t="s">
         <v>204</v>
       </c>
@@ -45699,7 +45668,7 @@
       </c>
       <c r="AA379" s="4"/>
     </row>
-    <row r="380" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A380" s="13" t="s">
         <v>204</v>
       </c>
@@ -45774,7 +45743,7 @@
       </c>
       <c r="AA380" s="4"/>
     </row>
-    <row r="381" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A381" s="13" t="s">
         <v>204</v>
       </c>
@@ -45849,7 +45818,7 @@
       </c>
       <c r="AA381" s="4"/>
     </row>
-    <row r="382" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A382" s="13" t="s">
         <v>204</v>
       </c>
@@ -45924,7 +45893,7 @@
       </c>
       <c r="AA382" s="4"/>
     </row>
-    <row r="383" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A383" s="13" t="s">
         <v>204</v>
       </c>
@@ -45997,7 +45966,7 @@
       </c>
       <c r="AA383" s="4"/>
     </row>
-    <row r="384" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A384" s="13" t="s">
         <v>204</v>
       </c>
@@ -46076,7 +46045,7 @@
       </c>
       <c r="AA384" s="4"/>
     </row>
-    <row r="385" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A385" s="13" t="s">
         <v>204</v>
       </c>
@@ -46151,7 +46120,7 @@
       </c>
       <c r="AA385" s="4"/>
     </row>
-    <row r="386" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A386" s="13" t="s">
         <v>204</v>
       </c>
@@ -46230,7 +46199,7 @@
       </c>
       <c r="AA386" s="4"/>
     </row>
-    <row r="387" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A387" s="13" t="s">
         <v>204</v>
       </c>
@@ -46305,7 +46274,7 @@
       </c>
       <c r="AA387" s="4"/>
     </row>
-    <row r="388" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A388" s="13" t="s">
         <v>204</v>
       </c>
@@ -46380,7 +46349,7 @@
       </c>
       <c r="AA388" s="4"/>
     </row>
-    <row r="389" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A389" s="13" t="s">
         <v>204</v>
       </c>
@@ -46455,7 +46424,7 @@
       </c>
       <c r="AA389" s="4"/>
     </row>
-    <row r="390" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A390" s="13" t="s">
         <v>204</v>
       </c>
@@ -46530,7 +46499,7 @@
       </c>
       <c r="AA390" s="4"/>
     </row>
-    <row r="391" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A391" s="13" t="s">
         <v>204</v>
       </c>
@@ -46605,7 +46574,7 @@
       </c>
       <c r="AA391" s="4"/>
     </row>
-    <row r="392" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A392" s="13" t="s">
         <v>204</v>
       </c>
@@ -46680,7 +46649,7 @@
       </c>
       <c r="AA392" s="4"/>
     </row>
-    <row r="393" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A393" s="13" t="s">
         <v>204</v>
       </c>
@@ -46759,7 +46728,7 @@
       </c>
       <c r="AA393" s="4"/>
     </row>
-    <row r="394" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A394" s="13" t="s">
         <v>204</v>
       </c>
@@ -46840,7 +46809,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="395" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A395" s="13" t="s">
         <v>204</v>
       </c>
@@ -46913,7 +46882,7 @@
       </c>
       <c r="AA395" s="4"/>
     </row>
-    <row r="396" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A396" s="13" t="s">
         <v>204</v>
       </c>
@@ -46988,7 +46957,7 @@
       </c>
       <c r="AA396" s="4"/>
     </row>
-    <row r="397" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A397" s="13" t="s">
         <v>204</v>
       </c>
@@ -47063,7 +47032,7 @@
       </c>
       <c r="AA397" s="4"/>
     </row>
-    <row r="398" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A398" s="13" t="s">
         <v>204</v>
       </c>
@@ -47138,7 +47107,7 @@
       </c>
       <c r="AA398" s="4"/>
     </row>
-    <row r="399" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A399" s="13" t="s">
         <v>204</v>
       </c>
@@ -47213,7 +47182,7 @@
       </c>
       <c r="AA399" s="4"/>
     </row>
-    <row r="400" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A400" s="13" t="s">
         <v>204</v>
       </c>
@@ -47288,7 +47257,7 @@
       </c>
       <c r="AA400" s="4"/>
     </row>
-    <row r="401" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A401" s="13" t="s">
         <v>204</v>
       </c>
@@ -47363,7 +47332,7 @@
       </c>
       <c r="AA401" s="4"/>
     </row>
-    <row r="402" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A402" s="13" t="s">
         <v>204</v>
       </c>
@@ -47438,7 +47407,7 @@
       </c>
       <c r="AA402" s="4"/>
     </row>
-    <row r="403" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A403" s="13" t="s">
         <v>204</v>
       </c>
@@ -47513,7 +47482,7 @@
       </c>
       <c r="AA403" s="4"/>
     </row>
-    <row r="404" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A404" s="13" t="s">
         <v>204</v>
       </c>
@@ -47588,7 +47557,7 @@
       </c>
       <c r="AA404" s="4"/>
     </row>
-    <row r="405" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A405" s="13" t="s">
         <v>204</v>
       </c>
@@ -47663,7 +47632,7 @@
       </c>
       <c r="AA405" s="4"/>
     </row>
-    <row r="406" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A406" s="13" t="s">
         <v>204</v>
       </c>
@@ -47740,7 +47709,7 @@
       </c>
       <c r="AA406" s="4"/>
     </row>
-    <row r="407" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A407" s="13" t="s">
         <v>204</v>
       </c>
@@ -47817,7 +47786,7 @@
       </c>
       <c r="AA407" s="4"/>
     </row>
-    <row r="408" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A408" s="13" t="s">
         <v>204</v>
       </c>
@@ -47894,7 +47863,7 @@
       </c>
       <c r="AA408" s="4"/>
     </row>
-    <row r="409" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A409" s="13" t="s">
         <v>204</v>
       </c>
@@ -47971,7 +47940,7 @@
       </c>
       <c r="AA409" s="4"/>
     </row>
-    <row r="410" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A410" s="13" t="s">
         <v>204</v>
       </c>
@@ -48048,7 +48017,7 @@
       </c>
       <c r="AA410" s="4"/>
     </row>
-    <row r="411" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A411" s="13" t="s">
         <v>204</v>
       </c>
@@ -48125,7 +48094,7 @@
       </c>
       <c r="AA411" s="4"/>
     </row>
-    <row r="412" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A412" s="13" t="s">
         <v>204</v>
       </c>
@@ -48202,7 +48171,7 @@
       </c>
       <c r="AA412" s="4"/>
     </row>
-    <row r="413" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A413" s="13" t="s">
         <v>204</v>
       </c>
@@ -48279,7 +48248,7 @@
       </c>
       <c r="AA413" s="4"/>
     </row>
-    <row r="414" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A414" s="13" t="s">
         <v>204</v>
       </c>
@@ -48356,7 +48325,7 @@
       </c>
       <c r="AA414" s="4"/>
     </row>
-    <row r="415" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A415" s="13" t="s">
         <v>204</v>
       </c>
@@ -48433,7 +48402,7 @@
       </c>
       <c r="AA415" s="4"/>
     </row>
-    <row r="416" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A416" s="13" t="s">
         <v>204</v>
       </c>
@@ -48510,7 +48479,7 @@
       </c>
       <c r="AA416" s="4"/>
     </row>
-    <row r="417" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A417" s="13" t="s">
         <v>204</v>
       </c>
@@ -48587,7 +48556,7 @@
       </c>
       <c r="AA417" s="4"/>
     </row>
-    <row r="418" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A418" s="13" t="s">
         <v>204</v>
       </c>
@@ -48664,7 +48633,7 @@
       </c>
       <c r="AA418" s="4"/>
     </row>
-    <row r="419" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A419" s="13" t="s">
         <v>204</v>
       </c>
@@ -48741,7 +48710,7 @@
       </c>
       <c r="AA419" s="4"/>
     </row>
-    <row r="420" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A420" s="13" t="s">
         <v>204</v>
       </c>
@@ -48816,7 +48785,7 @@
       </c>
       <c r="AA420" s="4"/>
     </row>
-    <row r="421" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A421" s="13" t="s">
         <v>204</v>
       </c>
@@ -48893,7 +48862,7 @@
       </c>
       <c r="AA421" s="4"/>
     </row>
-    <row r="422" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A422" s="13" t="s">
         <v>204</v>
       </c>
@@ -48970,7 +48939,7 @@
       </c>
       <c r="AA422" s="4"/>
     </row>
-    <row r="423" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A423" s="13" t="s">
         <v>204</v>
       </c>
@@ -49047,7 +49016,7 @@
       </c>
       <c r="AA423" s="4"/>
     </row>
-    <row r="424" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A424" s="13" t="s">
         <v>204</v>
       </c>
@@ -49124,7 +49093,7 @@
       </c>
       <c r="AA424" s="28"/>
     </row>
-    <row r="425" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A425" s="13" t="s">
         <v>204</v>
       </c>
@@ -49201,7 +49170,7 @@
       </c>
       <c r="AA425" s="28"/>
     </row>
-    <row r="426" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A426" s="13" t="s">
         <v>204</v>
       </c>
@@ -49280,7 +49249,7 @@
       </c>
       <c r="AA426" s="28"/>
     </row>
-    <row r="427" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A427" s="13" t="s">
         <v>204</v>
       </c>
@@ -49359,7 +49328,7 @@
       </c>
       <c r="AA427" s="28"/>
     </row>
-    <row r="428" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A428" s="13" t="s">
         <v>204</v>
       </c>
@@ -49437,7 +49406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A429" s="13" t="s">
         <v>204</v>
       </c>
@@ -49512,7 +49481,7 @@
       </c>
       <c r="AA429" s="4"/>
     </row>
-    <row r="430" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A430" s="13" t="s">
         <v>204</v>
       </c>
@@ -49591,7 +49560,7 @@
       </c>
       <c r="AA430" s="29"/>
     </row>
-    <row r="431" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A431" s="13" t="s">
         <v>204</v>
       </c>
@@ -49670,7 +49639,7 @@
       </c>
       <c r="AA431" s="29"/>
     </row>
-    <row r="432" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A432" s="13" t="s">
         <v>204</v>
       </c>
@@ -49749,7 +49718,7 @@
       </c>
       <c r="AA432" s="29"/>
     </row>
-    <row r="433" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A433" s="13" t="s">
         <v>204</v>
       </c>
@@ -49828,7 +49797,7 @@
       </c>
       <c r="AA433" s="29"/>
     </row>
-    <row r="434" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A434" s="13" t="s">
         <v>204</v>
       </c>
@@ -49907,7 +49876,7 @@
       </c>
       <c r="AA434" s="4"/>
     </row>
-    <row r="435" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A435" s="13" t="s">
         <v>204</v>
       </c>
@@ -49986,7 +49955,7 @@
       </c>
       <c r="AA435" s="4"/>
     </row>
-    <row r="436" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A436" s="13" t="s">
         <v>204</v>
       </c>
@@ -50065,7 +50034,7 @@
       </c>
       <c r="AA436" s="4"/>
     </row>
-    <row r="437" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A437" s="13" t="s">
         <v>204</v>
       </c>
@@ -50144,7 +50113,7 @@
       </c>
       <c r="AA437" s="4"/>
     </row>
-    <row r="438" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A438" s="13" t="s">
         <v>204</v>
       </c>
@@ -50223,7 +50192,7 @@
       </c>
       <c r="AA438" s="4"/>
     </row>
-    <row r="439" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A439" s="13" t="s">
         <v>204</v>
       </c>
@@ -50302,7 +50271,7 @@
       </c>
       <c r="AA439" s="4"/>
     </row>
-    <row r="440" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A440" s="13" t="s">
         <v>204</v>
       </c>
@@ -50381,7 +50350,7 @@
       </c>
       <c r="AA440" s="4"/>
     </row>
-    <row r="441" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A441" s="13" t="s">
         <v>204</v>
       </c>
@@ -50460,7 +50429,7 @@
       </c>
       <c r="AA441" s="4"/>
     </row>
-    <row r="442" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A442" s="13" t="s">
         <v>204</v>
       </c>
@@ -50539,7 +50508,7 @@
       </c>
       <c r="AA442" s="4"/>
     </row>
-    <row r="443" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A443" s="13" t="s">
         <v>204</v>
       </c>
@@ -50618,7 +50587,7 @@
       </c>
       <c r="AA443" s="4"/>
     </row>
-    <row r="444" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A444" s="13" t="s">
         <v>204</v>
       </c>
@@ -50697,7 +50666,7 @@
       </c>
       <c r="AA444" s="29"/>
     </row>
-    <row r="445" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A445" s="13" t="s">
         <v>204</v>
       </c>
@@ -50776,7 +50745,7 @@
       </c>
       <c r="AA445" s="29"/>
     </row>
-    <row r="446" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A446" s="13" t="s">
         <v>204</v>
       </c>
@@ -50855,7 +50824,7 @@
       </c>
       <c r="AA446" s="29"/>
     </row>
-    <row r="447" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A447" s="13" t="s">
         <v>204</v>
       </c>
@@ -50934,7 +50903,7 @@
       </c>
       <c r="AA447" s="29"/>
     </row>
-    <row r="448" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A448" s="13" t="s">
         <v>204</v>
       </c>
@@ -51013,7 +50982,7 @@
       </c>
       <c r="AA448" s="29"/>
     </row>
-    <row r="449" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A449" s="13" t="s">
         <v>204</v>
       </c>
@@ -51092,7 +51061,7 @@
       </c>
       <c r="AA449" s="29"/>
     </row>
-    <row r="450" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A450" s="13" t="s">
         <v>204</v>
       </c>
@@ -51171,7 +51140,7 @@
       </c>
       <c r="AA450" s="29"/>
     </row>
-    <row r="451" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A451" s="13" t="s">
         <v>204</v>
       </c>
@@ -51252,7 +51221,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="452" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A452" s="13" t="s">
         <v>204</v>
       </c>
@@ -51331,7 +51300,7 @@
       </c>
       <c r="AA452" s="29"/>
     </row>
-    <row r="453" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A453" s="13" t="s">
         <v>204</v>
       </c>
@@ -51410,7 +51379,7 @@
       </c>
       <c r="AA453" s="29"/>
     </row>
-    <row r="454" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A454" s="13" t="s">
         <v>204</v>
       </c>
@@ -51489,7 +51458,7 @@
       </c>
       <c r="AA454" s="29"/>
     </row>
-    <row r="455" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A455" s="13" t="s">
         <v>204</v>
       </c>
@@ -51568,7 +51537,7 @@
       </c>
       <c r="AA455" s="29"/>
     </row>
-    <row r="456" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A456" s="13" t="s">
         <v>204</v>
       </c>
@@ -51647,7 +51616,7 @@
       </c>
       <c r="AA456" s="29"/>
     </row>
-    <row r="457" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A457" s="13" t="s">
         <v>204</v>
       </c>
@@ -51726,7 +51695,7 @@
       </c>
       <c r="AA457" s="29"/>
     </row>
-    <row r="458" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A458" s="13" t="s">
         <v>204</v>
       </c>
@@ -51805,7 +51774,7 @@
       </c>
       <c r="AA458" s="29"/>
     </row>
-    <row r="459" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A459" s="13" t="s">
         <v>204</v>
       </c>
@@ -51884,7 +51853,7 @@
       </c>
       <c r="AA459" s="29"/>
     </row>
-    <row r="460" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A460" s="13" t="s">
         <v>204</v>
       </c>
@@ -51963,7 +51932,7 @@
       </c>
       <c r="AA460" s="29"/>
     </row>
-    <row r="461" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A461" s="13" t="s">
         <v>204</v>
       </c>
@@ -52042,7 +52011,7 @@
       </c>
       <c r="AA461" s="29"/>
     </row>
-    <row r="462" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A462" s="13" t="s">
         <v>204</v>
       </c>
@@ -52123,7 +52092,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="463" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A463" s="13" t="s">
         <v>204</v>
       </c>
@@ -52202,7 +52171,7 @@
       </c>
       <c r="AA463" s="29"/>
     </row>
-    <row r="464" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A464" s="13" t="s">
         <v>204</v>
       </c>
@@ -52283,7 +52252,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="465" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A465" s="13" t="s">
         <v>204</v>
       </c>
@@ -52362,7 +52331,7 @@
       </c>
       <c r="AA465" s="4"/>
     </row>
-    <row r="466" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A466" s="13" t="s">
         <v>204</v>
       </c>
@@ -52441,7 +52410,7 @@
       </c>
       <c r="AA466" s="4"/>
     </row>
-    <row r="467" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A467" s="13" t="s">
         <v>204</v>
       </c>
@@ -52520,7 +52489,7 @@
       </c>
       <c r="AA467" s="4"/>
     </row>
-    <row r="468" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A468" s="13" t="s">
         <v>204</v>
       </c>
@@ -52595,7 +52564,7 @@
       </c>
       <c r="AA468" s="4"/>
     </row>
-    <row r="469" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A469" s="13" t="s">
         <v>204</v>
       </c>
@@ -52674,7 +52643,7 @@
       </c>
       <c r="AA469" s="4"/>
     </row>
-    <row r="470" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A470" s="13" t="s">
         <v>204</v>
       </c>
@@ -52753,7 +52722,7 @@
       </c>
       <c r="AA470" s="4"/>
     </row>
-    <row r="471" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A471" s="13" t="s">
         <v>204</v>
       </c>
@@ -52832,7 +52801,7 @@
       </c>
       <c r="AA471" s="4"/>
     </row>
-    <row r="472" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A472" s="13" t="s">
         <v>204</v>
       </c>
@@ -52913,7 +52882,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="473" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A473" s="13" t="s">
         <v>204</v>
       </c>
@@ -52994,7 +52963,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="474" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A474" s="13" t="s">
         <v>204</v>
       </c>
@@ -53075,7 +53044,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="475" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A475" s="13" t="s">
         <v>204</v>
       </c>
@@ -53156,7 +53125,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="476" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A476" s="13" t="s">
         <v>204</v>
       </c>
@@ -53237,7 +53206,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="477" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A477" s="13" t="s">
         <v>204</v>
       </c>
@@ -53318,7 +53287,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="478" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A478" s="13" t="s">
         <v>204</v>
       </c>
@@ -53393,7 +53362,7 @@
       </c>
       <c r="AA478" s="4"/>
     </row>
-    <row r="479" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A479" s="13" t="s">
         <v>204</v>
       </c>
@@ -53468,7 +53437,7 @@
       </c>
       <c r="AA479" s="4"/>
     </row>
-    <row r="480" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A480" s="13" t="s">
         <v>204</v>
       </c>
@@ -53545,7 +53514,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="481" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A481" s="13" t="s">
         <v>204</v>
       </c>
@@ -53622,7 +53591,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="482" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A482" s="13" t="s">
         <v>204</v>
       </c>
@@ -53697,7 +53666,7 @@
       </c>
       <c r="AA482" s="4"/>
     </row>
-    <row r="483" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A483" s="13" t="s">
         <v>204</v>
       </c>
@@ -53772,7 +53741,7 @@
       </c>
       <c r="AA483" s="4"/>
     </row>
-    <row r="484" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A484" s="13" t="s">
         <v>204</v>
       </c>
@@ -53847,7 +53816,7 @@
       </c>
       <c r="AA484" s="4"/>
     </row>
-    <row r="485" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A485" s="13" t="s">
         <v>204</v>
       </c>
@@ -53922,7 +53891,7 @@
       </c>
       <c r="AA485" s="4"/>
     </row>
-    <row r="486" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A486" s="13" t="s">
         <v>204</v>
       </c>
@@ -53997,7 +53966,7 @@
       </c>
       <c r="AA486" s="4"/>
     </row>
-    <row r="487" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A487" s="13" t="s">
         <v>204</v>
       </c>
@@ -54072,7 +54041,7 @@
       </c>
       <c r="AA487" s="4"/>
     </row>
-    <row r="488" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A488" s="13" t="s">
         <v>204</v>
       </c>
@@ -54147,7 +54116,7 @@
       </c>
       <c r="AA488" s="4"/>
     </row>
-    <row r="489" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A489" s="13" t="s">
         <v>204</v>
       </c>
@@ -54222,7 +54191,7 @@
       </c>
       <c r="AA489" s="4"/>
     </row>
-    <row r="490" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A490" s="13" t="s">
         <v>204</v>
       </c>
@@ -54297,7 +54266,7 @@
       </c>
       <c r="AA490" s="4"/>
     </row>
-    <row r="491" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A491" s="13" t="s">
         <v>204</v>
       </c>
@@ -54372,7 +54341,7 @@
       </c>
       <c r="AA491" s="4"/>
     </row>
-    <row r="492" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A492" s="13" t="s">
         <v>204</v>
       </c>
@@ -54447,7 +54416,7 @@
       </c>
       <c r="AA492" s="4"/>
     </row>
-    <row r="493" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A493" s="13" t="s">
         <v>204</v>
       </c>
@@ -54522,7 +54491,7 @@
       </c>
       <c r="AA493" s="4"/>
     </row>
-    <row r="494" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A494" s="13" t="s">
         <v>204</v>
       </c>
@@ -54597,7 +54566,7 @@
       </c>
       <c r="AA494" s="4"/>
     </row>
-    <row r="495" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A495" s="13" t="s">
         <v>204</v>
       </c>
@@ -54672,7 +54641,7 @@
       </c>
       <c r="AA495" s="4"/>
     </row>
-    <row r="496" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A496" s="13" t="s">
         <v>204</v>
       </c>
@@ -54747,7 +54716,7 @@
       </c>
       <c r="AA496" s="4"/>
     </row>
-    <row r="497" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A497" s="13" t="s">
         <v>204</v>
       </c>
@@ -54822,7 +54791,7 @@
       </c>
       <c r="AA497" s="4"/>
     </row>
-    <row r="498" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A498" s="13" t="s">
         <v>204</v>
       </c>
@@ -54897,7 +54866,7 @@
       </c>
       <c r="AA498" s="4"/>
     </row>
-    <row r="499" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A499" s="13" t="s">
         <v>204</v>
       </c>
@@ -54972,7 +54941,7 @@
       </c>
       <c r="AA499" s="4"/>
     </row>
-    <row r="500" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A500" s="13" t="s">
         <v>204</v>
       </c>
@@ -55047,7 +55016,7 @@
       </c>
       <c r="AA500" s="4"/>
     </row>
-    <row r="501" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A501" s="13" t="s">
         <v>204</v>
       </c>
@@ -55122,7 +55091,7 @@
       </c>
       <c r="AA501" s="4"/>
     </row>
-    <row r="502" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A502" s="13" t="s">
         <v>204</v>
       </c>
@@ -55197,7 +55166,7 @@
       </c>
       <c r="AA502" s="4"/>
     </row>
-    <row r="503" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A503" s="13" t="s">
         <v>204</v>
       </c>
@@ -55272,7 +55241,7 @@
       </c>
       <c r="AA503" s="4"/>
     </row>
-    <row r="504" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A504" s="13" t="s">
         <v>204</v>
       </c>
@@ -55347,7 +55316,7 @@
       </c>
       <c r="AA504" s="4"/>
     </row>
-    <row r="505" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A505" s="13" t="s">
         <v>204</v>
       </c>
@@ -55422,7 +55391,7 @@
       </c>
       <c r="AA505" s="4"/>
     </row>
-    <row r="506" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A506" s="13" t="s">
         <v>204</v>
       </c>
@@ -55497,7 +55466,7 @@
       </c>
       <c r="AA506" s="4"/>
     </row>
-    <row r="507" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A507" s="13" t="s">
         <v>204</v>
       </c>
@@ -55572,7 +55541,7 @@
       </c>
       <c r="AA507" s="4"/>
     </row>
-    <row r="508" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A508" s="13" t="s">
         <v>204</v>
       </c>
@@ -55647,7 +55616,7 @@
       </c>
       <c r="AA508" s="4"/>
     </row>
-    <row r="509" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A509" s="13" t="s">
         <v>204</v>
       </c>
@@ -55722,7 +55691,7 @@
       </c>
       <c r="AA509" s="4"/>
     </row>
-    <row r="510" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A510" s="13" t="s">
         <v>204</v>
       </c>
@@ -55797,7 +55766,7 @@
       </c>
       <c r="AA510" s="4"/>
     </row>
-    <row r="511" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A511" s="13" t="s">
         <v>204</v>
       </c>
@@ -55872,7 +55841,7 @@
       </c>
       <c r="AA511" s="4"/>
     </row>
-    <row r="512" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A512" s="13" t="s">
         <v>204</v>
       </c>
@@ -55947,7 +55916,7 @@
       </c>
       <c r="AA512" s="4"/>
     </row>
-    <row r="513" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A513" s="13" t="s">
         <v>204</v>
       </c>
@@ -56022,7 +55991,7 @@
       </c>
       <c r="AA513" s="4"/>
     </row>
-    <row r="514" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A514" s="13" t="s">
         <v>204</v>
       </c>
@@ -56097,7 +56066,7 @@
       </c>
       <c r="AA514" s="4"/>
     </row>
-    <row r="515" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A515" s="13" t="s">
         <v>204</v>
       </c>
@@ -56172,7 +56141,7 @@
       </c>
       <c r="AA515" s="4"/>
     </row>
-    <row r="516" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A516" s="13" t="s">
         <v>204</v>
       </c>
@@ -56247,7 +56216,7 @@
       </c>
       <c r="AA516" s="4"/>
     </row>
-    <row r="517" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A517" s="13" t="s">
         <v>204</v>
       </c>
@@ -56322,7 +56291,7 @@
       </c>
       <c r="AA517" s="4"/>
     </row>
-    <row r="518" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A518" s="13" t="s">
         <v>204</v>
       </c>
@@ -56397,7 +56366,7 @@
       </c>
       <c r="AA518" s="4"/>
     </row>
-    <row r="519" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A519" s="13" t="s">
         <v>204</v>
       </c>
@@ -56472,7 +56441,7 @@
       </c>
       <c r="AA519" s="4"/>
     </row>
-    <row r="520" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A520" s="13" t="s">
         <v>204</v>
       </c>
@@ -56547,7 +56516,7 @@
       </c>
       <c r="AA520" s="4"/>
     </row>
-    <row r="521" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A521" s="13" t="s">
         <v>204</v>
       </c>
@@ -56622,7 +56591,7 @@
       </c>
       <c r="AA521" s="4"/>
     </row>
-    <row r="522" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A522" s="13" t="s">
         <v>204</v>
       </c>
@@ -56697,7 +56666,7 @@
       </c>
       <c r="AA522" s="4"/>
     </row>
-    <row r="523" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A523" s="13" t="s">
         <v>204</v>
       </c>
@@ -56772,7 +56741,7 @@
       </c>
       <c r="AA523" s="4"/>
     </row>
-    <row r="524" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A524" s="13" t="s">
         <v>204</v>
       </c>
@@ -56847,7 +56816,7 @@
       </c>
       <c r="AA524" s="4"/>
     </row>
-    <row r="525" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A525" s="13" t="s">
         <v>204</v>
       </c>
@@ -56922,7 +56891,7 @@
       </c>
       <c r="AA525" s="4"/>
     </row>
-    <row r="526" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A526" s="13" t="s">
         <v>204</v>
       </c>
@@ -56997,7 +56966,7 @@
       </c>
       <c r="AA526" s="4"/>
     </row>
-    <row r="527" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A527" s="13" t="s">
         <v>204</v>
       </c>
@@ -57072,7 +57041,7 @@
       </c>
       <c r="AA527" s="4"/>
     </row>
-    <row r="528" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A528" s="13" t="s">
         <v>204</v>
       </c>
@@ -57147,7 +57116,7 @@
       </c>
       <c r="AA528" s="4"/>
     </row>
-    <row r="529" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A529" s="13" t="s">
         <v>204</v>
       </c>
@@ -57222,7 +57191,7 @@
       </c>
       <c r="AA529" s="4"/>
     </row>
-    <row r="530" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A530" s="13" t="s">
         <v>204</v>
       </c>
@@ -57297,7 +57266,7 @@
       </c>
       <c r="AA530" s="4"/>
     </row>
-    <row r="531" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A531" s="13" t="s">
         <v>204</v>
       </c>
@@ -57372,7 +57341,7 @@
       </c>
       <c r="AA531" s="4"/>
     </row>
-    <row r="532" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A532" s="13" t="s">
         <v>204</v>
       </c>
@@ -57447,7 +57416,7 @@
       </c>
       <c r="AA532" s="4"/>
     </row>
-    <row r="533" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A533" s="13" t="s">
         <v>204</v>
       </c>
@@ -57522,7 +57491,7 @@
       </c>
       <c r="AA533" s="4"/>
     </row>
-    <row r="534" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A534" s="13" t="s">
         <v>204</v>
       </c>
@@ -57597,7 +57566,7 @@
       </c>
       <c r="AA534" s="4"/>
     </row>
-    <row r="535" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A535" s="13" t="s">
         <v>204</v>
       </c>
@@ -57672,7 +57641,7 @@
       </c>
       <c r="AA535" s="4"/>
     </row>
-    <row r="536" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A536" s="13" t="s">
         <v>204</v>
       </c>
@@ -57747,7 +57716,7 @@
       </c>
       <c r="AA536" s="4"/>
     </row>
-    <row r="537" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A537" s="13" t="s">
         <v>204</v>
       </c>
@@ -57822,7 +57791,7 @@
       </c>
       <c r="AA537" s="4"/>
     </row>
-    <row r="538" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A538" s="13" t="s">
         <v>204</v>
       </c>
@@ -57897,7 +57866,7 @@
       </c>
       <c r="AA538" s="4"/>
     </row>
-    <row r="539" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A539" s="13" t="s">
         <v>204</v>
       </c>
@@ -57972,7 +57941,7 @@
       </c>
       <c r="AA539" s="4"/>
     </row>
-    <row r="540" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A540" s="13" t="s">
         <v>204</v>
       </c>
@@ -58047,7 +58016,7 @@
       </c>
       <c r="AA540" s="4"/>
     </row>
-    <row r="541" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A541" s="13" t="s">
         <v>204</v>
       </c>
@@ -58122,7 +58091,7 @@
       </c>
       <c r="AA541" s="4"/>
     </row>
-    <row r="542" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A542" s="13" t="s">
         <v>204</v>
       </c>
@@ -58197,7 +58166,7 @@
       </c>
       <c r="AA542" s="4"/>
     </row>
-    <row r="543" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A543" s="13" t="s">
         <v>204</v>
       </c>
@@ -58272,7 +58241,7 @@
       </c>
       <c r="AA543" s="4"/>
     </row>
-    <row r="544" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A544" s="13" t="s">
         <v>204</v>
       </c>
@@ -58347,7 +58316,7 @@
       </c>
       <c r="AA544" s="4"/>
     </row>
-    <row r="545" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A545" s="13" t="s">
         <v>204</v>
       </c>
@@ -58422,7 +58391,7 @@
       </c>
       <c r="AA545" s="4"/>
     </row>
-    <row r="546" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A546" s="13" t="s">
         <v>204</v>
       </c>
@@ -58495,7 +58464,7 @@
       </c>
       <c r="AA546" s="4"/>
     </row>
-    <row r="547" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A547" s="13" t="s">
         <v>204</v>
       </c>
@@ -58570,7 +58539,7 @@
       </c>
       <c r="AA547" s="4"/>
     </row>
-    <row r="548" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A548" s="13" t="s">
         <v>204</v>
       </c>
@@ -58645,7 +58614,7 @@
       </c>
       <c r="AA548" s="4"/>
     </row>
-    <row r="549" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A549" s="13" t="s">
         <v>204</v>
       </c>
@@ -58720,7 +58689,7 @@
       </c>
       <c r="AA549" s="4"/>
     </row>
-    <row r="550" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A550" s="13" t="s">
         <v>204</v>
       </c>
@@ -58795,7 +58764,7 @@
       </c>
       <c r="AA550" s="4"/>
     </row>
-    <row r="551" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A551" s="13" t="s">
         <v>204</v>
       </c>
@@ -58870,7 +58839,7 @@
       </c>
       <c r="AA551" s="4"/>
     </row>
-    <row r="552" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A552" s="13" t="s">
         <v>204</v>
       </c>
@@ -58945,7 +58914,7 @@
       </c>
       <c r="AA552" s="4"/>
     </row>
-    <row r="553" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A553" s="13" t="s">
         <v>204</v>
       </c>
@@ -59020,7 +58989,7 @@
       </c>
       <c r="AA553" s="4"/>
     </row>
-    <row r="554" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A554" s="13" t="s">
         <v>204</v>
       </c>
@@ -59095,7 +59064,7 @@
       </c>
       <c r="AA554" s="4"/>
     </row>
-    <row r="555" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A555" s="13" t="s">
         <v>204</v>
       </c>
@@ -59170,7 +59139,7 @@
       </c>
       <c r="AA555" s="4"/>
     </row>
-    <row r="556" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A556" s="13" t="s">
         <v>204</v>
       </c>
@@ -59245,7 +59214,7 @@
       </c>
       <c r="AA556" s="4"/>
     </row>
-    <row r="557" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A557" s="13" t="s">
         <v>204</v>
       </c>
@@ -59320,7 +59289,7 @@
       </c>
       <c r="AA557" s="4"/>
     </row>
-    <row r="558" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A558" s="13" t="s">
         <v>204</v>
       </c>
@@ -59395,7 +59364,7 @@
       </c>
       <c r="AA558" s="4"/>
     </row>
-    <row r="559" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A559" s="13" t="s">
         <v>204</v>
       </c>
@@ -59470,7 +59439,7 @@
       </c>
       <c r="AA559" s="4"/>
     </row>
-    <row r="560" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A560" s="13" t="s">
         <v>204</v>
       </c>
@@ -59545,7 +59514,7 @@
       </c>
       <c r="AA560" s="4"/>
     </row>
-    <row r="561" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A561" s="13" t="s">
         <v>204</v>
       </c>
@@ -59620,7 +59589,7 @@
       </c>
       <c r="AA561" s="4"/>
     </row>
-    <row r="562" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A562" s="13" t="s">
         <v>204</v>
       </c>
@@ -59695,7 +59664,7 @@
       </c>
       <c r="AA562" s="4"/>
     </row>
-    <row r="563" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A563" s="13" t="s">
         <v>204</v>
       </c>
@@ -59770,7 +59739,7 @@
       </c>
       <c r="AA563" s="4"/>
     </row>
-    <row r="564" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A564" s="13" t="s">
         <v>204</v>
       </c>
@@ -59845,7 +59814,7 @@
       </c>
       <c r="AA564" s="4"/>
     </row>
-    <row r="565" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A565" s="13" t="s">
         <v>204</v>
       </c>
@@ -59920,7 +59889,7 @@
       </c>
       <c r="AA565" s="4"/>
     </row>
-    <row r="566" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A566" s="13" t="s">
         <v>204</v>
       </c>
@@ -59995,7 +59964,7 @@
       </c>
       <c r="AA566" s="4"/>
     </row>
-    <row r="567" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A567" s="13" t="s">
         <v>204</v>
       </c>
@@ -60070,7 +60039,7 @@
       </c>
       <c r="AA567" s="4"/>
     </row>
-    <row r="568" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A568" s="13" t="s">
         <v>204</v>
       </c>
@@ -60145,7 +60114,7 @@
       </c>
       <c r="AA568" s="4"/>
     </row>
-    <row r="569" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A569" s="13" t="s">
         <v>204</v>
       </c>
@@ -60220,7 +60189,7 @@
       </c>
       <c r="AA569" s="4"/>
     </row>
-    <row r="570" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A570" s="13" t="s">
         <v>204</v>
       </c>
@@ -60295,7 +60264,7 @@
       </c>
       <c r="AA570" s="4"/>
     </row>
-    <row r="571" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A571" s="13" t="s">
         <v>204</v>
       </c>
@@ -60370,7 +60339,7 @@
       </c>
       <c r="AA571" s="4"/>
     </row>
-    <row r="572" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A572" s="13" t="s">
         <v>204</v>
       </c>
@@ -60445,7 +60414,7 @@
       </c>
       <c r="AA572" s="4"/>
     </row>
-    <row r="573" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A573" s="13" t="s">
         <v>204</v>
       </c>
@@ -60520,7 +60489,7 @@
       </c>
       <c r="AA573" s="4"/>
     </row>
-    <row r="574" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A574" s="13" t="s">
         <v>204</v>
       </c>
@@ -60595,7 +60564,7 @@
       </c>
       <c r="AA574" s="4"/>
     </row>
-    <row r="575" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A575" s="13" t="s">
         <v>204</v>
       </c>
@@ -60670,7 +60639,7 @@
       </c>
       <c r="AA575" s="4"/>
     </row>
-    <row r="576" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A576" s="13" t="s">
         <v>204</v>
       </c>
@@ -60745,7 +60714,7 @@
       </c>
       <c r="AA576" s="4"/>
     </row>
-    <row r="577" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A577" s="13" t="s">
         <v>204</v>
       </c>
@@ -60820,7 +60789,7 @@
       </c>
       <c r="AA577" s="4"/>
     </row>
-    <row r="578" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A578" s="13" t="s">
         <v>204</v>
       </c>
@@ -60895,7 +60864,7 @@
       </c>
       <c r="AA578" s="4"/>
     </row>
-    <row r="579" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A579" s="13" t="s">
         <v>204</v>
       </c>
@@ -60970,7 +60939,7 @@
       </c>
       <c r="AA579" s="4"/>
     </row>
-    <row r="580" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A580" s="13" t="s">
         <v>204</v>
       </c>
@@ -61045,7 +61014,7 @@
       </c>
       <c r="AA580" s="4"/>
     </row>
-    <row r="581" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A581" s="13" t="s">
         <v>204</v>
       </c>
@@ -61120,7 +61089,7 @@
       </c>
       <c r="AA581" s="4"/>
     </row>
-    <row r="582" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A582" s="13" t="s">
         <v>204</v>
       </c>
@@ -61195,7 +61164,7 @@
       </c>
       <c r="AA582" s="4"/>
     </row>
-    <row r="583" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A583" s="13" t="s">
         <v>204</v>
       </c>
@@ -61270,7 +61239,7 @@
       </c>
       <c r="AA583" s="4"/>
     </row>
-    <row r="584" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A584" s="13" t="s">
         <v>204</v>
       </c>
@@ -61345,7 +61314,7 @@
       </c>
       <c r="AA584" s="4"/>
     </row>
-    <row r="585" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A585" s="13" t="s">
         <v>204</v>
       </c>
@@ -61420,7 +61389,7 @@
       </c>
       <c r="AA585" s="4"/>
     </row>
-    <row r="586" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A586" s="13" t="s">
         <v>204</v>
       </c>
@@ -61495,7 +61464,7 @@
       </c>
       <c r="AA586" s="4"/>
     </row>
-    <row r="587" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A587" s="13" t="s">
         <v>204</v>
       </c>
@@ -61570,7 +61539,7 @@
       </c>
       <c r="AA587" s="4"/>
     </row>
-    <row r="588" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A588" s="13" t="s">
         <v>204</v>
       </c>
@@ -61645,7 +61614,7 @@
       </c>
       <c r="AA588" s="4"/>
     </row>
-    <row r="589" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A589" s="13" t="s">
         <v>204</v>
       </c>
@@ -61720,7 +61689,7 @@
       </c>
       <c r="AA589" s="4"/>
     </row>
-    <row r="590" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A590" s="13" t="s">
         <v>204</v>
       </c>
@@ -61795,7 +61764,7 @@
       </c>
       <c r="AA590" s="4"/>
     </row>
-    <row r="591" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A591" s="13" t="s">
         <v>204</v>
       </c>
@@ -61870,7 +61839,7 @@
       </c>
       <c r="AA591" s="4"/>
     </row>
-    <row r="592" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A592" s="13" t="s">
         <v>204</v>
       </c>
@@ -61945,7 +61914,7 @@
       </c>
       <c r="AA592" s="4"/>
     </row>
-    <row r="593" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A593" s="13" t="s">
         <v>204</v>
       </c>
@@ -62020,7 +61989,7 @@
       </c>
       <c r="AA593" s="4"/>
     </row>
-    <row r="594" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A594" s="13" t="s">
         <v>204</v>
       </c>
@@ -62095,7 +62064,7 @@
       </c>
       <c r="AA594" s="4"/>
     </row>
-    <row r="595" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A595" s="13" t="s">
         <v>204</v>
       </c>
@@ -62170,7 +62139,7 @@
       </c>
       <c r="AA595" s="4"/>
     </row>
-    <row r="596" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A596" s="13" t="s">
         <v>204</v>
       </c>
@@ -62245,7 +62214,7 @@
       </c>
       <c r="AA596" s="4"/>
     </row>
-    <row r="597" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A597" s="13" t="s">
         <v>204</v>
       </c>
@@ -62320,7 +62289,7 @@
       </c>
       <c r="AA597" s="4"/>
     </row>
-    <row r="598" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A598" s="13" t="s">
         <v>204</v>
       </c>
@@ -62395,7 +62364,7 @@
       </c>
       <c r="AA598" s="4"/>
     </row>
-    <row r="599" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A599" s="13" t="s">
         <v>204</v>
       </c>
@@ -62470,7 +62439,7 @@
       </c>
       <c r="AA599" s="4"/>
     </row>
-    <row r="600" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A600" s="13" t="s">
         <v>204</v>
       </c>
@@ -62545,7 +62514,7 @@
       </c>
       <c r="AA600" s="4"/>
     </row>
-    <row r="601" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A601" s="13" t="s">
         <v>204</v>
       </c>
@@ -62620,7 +62589,7 @@
       </c>
       <c r="AA601" s="4"/>
     </row>
-    <row r="602" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A602" s="13" t="s">
         <v>204</v>
       </c>
@@ -62695,7 +62664,7 @@
       </c>
       <c r="AA602" s="4"/>
     </row>
-    <row r="603" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A603" s="13" t="s">
         <v>204</v>
       </c>
@@ -62770,7 +62739,7 @@
       </c>
       <c r="AA603" s="4"/>
     </row>
-    <row r="604" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A604" s="13" t="s">
         <v>204</v>
       </c>
@@ -62845,7 +62814,7 @@
       </c>
       <c r="AA604" s="4"/>
     </row>
-    <row r="605" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A605" s="13" t="s">
         <v>204</v>
       </c>
@@ -62920,7 +62889,7 @@
       </c>
       <c r="AA605" s="4"/>
     </row>
-    <row r="606" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A606" s="13" t="s">
         <v>204</v>
       </c>
@@ -62995,7 +62964,7 @@
       </c>
       <c r="AA606" s="4"/>
     </row>
-    <row r="607" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A607" s="13" t="s">
         <v>204</v>
       </c>
@@ -63070,7 +63039,7 @@
       </c>
       <c r="AA607" s="4"/>
     </row>
-    <row r="608" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A608" s="13" t="s">
         <v>204</v>
       </c>
@@ -63145,7 +63114,7 @@
       </c>
       <c r="AA608" s="4"/>
     </row>
-    <row r="609" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A609" s="13" t="s">
         <v>204</v>
       </c>
@@ -63220,7 +63189,7 @@
       </c>
       <c r="AA609" s="4"/>
     </row>
-    <row r="610" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A610" s="13" t="s">
         <v>204</v>
       </c>
@@ -63295,7 +63264,7 @@
       </c>
       <c r="AA610" s="4"/>
     </row>
-    <row r="611" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A611" s="13" t="s">
         <v>204</v>
       </c>
@@ -63370,7 +63339,7 @@
       </c>
       <c r="AA611" s="4"/>
     </row>
-    <row r="612" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A612" s="13" t="s">
         <v>204</v>
       </c>
@@ -63445,7 +63414,7 @@
       </c>
       <c r="AA612" s="4"/>
     </row>
-    <row r="613" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A613" s="13" t="s">
         <v>204</v>
       </c>
@@ -63520,7 +63489,7 @@
       </c>
       <c r="AA613" s="4"/>
     </row>
-    <row r="614" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A614" s="13" t="s">
         <v>204</v>
       </c>
@@ -63595,7 +63564,7 @@
       </c>
       <c r="AA614" s="4"/>
     </row>
-    <row r="615" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A615" s="13" t="s">
         <v>204</v>
       </c>
@@ -63670,7 +63639,7 @@
       </c>
       <c r="AA615" s="4"/>
     </row>
-    <row r="616" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A616" s="13" t="s">
         <v>204</v>
       </c>
@@ -63745,7 +63714,7 @@
       </c>
       <c r="AA616" s="4"/>
     </row>
-    <row r="617" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A617" s="13" t="s">
         <v>204</v>
       </c>
@@ -63820,7 +63789,7 @@
       </c>
       <c r="AA617" s="4"/>
     </row>
-    <row r="618" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A618" s="13" t="s">
         <v>204</v>
       </c>
@@ -63895,7 +63864,7 @@
       </c>
       <c r="AA618" s="4"/>
     </row>
-    <row r="619" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A619" s="13" t="s">
         <v>204</v>
       </c>
@@ -63970,7 +63939,7 @@
       </c>
       <c r="AA619" s="4"/>
     </row>
-    <row r="620" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A620" s="13" t="s">
         <v>204</v>
       </c>
@@ -64045,7 +64014,7 @@
       </c>
       <c r="AA620" s="4"/>
     </row>
-    <row r="621" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A621" s="13" t="s">
         <v>204</v>
       </c>
@@ -64120,7 +64089,7 @@
       </c>
       <c r="AA621" s="4"/>
     </row>
-    <row r="622" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A622" s="13" t="s">
         <v>204</v>
       </c>
@@ -64195,7 +64164,7 @@
       </c>
       <c r="AA622" s="4"/>
     </row>
-    <row r="623" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A623" s="13" t="s">
         <v>204</v>
       </c>
@@ -64270,7 +64239,7 @@
       </c>
       <c r="AA623" s="4"/>
     </row>
-    <row r="624" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A624" s="13" t="s">
         <v>204</v>
       </c>
@@ -64345,7 +64314,7 @@
       </c>
       <c r="AA624" s="4"/>
     </row>
-    <row r="625" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A625" s="13" t="s">
         <v>204</v>
       </c>
@@ -64420,7 +64389,7 @@
       </c>
       <c r="AA625" s="4"/>
     </row>
-    <row r="626" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A626" s="13" t="s">
         <v>204</v>
       </c>
@@ -64495,7 +64464,7 @@
       </c>
       <c r="AA626" s="4"/>
     </row>
-    <row r="627" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A627" s="13" t="s">
         <v>204</v>
       </c>
@@ -64570,7 +64539,7 @@
       </c>
       <c r="AA627" s="4"/>
     </row>
-    <row r="628" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A628" s="13" t="s">
         <v>204</v>
       </c>
@@ -64645,7 +64614,7 @@
       </c>
       <c r="AA628" s="4"/>
     </row>
-    <row r="629" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A629" s="13" t="s">
         <v>204</v>
       </c>
@@ -64720,7 +64689,7 @@
       </c>
       <c r="AA629" s="4"/>
     </row>
-    <row r="630" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A630" s="13" t="s">
         <v>204</v>
       </c>
@@ -64795,7 +64764,7 @@
       </c>
       <c r="AA630" s="4"/>
     </row>
-    <row r="631" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A631" s="13" t="s">
         <v>204</v>
       </c>
@@ -64870,7 +64839,7 @@
       </c>
       <c r="AA631" s="4"/>
     </row>
-    <row r="632" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A632" s="13" t="s">
         <v>204</v>
       </c>
@@ -64945,7 +64914,7 @@
       </c>
       <c r="AA632" s="4"/>
     </row>
-    <row r="633" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A633" s="13" t="s">
         <v>204</v>
       </c>
@@ -65020,7 +64989,7 @@
       </c>
       <c r="AA633" s="4"/>
     </row>
-    <row r="634" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A634" s="13" t="s">
         <v>204</v>
       </c>
@@ -65095,7 +65064,7 @@
       </c>
       <c r="AA634" s="4"/>
     </row>
-    <row r="635" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A635" s="13" t="s">
         <v>204</v>
       </c>
@@ -65170,7 +65139,7 @@
       </c>
       <c r="AA635" s="4"/>
     </row>
-    <row r="636" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A636" s="13" t="s">
         <v>204</v>
       </c>
@@ -65245,7 +65214,7 @@
       </c>
       <c r="AA636" s="4"/>
     </row>
-    <row r="637" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A637" s="13" t="s">
         <v>204</v>
       </c>
@@ -65320,7 +65289,7 @@
       </c>
       <c r="AA637" s="4"/>
     </row>
-    <row r="638" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A638" s="13" t="s">
         <v>204</v>
       </c>
@@ -65395,7 +65364,7 @@
       </c>
       <c r="AA638" s="4"/>
     </row>
-    <row r="639" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A639" s="13" t="s">
         <v>204</v>
       </c>
@@ -65470,7 +65439,7 @@
       </c>
       <c r="AA639" s="4"/>
     </row>
-    <row r="640" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A640" s="13" t="s">
         <v>204</v>
       </c>
@@ -65545,7 +65514,7 @@
       </c>
       <c r="AA640" s="4"/>
     </row>
-    <row r="641" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A641" s="13" t="s">
         <v>204</v>
       </c>
@@ -65620,7 +65589,7 @@
       </c>
       <c r="AA641" s="4"/>
     </row>
-    <row r="642" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A642" s="13" t="s">
         <v>204</v>
       </c>
@@ -65695,7 +65664,7 @@
       </c>
       <c r="AA642" s="4"/>
     </row>
-    <row r="643" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A643" s="13" t="s">
         <v>204</v>
       </c>
@@ -65770,7 +65739,7 @@
       </c>
       <c r="AA643" s="4"/>
     </row>
-    <row r="644" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A644" s="13" t="s">
         <v>204</v>
       </c>
@@ -65845,7 +65814,7 @@
       </c>
       <c r="AA644" s="4"/>
     </row>
-    <row r="645" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A645" s="13" t="s">
         <v>204</v>
       </c>
@@ -65920,7 +65889,7 @@
       </c>
       <c r="AA645" s="4"/>
     </row>
-    <row r="646" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A646" s="13" t="s">
         <v>204</v>
       </c>
@@ -65995,7 +65964,7 @@
       </c>
       <c r="AA646" s="4"/>
     </row>
-    <row r="647" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A647" s="13" t="s">
         <v>204</v>
       </c>
@@ -66070,7 +66039,7 @@
       </c>
       <c r="AA647" s="4"/>
     </row>
-    <row r="648" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A648" s="13" t="s">
         <v>204</v>
       </c>
@@ -66145,7 +66114,7 @@
       </c>
       <c r="AA648" s="4"/>
     </row>
-    <row r="649" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A649" s="13" t="s">
         <v>204</v>
       </c>
@@ -66220,7 +66189,7 @@
       </c>
       <c r="AA649" s="4"/>
     </row>
-    <row r="650" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A650" s="13" t="s">
         <v>204</v>
       </c>
@@ -66295,7 +66264,7 @@
       </c>
       <c r="AA650" s="4"/>
     </row>
-    <row r="651" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A651" s="13" t="s">
         <v>204</v>
       </c>
@@ -66370,7 +66339,7 @@
       </c>
       <c r="AA651" s="4"/>
     </row>
-    <row r="652" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A652" s="13" t="s">
         <v>204</v>
       </c>
@@ -66445,7 +66414,7 @@
       </c>
       <c r="AA652" s="4"/>
     </row>
-    <row r="653" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A653" s="13" t="s">
         <v>204</v>
       </c>
@@ -66520,7 +66489,7 @@
       </c>
       <c r="AA653" s="4"/>
     </row>
-    <row r="654" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A654" s="13" t="s">
         <v>204</v>
       </c>
@@ -66595,7 +66564,7 @@
       </c>
       <c r="AA654" s="4"/>
     </row>
-    <row r="655" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A655" s="13" t="s">
         <v>204</v>
       </c>
@@ -66670,7 +66639,7 @@
       </c>
       <c r="AA655" s="4"/>
     </row>
-    <row r="656" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A656" s="13" t="s">
         <v>204</v>
       </c>
@@ -66745,7 +66714,7 @@
       </c>
       <c r="AA656" s="4"/>
     </row>
-    <row r="657" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A657" s="13" t="s">
         <v>204</v>
       </c>
@@ -66820,7 +66789,7 @@
       </c>
       <c r="AA657" s="4"/>
     </row>
-    <row r="658" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A658" s="13" t="s">
         <v>204</v>
       </c>
@@ -66895,7 +66864,7 @@
       </c>
       <c r="AA658" s="4"/>
     </row>
-    <row r="659" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A659" s="13" t="s">
         <v>204</v>
       </c>
@@ -66970,7 +66939,7 @@
       </c>
       <c r="AA659" s="4"/>
     </row>
-    <row r="660" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A660" s="13" t="s">
         <v>204</v>
       </c>
@@ -67045,7 +67014,7 @@
       </c>
       <c r="AA660" s="4"/>
     </row>
-    <row r="661" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A661" s="13" t="s">
         <v>204</v>
       </c>
@@ -67120,7 +67089,7 @@
       </c>
       <c r="AA661" s="4"/>
     </row>
-    <row r="662" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A662" s="13" t="s">
         <v>204</v>
       </c>
@@ -67195,7 +67164,7 @@
       </c>
       <c r="AA662" s="4"/>
     </row>
-    <row r="663" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A663" s="13" t="s">
         <v>204</v>
       </c>
@@ -67270,7 +67239,7 @@
       </c>
       <c r="AA663" s="4"/>
     </row>
-    <row r="664" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A664" s="13" t="s">
         <v>204</v>
       </c>
@@ -67345,7 +67314,7 @@
       </c>
       <c r="AA664" s="4"/>
     </row>
-    <row r="665" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A665" s="13" t="s">
         <v>204</v>
       </c>
@@ -67420,7 +67389,7 @@
       </c>
       <c r="AA665" s="4"/>
     </row>
-    <row r="666" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A666" s="13" t="s">
         <v>204</v>
       </c>
@@ -67495,7 +67464,7 @@
       </c>
       <c r="AA666" s="4"/>
     </row>
-    <row r="667" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A667" s="13" t="s">
         <v>204</v>
       </c>
@@ -67570,7 +67539,7 @@
       </c>
       <c r="AA667" s="4"/>
     </row>
-    <row r="668" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A668" s="13" t="s">
         <v>204</v>
       </c>
@@ -67645,7 +67614,7 @@
       </c>
       <c r="AA668" s="4"/>
     </row>
-    <row r="669" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A669" s="13" t="s">
         <v>204</v>
       </c>
@@ -67720,7 +67689,7 @@
       </c>
       <c r="AA669" s="4"/>
     </row>
-    <row r="670" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A670" s="13" t="s">
         <v>204</v>
       </c>
@@ -67795,7 +67764,7 @@
       </c>
       <c r="AA670" s="4"/>
     </row>
-    <row r="671" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A671" s="13" t="s">
         <v>204</v>
       </c>
@@ -67870,7 +67839,7 @@
       </c>
       <c r="AA671" s="4"/>
     </row>
-    <row r="672" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A672" s="13" t="s">
         <v>204</v>
       </c>
@@ -67945,7 +67914,7 @@
       </c>
       <c r="AA672" s="4"/>
     </row>
-    <row r="673" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A673" s="13" t="s">
         <v>204</v>
       </c>
@@ -68020,7 +67989,7 @@
       </c>
       <c r="AA673" s="4"/>
     </row>
-    <row r="674" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A674" s="13" t="s">
         <v>204</v>
       </c>
@@ -68095,7 +68064,7 @@
       </c>
       <c r="AA674" s="4"/>
     </row>
-    <row r="675" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A675" s="13" t="s">
         <v>204</v>
       </c>
@@ -68170,7 +68139,7 @@
       </c>
       <c r="AA675" s="4"/>
     </row>
-    <row r="676" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A676" s="13" t="s">
         <v>204</v>
       </c>
@@ -68245,7 +68214,7 @@
       </c>
       <c r="AA676" s="4"/>
     </row>
-    <row r="677" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A677" s="13" t="s">
         <v>204</v>
       </c>
@@ -68320,7 +68289,7 @@
       </c>
       <c r="AA677" s="4"/>
     </row>
-    <row r="678" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A678" s="13" t="s">
         <v>204</v>
       </c>
@@ -68395,7 +68364,7 @@
       </c>
       <c r="AA678" s="4"/>
     </row>
-    <row r="679" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A679" s="13" t="s">
         <v>204</v>
       </c>
@@ -68470,7 +68439,7 @@
       </c>
       <c r="AA679" s="4"/>
     </row>
-    <row r="680" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A680" s="13" t="s">
         <v>204</v>
       </c>
@@ -68545,7 +68514,7 @@
       </c>
       <c r="AA680" s="4"/>
     </row>
-    <row r="681" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A681" s="13" t="s">
         <v>204</v>
       </c>
@@ -68620,7 +68589,7 @@
       </c>
       <c r="AA681" s="4"/>
     </row>
-    <row r="682" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A682" s="13" t="s">
         <v>204</v>
       </c>
@@ -68695,7 +68664,7 @@
       </c>
       <c r="AA682" s="4"/>
     </row>
-    <row r="683" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A683" s="13" t="s">
         <v>204</v>
       </c>
@@ -68770,7 +68739,7 @@
       </c>
       <c r="AA683" s="4"/>
     </row>
-    <row r="684" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A684" s="13" t="s">
         <v>204</v>
       </c>
@@ -68845,7 +68814,7 @@
       </c>
       <c r="AA684" s="4"/>
     </row>
-    <row r="685" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A685" s="13" t="s">
         <v>204</v>
       </c>
@@ -68920,7 +68889,7 @@
       </c>
       <c r="AA685" s="4"/>
     </row>
-    <row r="686" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A686" s="13" t="s">
         <v>204</v>
       </c>
@@ -68995,7 +68964,7 @@
       </c>
       <c r="AA686" s="4"/>
     </row>
-    <row r="687" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A687" s="13" t="s">
         <v>204</v>
       </c>
@@ -69070,7 +69039,7 @@
       </c>
       <c r="AA687" s="4"/>
     </row>
-    <row r="688" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A688" s="13" t="s">
         <v>204</v>
       </c>
@@ -69145,7 +69114,7 @@
       </c>
       <c r="AA688" s="4"/>
     </row>
-    <row r="689" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A689" s="13" t="s">
         <v>204</v>
       </c>
@@ -69220,7 +69189,7 @@
       </c>
       <c r="AA689" s="4"/>
     </row>
-    <row r="690" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A690" s="13" t="s">
         <v>204</v>
       </c>
@@ -69295,7 +69264,7 @@
       </c>
       <c r="AA690" s="4"/>
     </row>
-    <row r="691" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A691" s="13" t="s">
         <v>204</v>
       </c>
@@ -69370,7 +69339,7 @@
       </c>
       <c r="AA691" s="4"/>
     </row>
-    <row r="692" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A692" s="13" t="s">
         <v>204</v>
       </c>
@@ -69445,7 +69414,7 @@
       </c>
       <c r="AA692" s="4"/>
     </row>
-    <row r="693" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A693" s="13" t="s">
         <v>204</v>
       </c>
@@ -69520,7 +69489,7 @@
       </c>
       <c r="AA693" s="4"/>
     </row>
-    <row r="694" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A694" s="13" t="s">
         <v>204</v>
       </c>
@@ -69595,7 +69564,7 @@
       </c>
       <c r="AA694" s="4"/>
     </row>
-    <row r="695" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A695" s="13" t="s">
         <v>204</v>
       </c>
@@ -69670,7 +69639,7 @@
       </c>
       <c r="AA695" s="4"/>
     </row>
-    <row r="696" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A696" s="13" t="s">
         <v>204</v>
       </c>
@@ -69745,7 +69714,7 @@
       </c>
       <c r="AA696" s="4"/>
     </row>
-    <row r="697" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A697" s="13" t="s">
         <v>204</v>
       </c>
@@ -69820,7 +69789,7 @@
       </c>
       <c r="AA697" s="4"/>
     </row>
-    <row r="698" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A698" s="13" t="s">
         <v>204</v>
       </c>
@@ -69895,7 +69864,7 @@
       </c>
       <c r="AA698" s="4"/>
     </row>
-    <row r="699" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A699" s="13" t="s">
         <v>204</v>
       </c>
@@ -69970,7 +69939,7 @@
       </c>
       <c r="AA699" s="4"/>
     </row>
-    <row r="700" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A700" s="13" t="s">
         <v>204</v>
       </c>
@@ -70045,7 +70014,7 @@
       </c>
       <c r="AA700" s="4"/>
     </row>
-    <row r="701" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A701" s="13" t="s">
         <v>204</v>
       </c>
@@ -70120,7 +70089,7 @@
       </c>
       <c r="AA701" s="4"/>
     </row>
-    <row r="702" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A702" s="13" t="s">
         <v>204</v>
       </c>
@@ -70195,7 +70164,7 @@
       </c>
       <c r="AA702" s="4"/>
     </row>
-    <row r="703" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A703" s="13" t="s">
         <v>204</v>
       </c>
@@ -70270,7 +70239,7 @@
       </c>
       <c r="AA703" s="4"/>
     </row>
-    <row r="704" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A704" s="13" t="s">
         <v>204</v>
       </c>
@@ -70345,7 +70314,7 @@
       </c>
       <c r="AA704" s="4"/>
     </row>
-    <row r="705" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A705" s="13" t="s">
         <v>204</v>
       </c>
@@ -70420,7 +70389,7 @@
       </c>
       <c r="AA705" s="4"/>
     </row>
-    <row r="706" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A706" s="13" t="s">
         <v>204</v>
       </c>
@@ -70495,7 +70464,7 @@
       </c>
       <c r="AA706" s="4"/>
     </row>
-    <row r="707" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A707" s="13" t="s">
         <v>204</v>
       </c>
@@ -70570,7 +70539,7 @@
       </c>
       <c r="AA707" s="4"/>
     </row>
-    <row r="708" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A708" s="13" t="s">
         <v>204</v>
       </c>
@@ -70645,7 +70614,7 @@
       </c>
       <c r="AA708" s="4"/>
     </row>
-    <row r="709" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A709" s="13" t="s">
         <v>204</v>
       </c>
@@ -70720,7 +70689,7 @@
       </c>
       <c r="AA709" s="4"/>
     </row>
-    <row r="710" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A710" s="13" t="s">
         <v>204</v>
       </c>
@@ -70795,7 +70764,7 @@
       </c>
       <c r="AA710" s="4"/>
     </row>
-    <row r="711" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A711" s="13" t="s">
         <v>204</v>
       </c>
@@ -70870,7 +70839,7 @@
       </c>
       <c r="AA711" s="4"/>
     </row>
-    <row r="712" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A712" s="13" t="s">
         <v>204</v>
       </c>
@@ -70945,7 +70914,7 @@
       </c>
       <c r="AA712" s="4"/>
     </row>
-    <row r="713" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A713" s="13" t="s">
         <v>204</v>
       </c>
@@ -71020,7 +70989,7 @@
       </c>
       <c r="AA713" s="4"/>
     </row>
-    <row r="714" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A714" s="13" t="s">
         <v>204</v>
       </c>
@@ -71095,7 +71064,7 @@
       </c>
       <c r="AA714" s="4"/>
     </row>
-    <row r="715" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A715" s="8" t="s">
         <v>204</v>
       </c>
@@ -71170,7 +71139,7 @@
       </c>
       <c r="AA715" s="34"/>
     </row>
-    <row r="716" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A716" s="13" t="s">
         <v>204</v>
       </c>
@@ -71245,7 +71214,7 @@
       </c>
       <c r="AA716" s="4"/>
     </row>
-    <row r="717" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A717" s="8" t="s">
         <v>204</v>
       </c>
@@ -71320,7 +71289,7 @@
       </c>
       <c r="AA717" s="4"/>
     </row>
-    <row r="718" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:27" s="28" customFormat="1">
       <c r="A718" s="8" t="s">
         <v>204</v>
       </c>
@@ -71395,7 +71364,7 @@
       </c>
       <c r="AA718" s="4"/>
     </row>
-    <row r="719" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:27" s="28" customFormat="1">
       <c r="A719" s="13" t="s">
         <v>204</v>
       </c>
@@ -71470,7 +71439,7 @@
       </c>
       <c r="AA719" s="4"/>
     </row>
-    <row r="720" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:27" s="28" customFormat="1">
       <c r="A720" s="13" t="s">
         <v>204</v>
       </c>
@@ -71545,7 +71514,7 @@
       </c>
       <c r="AA720" s="4"/>
     </row>
-    <row r="721" spans="1:27" s="57" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:27" s="28" customFormat="1">
       <c r="A721" s="13" t="s">
         <v>204</v>
       </c>
@@ -71620,7 +71589,7 @@
       </c>
       <c r="AA721" s="4"/>
     </row>
-    <row r="722" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:27" s="28" customFormat="1">
       <c r="A722" s="13" t="s">
         <v>204</v>
       </c>
@@ -71695,7 +71664,7 @@
       </c>
       <c r="AA722" s="4"/>
     </row>
-    <row r="723" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:27" s="28" customFormat="1">
       <c r="A723" s="13" t="s">
         <v>204</v>
       </c>
@@ -71770,7 +71739,7 @@
       </c>
       <c r="AA723" s="4"/>
     </row>
-    <row r="724" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:27" s="28" customFormat="1">
       <c r="A724" s="13" t="s">
         <v>204</v>
       </c>
@@ -71845,7 +71814,7 @@
       </c>
       <c r="AA724" s="4"/>
     </row>
-    <row r="725" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:27" s="28" customFormat="1">
       <c r="A725" s="13" t="s">
         <v>204</v>
       </c>
@@ -71920,7 +71889,7 @@
       </c>
       <c r="AA725" s="4"/>
     </row>
-    <row r="726" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:27" s="28" customFormat="1">
       <c r="A726" s="13" t="s">
         <v>204</v>
       </c>
@@ -71995,7 +71964,7 @@
       </c>
       <c r="AA726" s="4"/>
     </row>
-    <row r="727" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:27" s="28" customFormat="1">
       <c r="A727" s="13" t="s">
         <v>204</v>
       </c>
@@ -72070,7 +72039,7 @@
       </c>
       <c r="AA727" s="4"/>
     </row>
-    <row r="728" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:27" s="28" customFormat="1">
       <c r="A728" s="13" t="s">
         <v>204</v>
       </c>
@@ -72145,7 +72114,7 @@
       </c>
       <c r="AA728" s="4"/>
     </row>
-    <row r="729" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:27" s="28" customFormat="1">
       <c r="A729" s="13" t="s">
         <v>204</v>
       </c>
@@ -72220,7 +72189,7 @@
       </c>
       <c r="AA729" s="4"/>
     </row>
-    <row r="730" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:27" s="28" customFormat="1">
       <c r="A730" s="13" t="s">
         <v>204</v>
       </c>
@@ -72295,7 +72264,7 @@
       </c>
       <c r="AA730" s="4"/>
     </row>
-    <row r="731" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:27" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A731" s="13" t="s">
         <v>4</v>
       </c>
@@ -72376,7 +72345,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="732" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:27" s="28" customFormat="1">
       <c r="A732" s="13" t="s">
         <v>204</v>
       </c>
@@ -72457,7 +72426,7 @@
       </c>
       <c r="AA732" s="4"/>
     </row>
-    <row r="733" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:27" s="28" customFormat="1">
       <c r="A733" s="13" t="s">
         <v>204</v>
       </c>
@@ -72538,7 +72507,7 @@
       </c>
       <c r="AA733" s="4"/>
     </row>
-    <row r="734" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:27" s="28" customFormat="1">
       <c r="A734" s="13" t="s">
         <v>204</v>
       </c>
@@ -72619,7 +72588,7 @@
       </c>
       <c r="AA734" s="4"/>
     </row>
-    <row r="735" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:27" s="28" customFormat="1">
       <c r="A735" s="13" t="s">
         <v>204</v>
       </c>
@@ -72698,7 +72667,7 @@
       </c>
       <c r="AA735" s="4"/>
     </row>
-    <row r="736" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:27" s="28" customFormat="1">
       <c r="A736" s="13" t="s">
         <v>204</v>
       </c>
@@ -72777,7 +72746,7 @@
       </c>
       <c r="AA736" s="4"/>
     </row>
-    <row r="737" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:27" s="28" customFormat="1">
       <c r="A737" s="13" t="s">
         <v>204</v>
       </c>
@@ -72856,7 +72825,7 @@
       </c>
       <c r="AA737" s="4"/>
     </row>
-    <row r="738" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:27" s="28" customFormat="1">
       <c r="A738" s="13" t="s">
         <v>204</v>
       </c>
@@ -72935,7 +72904,7 @@
       </c>
       <c r="AA738" s="4"/>
     </row>
-    <row r="739" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:27" s="28" customFormat="1">
       <c r="A739" s="13" t="s">
         <v>204</v>
       </c>
@@ -73014,7 +72983,7 @@
       </c>
       <c r="AA739" s="4"/>
     </row>
-    <row r="740" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:27" s="28" customFormat="1">
       <c r="A740" s="13" t="s">
         <v>204</v>
       </c>
@@ -73093,7 +73062,7 @@
       </c>
       <c r="AA740" s="4"/>
     </row>
-    <row r="741" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:27" s="28" customFormat="1">
       <c r="A741" s="13" t="s">
         <v>204</v>
       </c>
@@ -73174,7 +73143,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="742" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:27" s="28" customFormat="1">
       <c r="A742" s="13" t="s">
         <v>204</v>
       </c>
@@ -73255,7 +73224,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="743" spans="1:27" s="57" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:27" s="28" customFormat="1">
       <c r="A743" s="48" t="s">
         <v>204</v>
       </c>
@@ -73265,8 +73234,8 @@
       <c r="C743" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="D743" s="50">
-        <v>1942</v>
+      <c r="D743" s="66" t="s">
+        <v>2472</v>
       </c>
       <c r="E743" s="49" t="s">
         <v>2467</v>
@@ -73313,7 +73282,7 @@
       <c r="S743" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="T743" s="66" t="s">
+      <c r="T743" s="65" t="s">
         <v>2470</v>
       </c>
       <c r="U743" s="49" t="s">
@@ -73334,74 +73303,74 @@
       </c>
       <c r="AA743" s="49"/>
     </row>
-    <row r="744" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="L744" s="59"/>
+    <row r="744" spans="1:27">
+      <c r="L744" s="58"/>
       <c r="R744" s="6"/>
       <c r="X744" s="7"/>
       <c r="Y744" s="7"/>
     </row>
-    <row r="745" spans="1:27" s="56" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:27" s="56" customFormat="1" ht="16.5" customHeight="1">
       <c r="A745" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C745" s="60"/>
-      <c r="D745" s="60"/>
-      <c r="E745" s="60"/>
-      <c r="F745" s="60"/>
-      <c r="G745" s="60"/>
-      <c r="H745" s="60"/>
-      <c r="I745" s="60"/>
-      <c r="J745" s="60"/>
-      <c r="K745" s="60"/>
-      <c r="L745" s="61"/>
-      <c r="M745" s="62"/>
+      <c r="C745" s="59"/>
+      <c r="D745" s="59"/>
+      <c r="E745" s="59"/>
+      <c r="F745" s="59"/>
+      <c r="G745" s="59"/>
+      <c r="H745" s="59"/>
+      <c r="I745" s="59"/>
+      <c r="J745" s="59"/>
+      <c r="K745" s="59"/>
+      <c r="L745" s="60"/>
+      <c r="M745" s="61"/>
       <c r="R745" s="6"/>
-      <c r="S745" s="60"/>
-      <c r="T745" s="60"/>
-      <c r="U745" s="60"/>
-      <c r="V745" s="60"/>
-      <c r="W745" s="60"/>
-      <c r="X745" s="60"/>
-      <c r="Y745" s="60"/>
-      <c r="Z745" s="60"/>
-      <c r="AA745" s="60"/>
-    </row>
-    <row r="746" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S745" s="59"/>
+      <c r="T745" s="59"/>
+      <c r="U745" s="59"/>
+      <c r="V745" s="59"/>
+      <c r="W745" s="59"/>
+      <c r="X745" s="59"/>
+      <c r="Y745" s="59"/>
+      <c r="Z745" s="59"/>
+      <c r="AA745" s="59"/>
+    </row>
+    <row r="746" spans="1:27" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A746" s="56" t="s">
         <v>2455</v>
       </c>
-      <c r="B746" s="63"/>
-      <c r="C746" s="60"/>
-      <c r="D746" s="60"/>
-      <c r="E746" s="60"/>
-      <c r="F746" s="60"/>
-      <c r="G746" s="60"/>
-      <c r="H746" s="60"/>
-      <c r="I746" s="60"/>
-      <c r="J746" s="60"/>
-      <c r="K746" s="60"/>
-      <c r="L746" s="61"/>
-      <c r="M746" s="60"/>
-      <c r="N746" s="60"/>
-      <c r="O746" s="60"/>
-      <c r="P746" s="60"/>
-      <c r="Q746" s="60"/>
+      <c r="B746" s="62"/>
+      <c r="C746" s="59"/>
+      <c r="D746" s="59"/>
+      <c r="E746" s="59"/>
+      <c r="F746" s="59"/>
+      <c r="G746" s="59"/>
+      <c r="H746" s="59"/>
+      <c r="I746" s="59"/>
+      <c r="J746" s="59"/>
+      <c r="K746" s="59"/>
+      <c r="L746" s="60"/>
+      <c r="M746" s="59"/>
+      <c r="N746" s="59"/>
+      <c r="O746" s="59"/>
+      <c r="P746" s="59"/>
+      <c r="Q746" s="59"/>
       <c r="R746" s="6"/>
-      <c r="S746" s="60"/>
-      <c r="T746" s="60"/>
-      <c r="U746" s="60"/>
-      <c r="V746" s="64"/>
-      <c r="W746" s="64"/>
-      <c r="X746" s="64"/>
-      <c r="Y746" s="64"/>
-      <c r="Z746" s="64"/>
-      <c r="AA746" s="64"/>
-    </row>
-    <row r="747" spans="1:27" s="56" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
+      <c r="S746" s="59"/>
+      <c r="T746" s="59"/>
+      <c r="U746" s="59"/>
+      <c r="V746" s="63"/>
+      <c r="W746" s="63"/>
+      <c r="X746" s="63"/>
+      <c r="Y746" s="63"/>
+      <c r="Z746" s="63"/>
+      <c r="AA746" s="63"/>
+    </row>
+    <row r="747" spans="1:27" s="56" customFormat="1">
       <c r="A747" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="L747" s="65"/>
+      <c r="L747" s="64"/>
       <c r="R747" s="6"/>
     </row>
   </sheetData>

--- a/data/xls/noto.xlsx
+++ b/data/xls/noto.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\flsv\全庁共有\令和6年能登半島地震\02_西垣副知事災害対応チーム\04広域避難者支援Ｇ\16 仮設住宅\20240128_被災者の住宅選定支援\20241108更新\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\flsv\全庁共有\令和6年能登半島地震\02_西垣副知事災害対応チーム\04広域避難者支援Ｇ\16 仮設住宅\20240128_被災者の住宅選定支援\20241211更新\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6941B3C4-493F-4B5F-B7D0-9EC43A78FCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F51772-4B9D-4202-9E48-83CF7EC6EFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2130" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1800" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$AA$695</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$AA$702</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$AA$704</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8893" uniqueCount="2328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8921" uniqueCount="2345">
   <si>
     <t>団体名</t>
     <rPh sb="0" eb="3">
@@ -15322,6 +15322,133 @@
   <si>
     <t>1996.4</t>
   </si>
+  <si>
+    <t>ダイアパレス北安江</t>
+    <rPh sb="6" eb="7">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金沢市北安江1丁目4番12号</t>
+    <rPh sb="0" eb="3">
+      <t>カナザワシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウメ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1989.4</t>
+  </si>
+  <si>
+    <t>2-1954</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>924-0016</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>6ＬＤＫ</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>平成4年7月</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>076-218-6014</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>駐車場2台</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>宮永市町貸家</t>
+    <rPh sb="0" eb="3">
+      <t>ミヤナガイチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白山市宮永市町650-7</t>
+    <rPh sb="0" eb="3">
+      <t>ハクサンシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミヤナガイチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一戸建て</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相談</t>
+    <rPh sb="0" eb="2">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(有)ネクストライフサポート</t>
+    <rPh sb="1" eb="2">
+      <t>ユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1-74</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -15331,7 +15458,7 @@
     <numFmt numFmtId="176" formatCode="###0;###0"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -15402,8 +15529,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15414,6 +15547,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -15549,7 +15687,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -15732,6 +15870,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -16075,11 +16216,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA702"/>
+  <dimension ref="A1:AA704"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A667" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B695" sqref="B695"/>
+      <pane ySplit="1" topLeftCell="A684" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A701" sqref="A701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -68733,320 +68874,480 @@
       <c r="AA695" s="4"/>
     </row>
     <row r="696" spans="1:27" s="45" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A696" s="57" t="s">
+      <c r="A696" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B696" s="58">
+      <c r="B696" s="55">
         <v>20241108</v>
       </c>
-      <c r="C696" s="57" t="s">
+      <c r="C696" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D696" s="57" t="s">
+      <c r="D696" s="4" t="s">
         <v>2320</v>
       </c>
-      <c r="E696" s="57" t="s">
+      <c r="E696" s="4" t="s">
         <v>2325</v>
       </c>
-      <c r="F696" s="57">
+      <c r="F696" s="4">
         <v>206</v>
       </c>
-      <c r="G696" s="57">
+      <c r="G696" s="4">
         <v>2</v>
       </c>
-      <c r="H696" s="57" t="s">
+      <c r="H696" s="4" t="s">
         <v>2277</v>
       </c>
-      <c r="I696" s="57" t="s">
+      <c r="I696" s="4" t="s">
         <v>2323</v>
       </c>
-      <c r="J696" s="57">
+      <c r="J696" s="4">
         <v>36.513702705933902</v>
       </c>
-      <c r="K696" s="57">
+      <c r="K696" s="4">
         <v>136.576880924108</v>
       </c>
-      <c r="L696" s="59">
+      <c r="L696" s="24">
         <v>45000</v>
       </c>
-      <c r="M696" s="57">
+      <c r="M696" s="4">
         <v>3000</v>
       </c>
-      <c r="N696" s="57">
-        <v>0</v>
-      </c>
-      <c r="O696" s="57">
+      <c r="N696" s="4">
+        <v>0</v>
+      </c>
+      <c r="O696" s="4">
         <v>90000</v>
       </c>
-      <c r="P696" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q696" s="57">
+      <c r="P696" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q696" s="4">
         <v>24750.000000000004</v>
       </c>
-      <c r="R696" s="60" t="s">
+      <c r="R696" s="54" t="s">
         <v>2028</v>
       </c>
-      <c r="S696" s="57" t="s">
+      <c r="S696" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="T696" s="57" t="s">
+      <c r="T696" s="4" t="s">
         <v>2327</v>
       </c>
-      <c r="U696" s="57" t="s">
+      <c r="U696" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="V696" s="57" t="s">
+      <c r="V696" s="4" t="s">
         <v>2278</v>
       </c>
-      <c r="W696" s="57" t="s">
+      <c r="W696" s="4" t="s">
         <v>2280</v>
       </c>
-      <c r="X696" s="57"/>
-      <c r="Y696" s="57" t="s">
+      <c r="X696" s="4"/>
+      <c r="Y696" s="4" t="s">
         <v>1413</v>
       </c>
-      <c r="Z696" s="57">
+      <c r="Z696" s="4">
         <v>3000</v>
       </c>
-      <c r="AA696" s="57"/>
+      <c r="AA696" s="4"/>
     </row>
     <row r="697" spans="1:27" s="45" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A697" s="57" t="s">
+      <c r="A697" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B697" s="58">
+      <c r="B697" s="55">
         <v>20241108</v>
       </c>
-      <c r="C697" s="57" t="s">
+      <c r="C697" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D697" s="57" t="s">
+      <c r="D697" s="4" t="s">
         <v>2321</v>
       </c>
-      <c r="E697" s="57" t="s">
+      <c r="E697" s="4" t="s">
         <v>2325</v>
       </c>
-      <c r="F697" s="57">
+      <c r="F697" s="4">
         <v>103</v>
       </c>
-      <c r="G697" s="57">
+      <c r="G697" s="4">
         <v>1</v>
       </c>
-      <c r="H697" s="57" t="s">
+      <c r="H697" s="4" t="s">
         <v>2277</v>
       </c>
-      <c r="I697" s="57" t="s">
+      <c r="I697" s="4" t="s">
         <v>2323</v>
       </c>
-      <c r="J697" s="57">
+      <c r="J697" s="4">
         <v>36.513702705933902</v>
       </c>
-      <c r="K697" s="57">
+      <c r="K697" s="4">
         <v>136.576880924108</v>
       </c>
-      <c r="L697" s="59">
+      <c r="L697" s="24">
         <v>45000</v>
       </c>
-      <c r="M697" s="57">
+      <c r="M697" s="4">
         <v>3000</v>
       </c>
-      <c r="N697" s="57">
-        <v>0</v>
-      </c>
-      <c r="O697" s="57">
+      <c r="N697" s="4">
+        <v>0</v>
+      </c>
+      <c r="O697" s="4">
         <v>90000</v>
       </c>
-      <c r="P697" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q697" s="57">
+      <c r="P697" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q697" s="4">
         <v>24750.000000000004</v>
       </c>
-      <c r="R697" s="60" t="s">
+      <c r="R697" s="54" t="s">
         <v>2028</v>
       </c>
-      <c r="S697" s="57" t="s">
+      <c r="S697" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="T697" s="57" t="s">
+      <c r="T697" s="4" t="s">
         <v>2327</v>
       </c>
-      <c r="U697" s="57" t="s">
+      <c r="U697" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="V697" s="57" t="s">
+      <c r="V697" s="4" t="s">
         <v>2278</v>
       </c>
-      <c r="W697" s="57" t="s">
+      <c r="W697" s="4" t="s">
         <v>2280</v>
       </c>
-      <c r="X697" s="57"/>
-      <c r="Y697" s="57" t="s">
+      <c r="X697" s="4"/>
+      <c r="Y697" s="4" t="s">
         <v>1413</v>
       </c>
-      <c r="Z697" s="57">
+      <c r="Z697" s="4">
         <v>3000</v>
       </c>
-      <c r="AA697" s="57"/>
+      <c r="AA697" s="4"/>
     </row>
     <row r="698" spans="1:27" s="45" customFormat="1" ht="11" x14ac:dyDescent="0.3">
-      <c r="A698" s="57" t="s">
+      <c r="A698" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B698" s="58">
+      <c r="B698" s="55">
         <v>20241108</v>
       </c>
-      <c r="C698" s="57" t="s">
+      <c r="C698" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D698" s="57" t="s">
+      <c r="D698" s="4" t="s">
         <v>2322</v>
       </c>
-      <c r="E698" s="57" t="s">
+      <c r="E698" s="4" t="s">
         <v>2326</v>
       </c>
-      <c r="F698" s="57">
+      <c r="F698" s="4">
         <v>101</v>
       </c>
-      <c r="G698" s="57">
+      <c r="G698" s="4">
         <v>1</v>
       </c>
-      <c r="H698" s="57" t="s">
+      <c r="H698" s="4" t="s">
         <v>2277</v>
       </c>
-      <c r="I698" s="57" t="s">
+      <c r="I698" s="4" t="s">
         <v>2324</v>
       </c>
-      <c r="J698" s="57">
+      <c r="J698" s="4">
         <v>36.514314822550503</v>
       </c>
-      <c r="K698" s="57">
+      <c r="K698" s="4">
         <v>136.577070999694</v>
       </c>
-      <c r="L698" s="59">
+      <c r="L698" s="24">
         <v>45000</v>
       </c>
-      <c r="M698" s="57">
+      <c r="M698" s="4">
         <v>3000</v>
       </c>
-      <c r="N698" s="57">
-        <v>0</v>
-      </c>
-      <c r="O698" s="57">
+      <c r="N698" s="4">
+        <v>0</v>
+      </c>
+      <c r="O698" s="4">
         <v>90000</v>
       </c>
-      <c r="P698" s="57">
-        <v>0</v>
-      </c>
-      <c r="Q698" s="57">
+      <c r="P698" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q698" s="4">
         <v>24750.000000000004</v>
       </c>
-      <c r="R698" s="60" t="s">
+      <c r="R698" s="54" t="s">
         <v>2028</v>
       </c>
-      <c r="S698" s="57" t="s">
+      <c r="S698" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="T698" s="57" t="s">
+      <c r="T698" s="4" t="s">
         <v>2327</v>
       </c>
-      <c r="U698" s="57" t="s">
+      <c r="U698" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="V698" s="57" t="s">
+      <c r="V698" s="4" t="s">
         <v>2278</v>
       </c>
-      <c r="W698" s="57" t="s">
+      <c r="W698" s="4" t="s">
         <v>2280</v>
       </c>
-      <c r="X698" s="57"/>
-      <c r="Y698" s="57" t="s">
+      <c r="X698" s="4"/>
+      <c r="Y698" s="4" t="s">
         <v>1413</v>
       </c>
-      <c r="Z698" s="57">
+      <c r="Z698" s="4">
         <v>3000</v>
       </c>
-      <c r="AA698" s="57"/>
-    </row>
-    <row r="699" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="L699" s="47"/>
-      <c r="R699" s="6"/>
-      <c r="X699" s="7"/>
-      <c r="Y699" s="7"/>
-    </row>
-    <row r="700" spans="1:27" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A700" s="44" t="s">
+      <c r="AA698" s="4"/>
+    </row>
+    <row r="699" spans="1:27" s="45" customFormat="1" ht="11" x14ac:dyDescent="0.3">
+      <c r="A699" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="B699" s="58">
+        <v>20241115</v>
+      </c>
+      <c r="C699" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D699" s="57" t="s">
+        <v>2331</v>
+      </c>
+      <c r="E699" s="57" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F699" s="57">
+        <v>704</v>
+      </c>
+      <c r="G699" s="57">
+        <v>7</v>
+      </c>
+      <c r="H699" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="I699" s="57" t="s">
+        <v>2329</v>
+      </c>
+      <c r="J699" s="57">
+        <v>36.582491812944198</v>
+      </c>
+      <c r="K699" s="57">
+        <v>136.64849952841101</v>
+      </c>
+      <c r="L699" s="59">
+        <v>80000</v>
+      </c>
+      <c r="M699" s="57">
+        <v>10000</v>
+      </c>
+      <c r="N699" s="57">
+        <v>0</v>
+      </c>
+      <c r="O699" s="57">
+        <v>160000</v>
+      </c>
+      <c r="P699" s="57">
+        <v>80000</v>
+      </c>
+      <c r="Q699" s="57">
+        <v>44000</v>
+      </c>
+      <c r="R699" s="60" t="s">
+        <v>2028</v>
+      </c>
+      <c r="S699" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="T699" s="57" t="s">
+        <v>2330</v>
+      </c>
+      <c r="U699" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="V699" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="W699" s="57" t="s">
+        <v>445</v>
+      </c>
+      <c r="X699" s="57"/>
+      <c r="Y699" s="57" t="s">
+        <v>1413</v>
+      </c>
+      <c r="Z699" s="57">
+        <v>3000</v>
+      </c>
+      <c r="AA699" s="57"/>
+    </row>
+    <row r="700" spans="1:27" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A700" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B700" s="58">
+        <v>20241210</v>
+      </c>
+      <c r="C700" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D700" s="57" t="s">
+        <v>2344</v>
+      </c>
+      <c r="E700" s="57" t="s">
+        <v>2338</v>
+      </c>
+      <c r="F700" s="57" t="s">
+        <v>2332</v>
+      </c>
+      <c r="G700" s="57">
+        <v>2</v>
+      </c>
+      <c r="H700" s="57" t="s">
+        <v>2333</v>
+      </c>
+      <c r="I700" s="57" t="s">
+        <v>2339</v>
+      </c>
+      <c r="J700" s="57">
+        <v>36.537811716454499</v>
+      </c>
+      <c r="K700" s="57">
+        <v>136.57475451168099</v>
+      </c>
+      <c r="L700" s="59">
+        <v>60000</v>
+      </c>
+      <c r="M700" s="57">
+        <v>0</v>
+      </c>
+      <c r="N700" s="57">
+        <v>2000</v>
+      </c>
+      <c r="O700" s="57">
+        <v>120000</v>
+      </c>
+      <c r="P700" s="57">
+        <v>60000</v>
+      </c>
+      <c r="Q700" s="57">
+        <v>33000</v>
+      </c>
+      <c r="R700" s="60" t="s">
+        <v>2340</v>
+      </c>
+      <c r="S700" s="57" t="s">
+        <v>2334</v>
+      </c>
+      <c r="T700" s="57" t="s">
+        <v>2335</v>
+      </c>
+      <c r="U700" s="57" t="s">
+        <v>2341</v>
+      </c>
+      <c r="V700" s="57" t="s">
+        <v>2342</v>
+      </c>
+      <c r="W700" s="57" t="s">
+        <v>2336</v>
+      </c>
+      <c r="X700" s="57"/>
+      <c r="Y700" s="57" t="s">
+        <v>2343</v>
+      </c>
+      <c r="Z700" s="57">
+        <v>0</v>
+      </c>
+      <c r="AA700" s="57" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="701" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="L701" s="47"/>
+      <c r="R701" s="6"/>
+      <c r="X701" s="7"/>
+      <c r="Y701" s="7"/>
+    </row>
+    <row r="702" spans="1:27" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A702" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C700" s="48"/>
-      <c r="D700" s="48"/>
-      <c r="E700" s="48"/>
-      <c r="F700" s="48"/>
-      <c r="G700" s="48"/>
-      <c r="H700" s="48"/>
-      <c r="I700" s="48"/>
-      <c r="J700" s="48"/>
-      <c r="K700" s="48"/>
-      <c r="L700" s="49"/>
-      <c r="M700" s="50"/>
-      <c r="R700" s="6"/>
-      <c r="S700" s="48"/>
-      <c r="T700" s="48"/>
-      <c r="U700" s="48"/>
-      <c r="V700" s="48"/>
-      <c r="W700" s="48"/>
-      <c r="X700" s="48"/>
-      <c r="Y700" s="48"/>
-      <c r="Z700" s="48"/>
-      <c r="AA700" s="48"/>
-    </row>
-    <row r="701" spans="1:27" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A701" s="44" t="s">
+      <c r="C702" s="48"/>
+      <c r="D702" s="48"/>
+      <c r="E702" s="48"/>
+      <c r="F702" s="48"/>
+      <c r="G702" s="48"/>
+      <c r="H702" s="48"/>
+      <c r="I702" s="48"/>
+      <c r="J702" s="48"/>
+      <c r="K702" s="48"/>
+      <c r="L702" s="49"/>
+      <c r="M702" s="50"/>
+      <c r="R702" s="6"/>
+      <c r="S702" s="48"/>
+      <c r="T702" s="48"/>
+      <c r="U702" s="48"/>
+      <c r="V702" s="48"/>
+      <c r="W702" s="48"/>
+      <c r="X702" s="48"/>
+      <c r="Y702" s="48"/>
+      <c r="Z702" s="48"/>
+      <c r="AA702" s="48"/>
+    </row>
+    <row r="703" spans="1:27" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A703" s="44" t="s">
         <v>2264</v>
       </c>
-      <c r="B701" s="51"/>
-      <c r="C701" s="48"/>
-      <c r="D701" s="48"/>
-      <c r="E701" s="48"/>
-      <c r="F701" s="48"/>
-      <c r="G701" s="48"/>
-      <c r="H701" s="48"/>
-      <c r="I701" s="48"/>
-      <c r="J701" s="48"/>
-      <c r="K701" s="48"/>
-      <c r="L701" s="49"/>
-      <c r="M701" s="48"/>
-      <c r="N701" s="48"/>
-      <c r="O701" s="48"/>
-      <c r="P701" s="48"/>
-      <c r="Q701" s="48"/>
-      <c r="R701" s="6"/>
-      <c r="S701" s="48"/>
-      <c r="T701" s="48"/>
-      <c r="U701" s="48"/>
-      <c r="V701" s="52"/>
-      <c r="W701" s="52"/>
-      <c r="X701" s="52"/>
-      <c r="Y701" s="52"/>
-      <c r="Z701" s="52"/>
-      <c r="AA701" s="52"/>
-    </row>
-    <row r="702" spans="1:27" s="44" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
-      <c r="A702" s="44" t="s">
+      <c r="B703" s="51"/>
+      <c r="C703" s="48"/>
+      <c r="D703" s="48"/>
+      <c r="E703" s="48"/>
+      <c r="F703" s="48"/>
+      <c r="G703" s="48"/>
+      <c r="H703" s="48"/>
+      <c r="I703" s="48"/>
+      <c r="J703" s="48"/>
+      <c r="K703" s="48"/>
+      <c r="L703" s="49"/>
+      <c r="M703" s="48"/>
+      <c r="N703" s="48"/>
+      <c r="O703" s="48"/>
+      <c r="P703" s="48"/>
+      <c r="Q703" s="48"/>
+      <c r="R703" s="6"/>
+      <c r="S703" s="48"/>
+      <c r="T703" s="48"/>
+      <c r="U703" s="48"/>
+      <c r="V703" s="52"/>
+      <c r="W703" s="52"/>
+      <c r="X703" s="52"/>
+      <c r="Y703" s="52"/>
+      <c r="Z703" s="52"/>
+      <c r="AA703" s="52"/>
+    </row>
+    <row r="704" spans="1:27" s="44" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
+      <c r="A704" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="L702" s="53"/>
-      <c r="R702" s="6"/>
+      <c r="L704" s="53"/>
+      <c r="R704" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AA695" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q275:R275 P662:P674 R674 Q660:Q672 P660 Q648:Q658 M687:M689 N675:N689 O673:O686 Q392:Q393 R690:R702 R2:R274 R276:R391 R394:R661" xr:uid="{93404C4F-32FA-4DDB-B2CE-6F66EBABE3D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q275:R275 P662:P674 R674 Q660:Q672 P660 Q648:Q658 M687:M689 N675:N689 O673:O686 Q392:Q393 R394:R661 R2:R274 R276:R391 R690:R704" xr:uid="{93404C4F-32FA-4DDB-B2CE-6F66EBABE3D3}">
       <formula1>"一戸建て,共同住宅,長屋"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A698" xr:uid="{C2737039-00AB-4E52-80C3-D8BDB07BCFF5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A700" xr:uid="{C2737039-00AB-4E52-80C3-D8BDB07BCFF5}">
       <formula1>"(公社)石川県宅地建物取引業協会,(公社)全日本不動産協会石川県本部"</formula1>
     </dataValidation>
   </dataValidations>
